--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者氏名変更（訂正）届 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'被保険者氏名変更（訂正）届 '!$A$1:$AM$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'被保険者氏名変更（訂正）届 '!$A$1:$AM$36</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -346,75 +346,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>【記入の方法】</t>
-  </si>
-  <si>
-    <t>1．③は、本人確認を行ったうえで、個人番号を記入してください。基礎年金番号を記入する場合は、年金手帳等に記載</t>
-  </si>
-  <si>
-    <t>2．④の年号は、該当する文字を○印で囲んでください。生年月日は、例えば、昭和32年2月7日生まれの場合は、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3．㋐は、被保検者が坑内員以外の男子であるときは「1」を、女子であるときは「2」を、坑内員であるときは「３」を○印</t>
-  </si>
-  <si>
-    <t>4．⑤の「フリガナ」は、カタカナで正確に記入してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5．㋒は、被保険者整理番号又は年金手帳の基礎年金番号の通知をまだ受けていないときは、その旨を記入してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6．事業主の押印については、署名（自筆）の場合は省略できます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7．本手続は電子申請による届出も可能です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  　されている１０桁の番号を左詰めで記入してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　で囲んでください。ただし、厚生年金基金の加入員であって、坑内員以外の男子であるときは「5」を、女子であるときは</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　「６」を、坑内員であるときは「7」を○印で囲んでください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　なお、全国健康保険協会が管掌する健康保険及び厚生年金保険においては、本手続について、社会保険労務士が</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　電子申請により本届書の提出に関する手続を事業主に代わって行う場合には、当該社会保険労務士が当該事業主の</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　提出代行者であることを証明することができるものを本届書の提出と併せて送信することをもって、当該事業主の電子署</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　名に代えることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　　　のように記入してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>④　 生　　年　　月　　日</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,10 +355,6 @@
   </si>
   <si>
     <t>種　別</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（性別）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -577,11 +504,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>（性別）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="32">
     <font>
       <sz val="11"/>
@@ -1468,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1632,10 +1562,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2042,6 +1968,24 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2192,33 +2136,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2407,8 +2336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10598426" y="1980786"/>
-          <a:ext cx="171450" cy="1096203"/>
+          <a:off x="10610850" y="1971675"/>
+          <a:ext cx="171450" cy="1152525"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -2748,8 +2677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9731237" y="3294408"/>
-          <a:ext cx="152400" cy="894935"/>
+          <a:off x="9744075" y="3343275"/>
+          <a:ext cx="152400" cy="895350"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -3136,105 +3065,730 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1714499" y="11830050"/>
-          <a:ext cx="1590675" cy="590550"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7661413" y="2524466"/>
+          <a:ext cx="463826" cy="233642"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190495</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>107676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>130485</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1706212" y="11065567"/>
-          <a:ext cx="1581984" cy="668853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="A1_6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653130" y="2799522"/>
+          <a:ext cx="463826" cy="213619"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>289892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147359</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="A1_5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669696" y="2667001"/>
+          <a:ext cx="463826" cy="213619"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="A1_7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7661414" y="2932044"/>
+          <a:ext cx="463826" cy="213619"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>105945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="A1_8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653130" y="3072848"/>
+          <a:ext cx="463826" cy="213619"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="C1_9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9864587" y="2534478"/>
+          <a:ext cx="463826" cy="233642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>306456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="C1_10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9856305" y="2683565"/>
+          <a:ext cx="463826" cy="233642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="C1_11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9864587" y="2849218"/>
+          <a:ext cx="463826" cy="233642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>323021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="C1_12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10146196" y="2700130"/>
+          <a:ext cx="463826" cy="233642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="C1_13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10154478" y="2824370"/>
+          <a:ext cx="463826" cy="233642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="C1_14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10171043" y="2981739"/>
+          <a:ext cx="463826" cy="233642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3581,13 +4135,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
@@ -3723,26 +4275,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="161" t="s">
+      <c r="Y3" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="161" t="s">
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="161" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="161" t="s">
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="163"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -3771,24 +4323,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="158" t="s">
+      <c r="Y4" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="158" t="s">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="158" t="s">
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="160"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="158"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -3802,39 +4354,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="120" t="s">
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="148"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="141"/>
+      <c r="AL5" s="139"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -3846,37 +4398,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="157" t="s">
+      <c r="J6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="149"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="150"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="149"/>
-      <c r="AI6" s="150"/>
-      <c r="AJ6" s="151"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="149"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="141"/>
+      <c r="AL6" s="139"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -3921,155 +4473,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="146" t="s">
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="147"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="146" t="s">
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="146" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="147"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI8" s="153"/>
-      <c r="AJ8" s="221"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="144" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="225"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="222"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="226"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="1:39" ht="14.25" thickBot="1">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="144" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="222"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="226"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="188"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4082,197 +4634,197 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="268" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA11" s="263"/>
+      <c r="Z11" s="211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="212"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AD11" s="35"/>
       <c r="AE11" s="35" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="AF11" s="35"/>
       <c r="AG11" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AH11" s="37" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="222"/>
+      <c r="AJ11" s="226"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="167"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="202"/>
-      <c r="X12" s="202"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="265"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="195"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="169"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="200"/>
+      <c r="X12" s="200"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="213"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="195"/>
+      <c r="AG12" s="167"/>
       <c r="AH12" s="38" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ12" s="222"/>
+        <v>37</v>
+      </c>
+      <c r="AJ12" s="226"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="202"/>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="265"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="195"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="169"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="213"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="195"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="195"/>
+      <c r="AG13" s="167"/>
       <c r="AH13" s="38" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ13" s="222"/>
+        <v>39</v>
+      </c>
+      <c r="AJ13" s="226"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="171"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="202"/>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="169"/>
-      <c r="Z14" s="264"/>
-      <c r="AA14" s="265"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="195"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="169"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="213"/>
+      <c r="AA14" s="214"/>
+      <c r="AB14" s="195"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="195"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="195"/>
+      <c r="AG14" s="167"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ14" s="222"/>
+        <v>40</v>
+      </c>
+      <c r="AJ14" s="226"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="179"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="266"/>
-      <c r="AA15" s="267"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="196"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="170"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="215"/>
+      <c r="AA15" s="216"/>
+      <c r="AB15" s="196"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="196"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="196"/>
+      <c r="AG15" s="168"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="223"/>
+      <c r="AJ15" s="227"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4280,54 +4832,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="103"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="164" t="s">
+      <c r="J16" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="165" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="173" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="174"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="175"/>
-      <c r="U16" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="244" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA16" s="245"/>
-      <c r="AB16" s="245"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="238" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="163" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="249"/>
+      <c r="AB16" s="249"/>
+      <c r="AC16" s="250"/>
+      <c r="AD16" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="239"/>
-      <c r="AF16" s="239"/>
-      <c r="AG16" s="200"/>
-      <c r="AH16" s="234" t="s">
+      <c r="AE16" s="243"/>
+      <c r="AF16" s="243"/>
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="234"/>
-      <c r="AJ16" s="235"/>
+      <c r="AI16" s="238"/>
+      <c r="AJ16" s="239"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -4335,132 +4887,132 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="103"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="45" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="209"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="210"/>
-      <c r="Z17" s="204"/>
-      <c r="AA17" s="190"/>
-      <c r="AB17" s="190"/>
-      <c r="AC17" s="205"/>
-      <c r="AD17" s="240"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="201"/>
-      <c r="AH17" s="236"/>
-      <c r="AI17" s="236"/>
-      <c r="AJ17" s="237"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="208"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="244"/>
+      <c r="AE17" s="245"/>
+      <c r="AF17" s="245"/>
+      <c r="AG17" s="199"/>
+      <c r="AH17" s="240"/>
+      <c r="AI17" s="240"/>
+      <c r="AJ17" s="241"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="248"/>
-      <c r="O18" s="248"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="190"/>
-      <c r="AB18" s="190"/>
-      <c r="AC18" s="205"/>
-      <c r="AD18" s="228" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE18" s="230" t="s">
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="253"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="208"/>
+      <c r="Z18" s="202"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="232" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE18" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="242" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="201"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="224"/>
-      <c r="AJ18" s="225"/>
+      <c r="AF18" s="246" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="199"/>
+      <c r="AH18" s="228"/>
+      <c r="AI18" s="228"/>
+      <c r="AJ18" s="229"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="150"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="211"/>
-      <c r="V19" s="207"/>
-      <c r="W19" s="207"/>
-      <c r="X19" s="207"/>
-      <c r="Y19" s="212"/>
-      <c r="Z19" s="206"/>
-      <c r="AA19" s="207"/>
-      <c r="AB19" s="207"/>
-      <c r="AC19" s="208"/>
-      <c r="AD19" s="229"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="243"/>
-      <c r="AG19" s="201"/>
-      <c r="AH19" s="226"/>
-      <c r="AI19" s="226"/>
-      <c r="AJ19" s="227"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="209"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="206"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="235"/>
+      <c r="AF19" s="247"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="230"/>
+      <c r="AI19" s="230"/>
+      <c r="AJ19" s="231"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -4468,8 +5020,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -4486,19 +5038,19 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="V20" s="112"/>
-      <c r="W20" s="84"/>
+      <c r="U20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" s="110"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="84"/>
+      <c r="Y20" s="82"/>
       <c r="Z20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AA20" s="84"/>
+      <c r="AA20" s="82"/>
       <c r="AB20" s="41" t="s">
         <v>2</v>
       </c>
@@ -4518,28 +5070,28 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="213" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="86"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="217" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
+      <c r="S21" s="218"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="84"/>
       <c r="W21" s="22"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="24"/>
@@ -4551,10 +5103,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="199" t="s">
+      <c r="AH21" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="199"/>
+      <c r="AI21" s="197"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -4562,20 +5114,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="250" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="261" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="265" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="266"/>
+      <c r="L22" s="266"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -4585,7 +5137,7 @@
       <c r="S22" s="46"/>
       <c r="T22" s="46"/>
       <c r="U22" s="46"/>
-      <c r="V22" s="87"/>
+      <c r="V22" s="85"/>
       <c r="W22" s="22"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="24"/>
@@ -4597,35 +5149,35 @@
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="82"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="80"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
     </row>
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="216"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="216"/>
-      <c r="S23" s="216"/>
-      <c r="T23" s="216"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="80"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
+      <c r="T23" s="220"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="78"/>
       <c r="W23" s="22"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="24"/>
@@ -4637,35 +5189,35 @@
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="82"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="80"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
     </row>
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="108" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="217"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="222"/>
+      <c r="M24" s="222"/>
+      <c r="N24" s="222"/>
+      <c r="O24" s="222"/>
+      <c r="P24" s="222"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -4688,28 +5240,28 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="111" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
-      <c r="T25" s="83"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="V25" s="19"/>
       <c r="W25" s="28"/>
@@ -4732,25 +5284,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="88"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="260"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="260"/>
-      <c r="T26" s="260"/>
-      <c r="U26" s="260"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="263"/>
+      <c r="Q26" s="264"/>
+      <c r="R26" s="264"/>
+      <c r="S26" s="264"/>
+      <c r="T26" s="264"/>
+      <c r="U26" s="264"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -4772,32 +5324,32 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="252" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="257" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="256" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="259" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="260"/>
+      <c r="L27" s="260"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="260"/>
+      <c r="O27" s="260"/>
+      <c r="P27" s="260"/>
+      <c r="Q27" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="257"/>
-      <c r="S27" s="257"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
-      <c r="V27" s="90"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -4817,12 +5369,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -4867,14 +5419,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="94"/>
+      <c r="W31" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -4885,683 +5437,78 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="96"/>
-      <c r="AG32" s="96"/>
-      <c r="AH32" s="96"/>
-      <c r="AI32" s="96"/>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="98"/>
+      <c r="W32" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="96"/>
     </row>
-    <row r="33" spans="7:37">
+    <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="99" t="s">
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="100"/>
+      <c r="AK33" s="98"/>
     </row>
-    <row r="34" spans="7:37">
+    <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="99"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="99"/>
-      <c r="AK34" s="100"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="98"/>
     </row>
-    <row r="35" spans="7:37">
+    <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101"/>
-      <c r="AD35" s="101"/>
-      <c r="AE35" s="101"/>
-      <c r="AF35" s="101"/>
-      <c r="AG35" s="101"/>
-      <c r="AH35" s="101"/>
-      <c r="AI35" s="101"/>
-      <c r="AJ35" s="101"/>
-      <c r="AK35" s="102"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="100"/>
     </row>
-    <row r="38" spans="7:37" ht="39.75" customHeight="1"/>
-    <row r="39" spans="7:37" ht="40.5" customHeight="1"/>
-    <row r="40" spans="7:37" ht="17.25">
-      <c r="G40" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="73"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="73"/>
-    </row>
-    <row r="41" spans="7:37" ht="19.5" customHeight="1">
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-    </row>
-    <row r="42" spans="7:37" ht="19.5" customHeight="1">
-      <c r="G42" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="73"/>
-      <c r="AC42" s="73"/>
-      <c r="AD42" s="73"/>
-      <c r="AE42" s="73"/>
-    </row>
-    <row r="43" spans="7:37" ht="19.5" customHeight="1">
-      <c r="G43" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-    </row>
-    <row r="44" spans="7:37" ht="19.5" customHeight="1">
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-      <c r="W44" s="73"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="73"/>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="73"/>
-      <c r="AC44" s="73"/>
-      <c r="AD44" s="73"/>
-      <c r="AE44" s="73"/>
-    </row>
-    <row r="45" spans="7:37" ht="17.25">
-      <c r="G45" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73"/>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
-      <c r="Z45" s="73"/>
-      <c r="AA45" s="73"/>
-      <c r="AB45" s="73"/>
-      <c r="AC45" s="73"/>
-      <c r="AD45" s="73"/>
-      <c r="AE45" s="73"/>
-    </row>
-    <row r="46" spans="7:37" ht="30.75" customHeight="1">
-      <c r="G46" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="73"/>
-      <c r="AA46" s="73"/>
-      <c r="AB46" s="73"/>
-      <c r="AC46" s="73"/>
-      <c r="AD46" s="73"/>
-      <c r="AE46" s="73"/>
-    </row>
-    <row r="47" spans="7:37" ht="20.25" customHeight="1">
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="73"/>
-      <c r="V47" s="73"/>
-      <c r="W47" s="73"/>
-      <c r="X47" s="73"/>
-      <c r="Y47" s="73"/>
-      <c r="Z47" s="73"/>
-      <c r="AA47" s="73"/>
-      <c r="AB47" s="73"/>
-      <c r="AC47" s="73"/>
-      <c r="AD47" s="73"/>
-      <c r="AE47" s="73"/>
-    </row>
-    <row r="48" spans="7:37" ht="20.25" customHeight="1">
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="73"/>
-      <c r="AB48" s="73"/>
-      <c r="AC48" s="73"/>
-      <c r="AD48" s="73"/>
-      <c r="AE48" s="73"/>
-    </row>
-    <row r="49" spans="7:31" ht="20.25" customHeight="1">
-      <c r="G49" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-    </row>
-    <row r="50" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G50" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="73"/>
-      <c r="U50" s="73"/>
-      <c r="V50" s="73"/>
-      <c r="W50" s="73"/>
-      <c r="X50" s="73"/>
-      <c r="Y50" s="73"/>
-      <c r="Z50" s="73"/>
-      <c r="AA50" s="73"/>
-      <c r="AB50" s="73"/>
-      <c r="AC50" s="73"/>
-      <c r="AD50" s="73"/>
-      <c r="AE50" s="73"/>
-    </row>
-    <row r="51" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G51" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="73"/>
-      <c r="AD51" s="73"/>
-      <c r="AE51" s="73"/>
-    </row>
-    <row r="52" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G52" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="73"/>
-      <c r="AD52" s="73"/>
-      <c r="AE52" s="73"/>
-    </row>
-    <row r="53" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G53" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="73"/>
-      <c r="AA53" s="73"/>
-      <c r="AB53" s="73"/>
-      <c r="AC53" s="73"/>
-      <c r="AD53" s="73"/>
-      <c r="AE53" s="73"/>
-    </row>
-    <row r="54" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G54" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="73"/>
-      <c r="AD54" s="73"/>
-      <c r="AE54" s="73"/>
-    </row>
-    <row r="55" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G55" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73"/>
-      <c r="W55" s="73"/>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="73"/>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
-      <c r="AC55" s="73"/>
-      <c r="AD55" s="73"/>
-      <c r="AE55" s="73"/>
-    </row>
-    <row r="56" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G56" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73"/>
-    </row>
-    <row r="57" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G57" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
-      <c r="Z57" s="73"/>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="73"/>
-      <c r="AE57" s="73"/>
-    </row>
-    <row r="58" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G58" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="73"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="73"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
-      <c r="AC58" s="73"/>
-      <c r="AD58" s="73"/>
-      <c r="AE58" s="73"/>
-    </row>
-    <row r="59" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G59" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
-      <c r="AC59" s="73"/>
-      <c r="AD59" s="73"/>
-      <c r="AE59" s="73"/>
-    </row>
-    <row r="60" spans="7:31" ht="19.5" customHeight="1">
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-      <c r="AC60" s="73"/>
-      <c r="AD60" s="73"/>
-      <c r="AE60" s="73"/>
-    </row>
-    <row r="65" ht="84.75" customHeight="1"/>
+    <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
     <mergeCell ref="E22:I22"/>
@@ -5663,10 +5610,9 @@
   <pageMargins left="0.98425196850393704" right="1.1811023622047245" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="36" max="39" man="1"/>
-    <brk id="68" max="16383" man="1"/>
-    <brk id="78" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="40" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1602,6 +1602,504 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,504 +2135,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3070,13 +3070,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147357</xdr:rowOff>
+      <xdr:rowOff>180972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>223630</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3091,8 +3091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7661413" y="2524466"/>
-          <a:ext cx="463826" cy="233642"/>
+          <a:off x="7691230" y="2552697"/>
+          <a:ext cx="466725" cy="180977"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3136,13 +3136,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>130793</xdr:rowOff>
+      <xdr:rowOff>121268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3157,8 +3157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7653130" y="2799522"/>
-          <a:ext cx="463826" cy="213619"/>
+          <a:off x="7682947" y="2819400"/>
+          <a:ext cx="466725" cy="178418"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3202,7 +3202,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>289892</xdr:rowOff>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -3223,8 +3223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7669696" y="2667001"/>
-          <a:ext cx="463826" cy="213619"/>
+          <a:off x="7699513" y="2695575"/>
+          <a:ext cx="466725" cy="175934"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3266,15 +3266,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>33131</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>223631</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114228</xdr:rowOff>
+      <xdr:rowOff>104703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3289,8 +3289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7661414" y="2932044"/>
-          <a:ext cx="463826" cy="213619"/>
+          <a:off x="7686675" y="2952751"/>
+          <a:ext cx="471281" cy="180902"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3334,13 +3334,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>105945</xdr:rowOff>
+      <xdr:rowOff>96420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3355,8 +3355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7653130" y="3072848"/>
-          <a:ext cx="463826" cy="213619"/>
+          <a:off x="7682947" y="3105150"/>
+          <a:ext cx="466725" cy="172620"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -4137,7 +4137,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12:AC15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -4275,26 +4277,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="159" t="s">
+      <c r="Y3" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="159" t="s">
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="159" t="s">
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="159" t="s">
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
+      <c r="AI3" s="206"/>
+      <c r="AJ3" s="207"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4323,24 +4325,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="156" t="s">
+      <c r="Y4" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="156" t="s">
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="156" t="s">
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="158"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="202"/>
+      <c r="AI4" s="203"/>
+      <c r="AJ4" s="204"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4354,39 +4356,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="238"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
+      <c r="Y5" s="208"/>
+      <c r="Z5" s="209"/>
+      <c r="AA5" s="210"/>
+      <c r="AB5" s="208"/>
+      <c r="AC5" s="209"/>
+      <c r="AD5" s="210"/>
+      <c r="AE5" s="208"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="210"/>
+      <c r="AH5" s="208"/>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="210"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="139"/>
+      <c r="AL5" s="219"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4398,37 +4400,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="238"/>
+      <c r="U6" s="238"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="148"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="149"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="211"/>
+      <c r="AC6" s="200"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="211"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="201"/>
+      <c r="AH6" s="211"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="201"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="139"/>
+      <c r="AL6" s="219"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4473,155 +4475,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="144" t="s">
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="210"/>
+      <c r="K8" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="144" t="s">
+      <c r="L8" s="209"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="144" t="s">
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="209"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="150" t="s">
+      <c r="AA8" s="209"/>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="209"/>
+      <c r="AF8" s="209"/>
+      <c r="AG8" s="210"/>
+      <c r="AH8" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="225"/>
+      <c r="AI8" s="213"/>
+      <c r="AJ8" s="111"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="140" t="s">
+      <c r="C9" s="225"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="198"/>
+      <c r="AH9" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="226"/>
+      <c r="AI9" s="221"/>
+      <c r="AJ9" s="112"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="142" t="s">
+      <c r="C10" s="225"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="216"/>
+      <c r="P10" s="216"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="216"/>
+      <c r="T10" s="216"/>
+      <c r="U10" s="216"/>
+      <c r="V10" s="216"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="216"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="216"/>
+      <c r="AB10" s="216"/>
+      <c r="AC10" s="216"/>
+      <c r="AD10" s="216"/>
+      <c r="AE10" s="216"/>
+      <c r="AF10" s="216"/>
+      <c r="AG10" s="217"/>
+      <c r="AH10" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="226"/>
+      <c r="AI10" s="223"/>
+      <c r="AJ10" s="112"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="186"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="183"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4634,10 +4636,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="211" t="s">
+      <c r="Z11" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="212"/>
+      <c r="AA11" s="168"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4654,177 +4656,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="226"/>
+      <c r="AJ11" s="112"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="213"/>
-      <c r="AA12" s="214"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="195"/>
-      <c r="AG12" s="167"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="138"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="226"/>
+      <c r="AJ12" s="112"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="213"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="195"/>
-      <c r="AG13" s="167"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="185"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="179"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="138"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="226"/>
+      <c r="AJ13" s="112"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="213"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="195"/>
-      <c r="AG14" s="167"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="169"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="138"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="226"/>
+      <c r="AJ14" s="112"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="201"/>
-      <c r="X15" s="201"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="215"/>
-      <c r="AA15" s="216"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="196"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="196"/>
-      <c r="AG15" s="168"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="139"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="227"/>
+      <c r="AJ15" s="113"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4832,54 +4834,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="224"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="162" t="s">
+      <c r="J16" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="163" t="s">
+      <c r="K16" s="190"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="171" t="s">
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="136" t="s">
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="196"/>
+      <c r="U16" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="248" t="s">
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="249"/>
-      <c r="AB16" s="249"/>
-      <c r="AC16" s="250"/>
-      <c r="AD16" s="242" t="s">
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="243"/>
-      <c r="AF16" s="243"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="238" t="s">
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="238"/>
-      <c r="AJ16" s="239"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="126"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -4887,8 +4889,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="224"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -4896,123 +4898,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="207"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="208"/>
-      <c r="Z17" s="202"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="203"/>
-      <c r="AD17" s="244"/>
-      <c r="AE17" s="245"/>
-      <c r="AF17" s="245"/>
-      <c r="AG17" s="199"/>
-      <c r="AH17" s="240"/>
-      <c r="AI17" s="240"/>
-      <c r="AJ17" s="241"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="243"/>
+      <c r="O17" s="243"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="197"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="159"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="128"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="224"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133" t="s">
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="202"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="232" t="s">
+      <c r="K18" s="252"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="197"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="234" t="s">
+      <c r="AE18" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="246" t="s">
+      <c r="AF18" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="228"/>
-      <c r="AI18" s="228"/>
-      <c r="AJ18" s="229"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="115"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="209"/>
-      <c r="V19" s="205"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="210"/>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="205"/>
-      <c r="AB19" s="205"/>
-      <c r="AC19" s="206"/>
-      <c r="AD19" s="233"/>
-      <c r="AE19" s="235"/>
-      <c r="AF19" s="247"/>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="230"/>
-      <c r="AI19" s="230"/>
-      <c r="AJ19" s="231"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="200"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="201"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="117"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5020,8 +5022,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="101"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="224"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5038,10 +5040,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="110" t="s">
+      <c r="U20" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="110"/>
+      <c r="V20" s="148"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5070,25 +5072,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="217" t="s">
+      <c r="C21" s="225"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="239"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5103,10 +5105,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="197" t="s">
+      <c r="AH21" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="197"/>
+      <c r="AI21" s="147"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5114,20 +5116,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="254" t="s">
+      <c r="C22" s="225"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="265" t="s">
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="266"/>
-      <c r="L22" s="266"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5158,24 +5160,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="101"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="220"/>
-      <c r="S23" s="220"/>
-      <c r="T23" s="220"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5198,26 +5200,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="106" t="s">
+      <c r="C24" s="225"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="231"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="222"/>
-      <c r="N24" s="222"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5240,25 +5242,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="109" t="s">
+      <c r="C25" s="225"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="111"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5284,25 +5286,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="101"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="224"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="263"/>
-      <c r="L26" s="263"/>
-      <c r="M26" s="263"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="264"/>
-      <c r="R26" s="264"/>
-      <c r="S26" s="264"/>
-      <c r="T26" s="264"/>
-      <c r="U26" s="264"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5324,31 +5326,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="256" t="s">
+      <c r="C27" s="225"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="259" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="260"/>
-      <c r="L27" s="260"/>
-      <c r="M27" s="260"/>
-      <c r="N27" s="260"/>
-      <c r="O27" s="260"/>
-      <c r="P27" s="260"/>
-      <c r="Q27" s="261" t="s">
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="261"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="261"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5369,12 +5371,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="Y28" s="255"/>
+      <c r="Z28" s="255"/>
+      <c r="AA28" s="255"/>
+      <c r="AB28" s="255"/>
+      <c r="AC28" s="255"/>
+      <c r="AD28" s="255"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5419,14 +5421,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="90" t="s">
+      <c r="W31" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
+      <c r="X31" s="257"/>
+      <c r="Y31" s="257"/>
+      <c r="Z31" s="257"/>
+      <c r="AA31" s="257"/>
+      <c r="AB31" s="258"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5437,87 +5439,150 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="93" t="s">
+      <c r="W32" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="96"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="260"/>
+      <c r="AC32" s="260"/>
+      <c r="AD32" s="260"/>
+      <c r="AE32" s="260"/>
+      <c r="AF32" s="260"/>
+      <c r="AG32" s="260"/>
+      <c r="AH32" s="260"/>
+      <c r="AI32" s="260"/>
+      <c r="AJ32" s="261"/>
+      <c r="AK32" s="262"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97" t="s">
+      <c r="Y33" s="263"/>
+      <c r="Z33" s="263"/>
+      <c r="AA33" s="263"/>
+      <c r="AB33" s="263"/>
+      <c r="AC33" s="263"/>
+      <c r="AD33" s="263"/>
+      <c r="AE33" s="263"/>
+      <c r="AF33" s="263"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="263"/>
+      <c r="AJ33" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="98"/>
+      <c r="AK33" s="264"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="98"/>
+      <c r="Y34" s="263"/>
+      <c r="Z34" s="263"/>
+      <c r="AA34" s="263"/>
+      <c r="AB34" s="263"/>
+      <c r="AC34" s="263"/>
+      <c r="AD34" s="263"/>
+      <c r="AE34" s="263"/>
+      <c r="AF34" s="263"/>
+      <c r="AG34" s="263"/>
+      <c r="AH34" s="263"/>
+      <c r="AI34" s="263"/>
+      <c r="AJ34" s="263"/>
+      <c r="AK34" s="264"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="100"/>
+      <c r="Y35" s="265"/>
+      <c r="Z35" s="265"/>
+      <c r="AA35" s="265"/>
+      <c r="AB35" s="265"/>
+      <c r="AC35" s="265"/>
+      <c r="AD35" s="265"/>
+      <c r="AE35" s="265"/>
+      <c r="AF35" s="265"/>
+      <c r="AG35" s="265"/>
+      <c r="AH35" s="265"/>
+      <c r="AI35" s="265"/>
+      <c r="AJ35" s="265"/>
+      <c r="AK35" s="266"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="D8:D27"/>
+    <mergeCell ref="C8:C27"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="M5:U6"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
     <mergeCell ref="J21:S21"/>
     <mergeCell ref="K23:T23"/>
     <mergeCell ref="K24:T24"/>
@@ -5534,76 +5599,13 @@
     <mergeCell ref="AG12:AG15"/>
     <mergeCell ref="AF12:AF15"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="D8:D27"/>
-    <mergeCell ref="C8:C27"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="M5:U6"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1602,12 +1602,504 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1643,498 +2135,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3068,15 +3068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
+      <xdr:colOff>42655</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>180972</xdr:rowOff>
+      <xdr:rowOff>190497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
+      <xdr:colOff>233155</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3091,7 +3091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7691230" y="2552697"/>
+          <a:off x="7700755" y="2562222"/>
           <a:ext cx="466725" cy="180977"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3136,13 +3136,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>121268</xdr:rowOff>
+      <xdr:rowOff>130793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3157,7 +3157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7682947" y="2819400"/>
+          <a:off x="7682947" y="2828925"/>
           <a:ext cx="466725" cy="178418"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -4137,8 +4137,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12:AC15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4277,26 +4277,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="205" t="s">
+      <c r="Y3" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="205" t="s">
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="205" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="207"/>
-      <c r="AH3" s="205" t="s">
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="206"/>
-      <c r="AJ3" s="207"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4325,24 +4325,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="202" t="s">
+      <c r="Y4" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="203"/>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="202" t="s">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="203"/>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="202" t="s">
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="203"/>
-      <c r="AG4" s="204"/>
-      <c r="AH4" s="202"/>
-      <c r="AI4" s="203"/>
-      <c r="AJ4" s="204"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="158"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4356,39 +4356,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="226" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="238" t="s">
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="238"/>
-      <c r="O5" s="238"/>
-      <c r="P5" s="238"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="238"/>
-      <c r="U5" s="238"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="208"/>
-      <c r="Z5" s="209"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="208"/>
-      <c r="AC5" s="209"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="208"/>
-      <c r="AF5" s="209"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="208"/>
-      <c r="AI5" s="209"/>
-      <c r="AJ5" s="210"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="219"/>
+      <c r="AL5" s="139"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4400,37 +4400,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="218" t="s">
+      <c r="J6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="218"/>
-      <c r="L6" s="218"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="238"/>
-      <c r="U6" s="238"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="211"/>
-      <c r="AC6" s="200"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="211"/>
-      <c r="AF6" s="200"/>
-      <c r="AG6" s="201"/>
-      <c r="AH6" s="211"/>
-      <c r="AI6" s="200"/>
-      <c r="AJ6" s="201"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="149"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="219"/>
+      <c r="AL6" s="139"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4475,155 +4475,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="208" t="s">
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="209"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="208" t="s">
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="209"/>
-      <c r="P8" s="209"/>
-      <c r="Q8" s="209"/>
-      <c r="R8" s="209"/>
-      <c r="S8" s="209"/>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
-      <c r="V8" s="209"/>
-      <c r="W8" s="209"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="208" t="s">
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="209"/>
-      <c r="AB8" s="209"/>
-      <c r="AC8" s="209"/>
-      <c r="AD8" s="209"/>
-      <c r="AE8" s="209"/>
-      <c r="AF8" s="209"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="212" t="s">
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="213"/>
-      <c r="AJ8" s="111"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="225"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="220" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="221"/>
-      <c r="AJ9" s="112"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="226"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="216"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="216"/>
-      <c r="S10" s="216"/>
-      <c r="T10" s="216"/>
-      <c r="U10" s="216"/>
-      <c r="V10" s="216"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="216"/>
-      <c r="AB10" s="216"/>
-      <c r="AC10" s="216"/>
-      <c r="AD10" s="216"/>
-      <c r="AE10" s="216"/>
-      <c r="AF10" s="216"/>
-      <c r="AG10" s="217"/>
-      <c r="AH10" s="222" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="223"/>
-      <c r="AJ10" s="112"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="226"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="224"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4636,10 +4636,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="167" t="s">
+      <c r="Z11" s="211" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="168"/>
+      <c r="AA11" s="212"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4656,177 +4656,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="112"/>
+      <c r="AJ11" s="226"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="138"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="200"/>
+      <c r="X12" s="200"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="213"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="195"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="195"/>
+      <c r="AG12" s="167"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="112"/>
+      <c r="AJ12" s="226"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="179"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="138"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="213"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="195"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="195"/>
+      <c r="AG13" s="167"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="112"/>
+      <c r="AJ13" s="226"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="179"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="138"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="213"/>
+      <c r="AA14" s="214"/>
+      <c r="AB14" s="195"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="195"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="195"/>
+      <c r="AG14" s="167"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="112"/>
+      <c r="AJ14" s="226"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="180"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="139"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="215"/>
+      <c r="AA15" s="216"/>
+      <c r="AB15" s="196"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="196"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="196"/>
+      <c r="AG15" s="168"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="113"/>
+      <c r="AJ15" s="227"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4834,54 +4834,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="224"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="189" t="s">
+      <c r="J16" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="192" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="190"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="194" t="s">
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="196"/>
-      <c r="U16" s="254" t="s">
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="135" t="s">
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="129" t="s">
+      <c r="AA16" s="249"/>
+      <c r="AB16" s="249"/>
+      <c r="AC16" s="250"/>
+      <c r="AD16" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="125" t="s">
+      <c r="AE16" s="243"/>
+      <c r="AF16" s="243"/>
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="126"/>
+      <c r="AI16" s="238"/>
+      <c r="AJ16" s="239"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -4889,8 +4889,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="224"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -4898,123 +4898,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="242"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="197"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="128"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="208"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="203"/>
+      <c r="AD17" s="244"/>
+      <c r="AE17" s="245"/>
+      <c r="AF17" s="245"/>
+      <c r="AG17" s="199"/>
+      <c r="AH17" s="240"/>
+      <c r="AI17" s="240"/>
+      <c r="AJ17" s="241"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="224"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="251" t="s">
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="252"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="118" t="s">
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="253"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="208"/>
+      <c r="Z18" s="202"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="203"/>
+      <c r="AD18" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="120" t="s">
+      <c r="AE18" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="133" t="s">
+      <c r="AF18" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="150"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="115"/>
+      <c r="AG18" s="199"/>
+      <c r="AH18" s="228"/>
+      <c r="AI18" s="228"/>
+      <c r="AJ18" s="229"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="224"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="248"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="249"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="201"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="117"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="209"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="206"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="235"/>
+      <c r="AF19" s="247"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="230"/>
+      <c r="AI19" s="230"/>
+      <c r="AJ19" s="231"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5022,8 +5022,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="224"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5040,10 +5040,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="148" t="s">
+      <c r="U20" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="148"/>
+      <c r="V20" s="110"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5072,25 +5072,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="103" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
+      <c r="S21" s="218"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5105,10 +5105,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="147" t="s">
+      <c r="AH21" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="147"/>
+      <c r="AI21" s="197"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5116,20 +5116,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="89" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="101" t="s">
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="265" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="K22" s="266"/>
+      <c r="L22" s="266"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5160,24 +5160,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="224"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
+      <c r="T23" s="220"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5200,26 +5200,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="229" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="231"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="222"/>
+      <c r="M24" s="222"/>
+      <c r="N24" s="222"/>
+      <c r="O24" s="222"/>
+      <c r="P24" s="222"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5242,25 +5242,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="214" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="198"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5286,25 +5286,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="224"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="263"/>
+      <c r="Q26" s="264"/>
+      <c r="R26" s="264"/>
+      <c r="S26" s="264"/>
+      <c r="T26" s="264"/>
+      <c r="U26" s="264"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5326,31 +5326,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="92" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="256" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95" t="s">
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="259" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97" t="s">
+      <c r="K27" s="260"/>
+      <c r="L27" s="260"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="260"/>
+      <c r="O27" s="260"/>
+      <c r="P27" s="260"/>
+      <c r="Q27" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5371,12 +5371,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="255"/>
-      <c r="Z28" s="255"/>
-      <c r="AA28" s="255"/>
-      <c r="AB28" s="255"/>
-      <c r="AC28" s="255"/>
-      <c r="AD28" s="255"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5421,14 +5421,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="256" t="s">
+      <c r="W31" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="257"/>
-      <c r="Y31" s="257"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="258"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5439,85 +5439,152 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="259" t="s">
+      <c r="W32" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="260"/>
-      <c r="AG32" s="260"/>
-      <c r="AH32" s="260"/>
-      <c r="AI32" s="260"/>
-      <c r="AJ32" s="261"/>
-      <c r="AK32" s="262"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="96"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="263"/>
-      <c r="Z33" s="263"/>
-      <c r="AA33" s="263"/>
-      <c r="AB33" s="263"/>
-      <c r="AC33" s="263"/>
-      <c r="AD33" s="263"/>
-      <c r="AE33" s="263"/>
-      <c r="AF33" s="263"/>
-      <c r="AG33" s="263"/>
-      <c r="AH33" s="263"/>
-      <c r="AI33" s="263"/>
-      <c r="AJ33" s="263" t="s">
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="264"/>
+      <c r="AK33" s="98"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="263"/>
-      <c r="Z34" s="263"/>
-      <c r="AA34" s="263"/>
-      <c r="AB34" s="263"/>
-      <c r="AC34" s="263"/>
-      <c r="AD34" s="263"/>
-      <c r="AE34" s="263"/>
-      <c r="AF34" s="263"/>
-      <c r="AG34" s="263"/>
-      <c r="AH34" s="263"/>
-      <c r="AI34" s="263"/>
-      <c r="AJ34" s="263"/>
-      <c r="AK34" s="264"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="98"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="265"/>
-      <c r="Z35" s="265"/>
-      <c r="AA35" s="265"/>
-      <c r="AB35" s="265"/>
-      <c r="AC35" s="265"/>
-      <c r="AD35" s="265"/>
-      <c r="AE35" s="265"/>
-      <c r="AF35" s="265"/>
-      <c r="AG35" s="265"/>
-      <c r="AH35" s="265"/>
-      <c r="AI35" s="265"/>
-      <c r="AJ35" s="265"/>
-      <c r="AK35" s="266"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="100"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5534,78 +5601,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1602,6 +1602,504 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,504 +2135,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2336,8 +2336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10610850" y="1971675"/>
-          <a:ext cx="171450" cy="1152525"/>
+          <a:off x="10598426" y="1980786"/>
+          <a:ext cx="171450" cy="1145899"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -2677,8 +2677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9744075" y="3343275"/>
-          <a:ext cx="152400" cy="895350"/>
+          <a:off x="9731237" y="3344103"/>
+          <a:ext cx="152400" cy="894936"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -3070,13 +3070,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>42655</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190497</xdr:rowOff>
+      <xdr:rowOff>265042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>233155</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>93594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3091,8 +3091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7700755" y="2562222"/>
-          <a:ext cx="466725" cy="180977"/>
+          <a:off x="7670938" y="2642151"/>
+          <a:ext cx="463826" cy="184704"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3136,13 +3136,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>137907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130793</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3157,8 +3157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7682947" y="2828925"/>
-          <a:ext cx="466725" cy="178418"/>
+          <a:off x="7653130" y="2871168"/>
+          <a:ext cx="463826" cy="175105"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3201,14 +3201,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147359</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3223,8 +3223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7699513" y="2695575"/>
-          <a:ext cx="466725" cy="175934"/>
+          <a:off x="7669696" y="2767223"/>
+          <a:ext cx="463826" cy="179661"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3268,13 +3268,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>117616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>223631</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104703</xdr:rowOff>
+      <xdr:rowOff>146118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3289,8 +3289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7686675" y="2952751"/>
-          <a:ext cx="471281" cy="180902"/>
+          <a:off x="7656858" y="2999964"/>
+          <a:ext cx="468382" cy="177589"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3334,13 +3334,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>125896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>96420</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3355,8 +3355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7682947" y="3105150"/>
-          <a:ext cx="466725" cy="172620"/>
+          <a:off x="7653130" y="3157331"/>
+          <a:ext cx="463826" cy="169307"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -4137,7 +4137,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="S12" sqref="S12:S15"/>
     </sheetView>
   </sheetViews>
@@ -4277,26 +4277,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="159" t="s">
+      <c r="Y3" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="159" t="s">
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="159" t="s">
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="159" t="s">
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
+      <c r="AI3" s="206"/>
+      <c r="AJ3" s="207"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4325,24 +4325,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="156" t="s">
+      <c r="Y4" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="156" t="s">
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="156" t="s">
+      <c r="AC4" s="203"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="158"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="202"/>
+      <c r="AI4" s="203"/>
+      <c r="AJ4" s="204"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4356,39 +4356,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="238"/>
+      <c r="U5" s="238"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
+      <c r="Y5" s="208"/>
+      <c r="Z5" s="209"/>
+      <c r="AA5" s="210"/>
+      <c r="AB5" s="208"/>
+      <c r="AC5" s="209"/>
+      <c r="AD5" s="210"/>
+      <c r="AE5" s="208"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="210"/>
+      <c r="AH5" s="208"/>
+      <c r="AI5" s="209"/>
+      <c r="AJ5" s="210"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="139"/>
+      <c r="AL5" s="219"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4400,37 +4400,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="238"/>
+      <c r="O6" s="238"/>
+      <c r="P6" s="238"/>
+      <c r="Q6" s="238"/>
+      <c r="R6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="238"/>
+      <c r="U6" s="238"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="148"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="149"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="211"/>
+      <c r="AC6" s="200"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="211"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="201"/>
+      <c r="AH6" s="211"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="201"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="139"/>
+      <c r="AL6" s="219"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4475,155 +4475,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="144" t="s">
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="210"/>
+      <c r="K8" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="144" t="s">
+      <c r="L8" s="209"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="144" t="s">
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="209"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="150" t="s">
+      <c r="AA8" s="209"/>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="209"/>
+      <c r="AF8" s="209"/>
+      <c r="AG8" s="210"/>
+      <c r="AH8" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="225"/>
+      <c r="AI8" s="213"/>
+      <c r="AJ8" s="111"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="140" t="s">
+      <c r="C9" s="225"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="198"/>
+      <c r="AH9" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="226"/>
+      <c r="AI9" s="221"/>
+      <c r="AJ9" s="112"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="142" t="s">
+      <c r="C10" s="225"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="216"/>
+      <c r="P10" s="216"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="216"/>
+      <c r="T10" s="216"/>
+      <c r="U10" s="216"/>
+      <c r="V10" s="216"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="216"/>
+      <c r="Y10" s="217"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="216"/>
+      <c r="AB10" s="216"/>
+      <c r="AC10" s="216"/>
+      <c r="AD10" s="216"/>
+      <c r="AE10" s="216"/>
+      <c r="AF10" s="216"/>
+      <c r="AG10" s="217"/>
+      <c r="AH10" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="226"/>
+      <c r="AI10" s="223"/>
+      <c r="AJ10" s="112"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="186"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="183"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4636,10 +4636,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="211" t="s">
+      <c r="Z11" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="212"/>
+      <c r="AA11" s="168"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4656,177 +4656,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="226"/>
+      <c r="AJ11" s="112"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="213"/>
-      <c r="AA12" s="214"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="195"/>
-      <c r="AG12" s="167"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="138"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="226"/>
+      <c r="AJ12" s="112"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="213"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="195"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="195"/>
-      <c r="AG13" s="167"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="185"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="179"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="138"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="226"/>
+      <c r="AJ13" s="112"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="213"/>
-      <c r="AA14" s="214"/>
-      <c r="AB14" s="195"/>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="195"/>
-      <c r="AG14" s="167"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="169"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="138"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="226"/>
+      <c r="AJ14" s="112"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="201"/>
-      <c r="X15" s="201"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="215"/>
-      <c r="AA15" s="216"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="196"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="196"/>
-      <c r="AG15" s="168"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="139"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="227"/>
+      <c r="AJ15" s="113"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4834,54 +4834,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="224"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="162" t="s">
+      <c r="J16" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="163" t="s">
+      <c r="K16" s="190"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="171" t="s">
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="136" t="s">
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="196"/>
+      <c r="U16" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="248" t="s">
+      <c r="V16" s="190"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="249"/>
-      <c r="AB16" s="249"/>
-      <c r="AC16" s="250"/>
-      <c r="AD16" s="242" t="s">
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="243"/>
-      <c r="AF16" s="243"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="238" t="s">
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="238"/>
-      <c r="AJ16" s="239"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="126"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -4889,8 +4889,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="224"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -4898,123 +4898,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="207"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="208"/>
-      <c r="Z17" s="202"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="203"/>
-      <c r="AD17" s="244"/>
-      <c r="AE17" s="245"/>
-      <c r="AF17" s="245"/>
-      <c r="AG17" s="199"/>
-      <c r="AH17" s="240"/>
-      <c r="AI17" s="240"/>
-      <c r="AJ17" s="241"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="243"/>
+      <c r="O17" s="243"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="197"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="198"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="159"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="128"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="224"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133" t="s">
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="202"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="232" t="s">
+      <c r="K18" s="252"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="197"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="234" t="s">
+      <c r="AE18" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="246" t="s">
+      <c r="AF18" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="228"/>
-      <c r="AI18" s="228"/>
-      <c r="AJ18" s="229"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="115"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="209"/>
-      <c r="V19" s="205"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="210"/>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="205"/>
-      <c r="AB19" s="205"/>
-      <c r="AC19" s="206"/>
-      <c r="AD19" s="233"/>
-      <c r="AE19" s="235"/>
-      <c r="AF19" s="247"/>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="230"/>
-      <c r="AI19" s="230"/>
-      <c r="AJ19" s="231"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="200"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="201"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="117"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5022,8 +5022,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="101"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="224"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5040,10 +5040,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="110" t="s">
+      <c r="U20" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="110"/>
+      <c r="V20" s="148"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5072,25 +5072,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="217" t="s">
+      <c r="C21" s="225"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="239"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5105,10 +5105,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="197" t="s">
+      <c r="AH21" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="197"/>
+      <c r="AI21" s="147"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5116,20 +5116,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="254" t="s">
+      <c r="C22" s="225"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="265" t="s">
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="266"/>
-      <c r="L22" s="266"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5160,24 +5160,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="101"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="220"/>
-      <c r="S23" s="220"/>
-      <c r="T23" s="220"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5200,26 +5200,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="106" t="s">
+      <c r="C24" s="225"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="231"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="222"/>
-      <c r="M24" s="222"/>
-      <c r="N24" s="222"/>
-      <c r="O24" s="222"/>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5242,25 +5242,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="109" t="s">
+      <c r="C25" s="225"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="111"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5286,25 +5286,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="101"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="224"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="263"/>
-      <c r="L26" s="263"/>
-      <c r="M26" s="263"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="264"/>
-      <c r="R26" s="264"/>
-      <c r="S26" s="264"/>
-      <c r="T26" s="264"/>
-      <c r="U26" s="264"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5326,31 +5326,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="256" t="s">
+      <c r="C27" s="225"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="259" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="260"/>
-      <c r="L27" s="260"/>
-      <c r="M27" s="260"/>
-      <c r="N27" s="260"/>
-      <c r="O27" s="260"/>
-      <c r="P27" s="260"/>
-      <c r="Q27" s="261" t="s">
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="261"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="261"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5371,12 +5371,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="Y28" s="255"/>
+      <c r="Z28" s="255"/>
+      <c r="AA28" s="255"/>
+      <c r="AB28" s="255"/>
+      <c r="AC28" s="255"/>
+      <c r="AD28" s="255"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5421,14 +5421,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="90" t="s">
+      <c r="W31" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
+      <c r="X31" s="257"/>
+      <c r="Y31" s="257"/>
+      <c r="Z31" s="257"/>
+      <c r="AA31" s="257"/>
+      <c r="AB31" s="258"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5439,87 +5439,150 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="93" t="s">
+      <c r="W32" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="96"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="260"/>
+      <c r="AC32" s="260"/>
+      <c r="AD32" s="260"/>
+      <c r="AE32" s="260"/>
+      <c r="AF32" s="260"/>
+      <c r="AG32" s="260"/>
+      <c r="AH32" s="260"/>
+      <c r="AI32" s="260"/>
+      <c r="AJ32" s="261"/>
+      <c r="AK32" s="262"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97" t="s">
+      <c r="Y33" s="263"/>
+      <c r="Z33" s="263"/>
+      <c r="AA33" s="263"/>
+      <c r="AB33" s="263"/>
+      <c r="AC33" s="263"/>
+      <c r="AD33" s="263"/>
+      <c r="AE33" s="263"/>
+      <c r="AF33" s="263"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="263"/>
+      <c r="AJ33" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="98"/>
+      <c r="AK33" s="264"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="98"/>
+      <c r="Y34" s="263"/>
+      <c r="Z34" s="263"/>
+      <c r="AA34" s="263"/>
+      <c r="AB34" s="263"/>
+      <c r="AC34" s="263"/>
+      <c r="AD34" s="263"/>
+      <c r="AE34" s="263"/>
+      <c r="AF34" s="263"/>
+      <c r="AG34" s="263"/>
+      <c r="AH34" s="263"/>
+      <c r="AI34" s="263"/>
+      <c r="AJ34" s="263"/>
+      <c r="AK34" s="264"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="100"/>
+      <c r="Y35" s="265"/>
+      <c r="Z35" s="265"/>
+      <c r="AA35" s="265"/>
+      <c r="AB35" s="265"/>
+      <c r="AC35" s="265"/>
+      <c r="AD35" s="265"/>
+      <c r="AE35" s="265"/>
+      <c r="AF35" s="265"/>
+      <c r="AG35" s="265"/>
+      <c r="AH35" s="265"/>
+      <c r="AI35" s="265"/>
+      <c r="AJ35" s="265"/>
+      <c r="AK35" s="266"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="D8:D27"/>
+    <mergeCell ref="C8:C27"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="M5:U6"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
     <mergeCell ref="J21:S21"/>
     <mergeCell ref="K23:T23"/>
     <mergeCell ref="K24:T24"/>
@@ -5536,76 +5599,13 @@
     <mergeCell ref="AG12:AG15"/>
     <mergeCell ref="AF12:AF15"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="D8:D27"/>
-    <mergeCell ref="C8:C27"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="M5:U6"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -512,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -689,13 +689,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1398,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1602,12 +1595,483 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1629,10 +2093,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,497 +2108,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4137,9 +4118,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12:S15"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -4277,26 +4256,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="205" t="s">
+      <c r="Y3" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="205" t="s">
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="205" t="s">
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="207"/>
-      <c r="AH3" s="205" t="s">
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="206"/>
-      <c r="AJ3" s="207"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="158"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4325,24 +4304,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="202" t="s">
+      <c r="Y4" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="203"/>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="202" t="s">
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="203"/>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="202" t="s">
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="203"/>
-      <c r="AG4" s="204"/>
-      <c r="AH4" s="202"/>
-      <c r="AI4" s="203"/>
-      <c r="AJ4" s="204"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="153"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4356,39 +4335,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="226" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="238" t="s">
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="238"/>
-      <c r="O5" s="238"/>
-      <c r="P5" s="238"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="238"/>
-      <c r="U5" s="238"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="208"/>
-      <c r="Z5" s="209"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="208"/>
-      <c r="AC5" s="209"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="208"/>
-      <c r="AF5" s="209"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="208"/>
-      <c r="AI5" s="209"/>
-      <c r="AJ5" s="210"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="142"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="142"/>
+      <c r="AJ5" s="143"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="219"/>
+      <c r="AL5" s="136"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4400,37 +4379,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="218" t="s">
+      <c r="J6" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="218"/>
-      <c r="L6" s="218"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="238"/>
-      <c r="P6" s="238"/>
-      <c r="Q6" s="238"/>
-      <c r="R6" s="238"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="238"/>
-      <c r="U6" s="238"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="211"/>
-      <c r="AC6" s="200"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="211"/>
-      <c r="AF6" s="200"/>
-      <c r="AG6" s="201"/>
-      <c r="AH6" s="211"/>
-      <c r="AI6" s="200"/>
-      <c r="AJ6" s="201"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="144"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="144"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="144"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="146"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="219"/>
+      <c r="AL6" s="136"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4475,155 +4454,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="208" t="s">
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="209"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="208" t="s">
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="209"/>
-      <c r="P8" s="209"/>
-      <c r="Q8" s="209"/>
-      <c r="R8" s="209"/>
-      <c r="S8" s="209"/>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
-      <c r="V8" s="209"/>
-      <c r="W8" s="209"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="208" t="s">
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="209"/>
-      <c r="AB8" s="209"/>
-      <c r="AC8" s="209"/>
-      <c r="AD8" s="209"/>
-      <c r="AE8" s="209"/>
-      <c r="AF8" s="209"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="212" t="s">
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="213"/>
-      <c r="AJ8" s="111"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="218"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="214"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="220" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="221"/>
-      <c r="AJ9" s="112"/>
+      <c r="AI9" s="138"/>
+      <c r="AJ9" s="219"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="216"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="216"/>
-      <c r="S10" s="216"/>
-      <c r="T10" s="216"/>
-      <c r="U10" s="216"/>
-      <c r="V10" s="216"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="216"/>
-      <c r="AB10" s="216"/>
-      <c r="AC10" s="216"/>
-      <c r="AD10" s="216"/>
-      <c r="AE10" s="216"/>
-      <c r="AF10" s="216"/>
-      <c r="AG10" s="217"/>
-      <c r="AH10" s="222" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="223"/>
-      <c r="AJ10" s="112"/>
+      <c r="AI10" s="140"/>
+      <c r="AJ10" s="219"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="224"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="179"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4636,10 +4615,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="167" t="s">
+      <c r="Z11" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="168"/>
+      <c r="AA11" s="205"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4656,177 +4635,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="112"/>
+      <c r="AJ11" s="219"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="138"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="206"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="186"/>
+      <c r="AF12" s="188"/>
+      <c r="AG12" s="164"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="112"/>
+      <c r="AJ12" s="219"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="179"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="138"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="206"/>
+      <c r="AA13" s="207"/>
+      <c r="AB13" s="188"/>
+      <c r="AC13" s="186"/>
+      <c r="AD13" s="188"/>
+      <c r="AE13" s="186"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="164"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="112"/>
+      <c r="AJ13" s="219"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="179"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="138"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="261"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="206"/>
+      <c r="AA14" s="207"/>
+      <c r="AB14" s="188"/>
+      <c r="AC14" s="186"/>
+      <c r="AD14" s="188"/>
+      <c r="AE14" s="186"/>
+      <c r="AF14" s="188"/>
+      <c r="AG14" s="164"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="112"/>
+      <c r="AJ14" s="219"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="180"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="139"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="262"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="167"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="208"/>
+      <c r="AA15" s="209"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="165"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="113"/>
+      <c r="AJ15" s="220"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4834,54 +4813,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="224"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="189" t="s">
+      <c r="J16" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="192" t="s">
+      <c r="K16" s="134"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="190"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="194" t="s">
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="196"/>
-      <c r="U16" s="254" t="s">
+      <c r="R16" s="169"/>
+      <c r="S16" s="169"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="135" t="s">
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="129" t="s">
+      <c r="AA16" s="242"/>
+      <c r="AB16" s="242"/>
+      <c r="AC16" s="243"/>
+      <c r="AD16" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="125" t="s">
+      <c r="AE16" s="236"/>
+      <c r="AF16" s="236"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="126"/>
+      <c r="AI16" s="231"/>
+      <c r="AJ16" s="232"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -4889,8 +4868,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="224"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -4898,123 +4877,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="242"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="197"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="128"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="181"/>
+      <c r="W17" s="181"/>
+      <c r="X17" s="181"/>
+      <c r="Y17" s="201"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="181"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="196"/>
+      <c r="AD17" s="237"/>
+      <c r="AE17" s="238"/>
+      <c r="AF17" s="238"/>
+      <c r="AG17" s="192"/>
+      <c r="AH17" s="233"/>
+      <c r="AI17" s="233"/>
+      <c r="AJ17" s="234"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="224"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="251" t="s">
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="252"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="118" t="s">
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="244"/>
+      <c r="N18" s="245"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="200"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="201"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="181"/>
+      <c r="AB18" s="181"/>
+      <c r="AC18" s="196"/>
+      <c r="AD18" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="120" t="s">
+      <c r="AE18" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="133" t="s">
+      <c r="AF18" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="150"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="115"/>
+      <c r="AG18" s="192"/>
+      <c r="AH18" s="221"/>
+      <c r="AI18" s="221"/>
+      <c r="AJ18" s="222"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="224"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="248"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="249"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="201"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="117"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="146"/>
+      <c r="U19" s="202"/>
+      <c r="V19" s="198"/>
+      <c r="W19" s="198"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="203"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="198"/>
+      <c r="AB19" s="198"/>
+      <c r="AC19" s="199"/>
+      <c r="AD19" s="226"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="240"/>
+      <c r="AG19" s="192"/>
+      <c r="AH19" s="223"/>
+      <c r="AI19" s="223"/>
+      <c r="AJ19" s="224"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5022,8 +5001,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="224"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5040,10 +5019,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="148" t="s">
+      <c r="U20" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="148"/>
+      <c r="V20" s="110"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5072,25 +5051,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="103" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
+      <c r="K21" s="211"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="211"/>
+      <c r="O21" s="211"/>
+      <c r="P21" s="211"/>
+      <c r="Q21" s="211"/>
+      <c r="R21" s="211"/>
+      <c r="S21" s="211"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5105,10 +5084,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="147" t="s">
+      <c r="AH21" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="147"/>
+      <c r="AI21" s="190"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5116,20 +5095,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="89" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="101" t="s">
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="K22" s="259"/>
+      <c r="L22" s="259"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5160,24 +5139,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="224"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
+      <c r="K23" s="212"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="213"/>
+      <c r="P23" s="213"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="213"/>
+      <c r="S23" s="213"/>
+      <c r="T23" s="213"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5200,26 +5179,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="229" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="231"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="215"/>
+      <c r="M24" s="215"/>
+      <c r="N24" s="215"/>
+      <c r="O24" s="215"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="215"/>
+      <c r="S24" s="215"/>
+      <c r="T24" s="215"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5242,25 +5221,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="214" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="198"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
+      <c r="K25" s="216"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="217"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="217"/>
+      <c r="Q25" s="217"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5286,25 +5265,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="224"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="256"/>
+      <c r="M26" s="256"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="256"/>
+      <c r="Q26" s="257"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="257"/>
+      <c r="T26" s="257"/>
+      <c r="U26" s="257"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5326,31 +5305,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="92" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95" t="s">
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="252" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97" t="s">
+      <c r="K27" s="253"/>
+      <c r="L27" s="253"/>
+      <c r="M27" s="253"/>
+      <c r="N27" s="253"/>
+      <c r="O27" s="253"/>
+      <c r="P27" s="253"/>
+      <c r="Q27" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
+      <c r="R27" s="254"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5371,12 +5350,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="255"/>
-      <c r="Z28" s="255"/>
-      <c r="AA28" s="255"/>
-      <c r="AB28" s="255"/>
-      <c r="AC28" s="255"/>
-      <c r="AD28" s="255"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5421,14 +5400,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="256" t="s">
+      <c r="W31" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="257"/>
-      <c r="Y31" s="257"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="258"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5439,85 +5418,152 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="259" t="s">
+      <c r="W32" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="260"/>
-      <c r="AG32" s="260"/>
-      <c r="AH32" s="260"/>
-      <c r="AI32" s="260"/>
-      <c r="AJ32" s="261"/>
-      <c r="AK32" s="262"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="96"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="263"/>
-      <c r="Z33" s="263"/>
-      <c r="AA33" s="263"/>
-      <c r="AB33" s="263"/>
-      <c r="AC33" s="263"/>
-      <c r="AD33" s="263"/>
-      <c r="AE33" s="263"/>
-      <c r="AF33" s="263"/>
-      <c r="AG33" s="263"/>
-      <c r="AH33" s="263"/>
-      <c r="AI33" s="263"/>
-      <c r="AJ33" s="263" t="s">
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="264"/>
+      <c r="AK33" s="98"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="263"/>
-      <c r="Z34" s="263"/>
-      <c r="AA34" s="263"/>
-      <c r="AB34" s="263"/>
-      <c r="AC34" s="263"/>
-      <c r="AD34" s="263"/>
-      <c r="AE34" s="263"/>
-      <c r="AF34" s="263"/>
-      <c r="AG34" s="263"/>
-      <c r="AH34" s="263"/>
-      <c r="AI34" s="263"/>
-      <c r="AJ34" s="263"/>
-      <c r="AK34" s="264"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="98"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="265"/>
-      <c r="Z35" s="265"/>
-      <c r="AA35" s="265"/>
-      <c r="AB35" s="265"/>
-      <c r="AC35" s="265"/>
-      <c r="AD35" s="265"/>
-      <c r="AE35" s="265"/>
-      <c r="AF35" s="265"/>
-      <c r="AG35" s="265"/>
-      <c r="AH35" s="265"/>
-      <c r="AI35" s="265"/>
-      <c r="AJ35" s="265"/>
-      <c r="AK35" s="266"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="100"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5534,78 +5580,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10BFDA-4FD2-4A84-8146-B31511169337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者氏名変更（訂正）届 " sheetId="1" r:id="rId1"/>
@@ -437,10 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　（   　　   　  　局）　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>届書記入の個人番号に誤りがないことを確認しました。</t>
     <rPh sb="0" eb="2">
       <t>トドケショ</t>
@@ -507,11 +504,14 @@
   <si>
     <t>（性別）</t>
   </si>
+  <si>
+    <t>　（   　　   　  　局）　</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31">
     <font>
       <sz val="11"/>
@@ -1595,6 +1595,492 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,492 +2116,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,7 +2151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1605" name="Line 53"/>
+        <xdr:cNvPr id="1605" name="Line 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045060000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2204,7 +2210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1606" name="Line 55"/>
+        <xdr:cNvPr id="1606" name="Line 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046060000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2257,7 +2269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1608" name="Line 111"/>
+        <xdr:cNvPr id="1608" name="Line 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048060000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2310,7 +2328,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1612" name="Group 125"/>
+        <xdr:cNvPr id="1612" name="Group 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C060000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2318,14 +2342,20 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="10598426" y="1980786"/>
-          <a:ext cx="171450" cy="1145899"/>
+          <a:ext cx="171450" cy="1096203"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1621" name="Oval 126"/>
+          <xdr:cNvPr id="1621" name="Oval 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055060000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2360,7 +2390,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1622" name="Oval 127"/>
+          <xdr:cNvPr id="1622" name="Oval 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056060000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2395,7 +2431,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1623" name="Rectangle 128"/>
+          <xdr:cNvPr id="1623" name="Rectangle 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057060000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2446,7 +2488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1154" name="Text Box 130"/>
+        <xdr:cNvPr id="1154" name="Text Box 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2553,7 +2601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 129"/>
+        <xdr:cNvPr id="28" name="Text Box 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2651,22 +2705,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1615" name="Group 135"/>
+        <xdr:cNvPr id="1615" name="Group 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F060000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9731237" y="3344103"/>
-          <a:ext cx="152400" cy="894936"/>
+          <a:off x="9731237" y="3294408"/>
+          <a:ext cx="152400" cy="894935"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1618" name="Oval 136"/>
+          <xdr:cNvPr id="1618" name="Oval 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052060000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2701,7 +2767,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1619" name="Oval 137"/>
+          <xdr:cNvPr id="1619" name="Oval 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053060000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2736,7 +2808,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1620" name="Rectangle 138"/>
+          <xdr:cNvPr id="1620" name="Rectangle 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054060000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2787,7 +2865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Text Box 139"/>
+        <xdr:cNvPr id="33" name="Text Box 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2894,7 +2978,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2953,7 +3043,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Line 53"/>
+        <xdr:cNvPr id="32" name="Line 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2991,61 +3087,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>248220</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="467295" y="647700"/>
-          <a:ext cx="1113856" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
@@ -3064,7 +3105,7 @@
         <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3171,7 @@
         <xdr:cNvPr id="22" name="A1_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3237,7 @@
         <xdr:cNvPr id="23" name="A1_5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3303,7 @@
         <xdr:cNvPr id="24" name="A1_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3369,7 @@
         <xdr:cNvPr id="26" name="A1_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3435,7 @@
         <xdr:cNvPr id="29" name="C1_9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3501,7 @@
         <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,7 +3567,7 @@
         <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3592,7 +3633,7 @@
         <xdr:cNvPr id="35" name="C1_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3658,7 +3699,7 @@
         <xdr:cNvPr id="36" name="C1_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3765,7 @@
         <xdr:cNvPr id="37" name="C1_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9F39BA-8286-405A-84C2-84426D69F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3770,6 +3811,116 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>283597</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D0363D-1089-4B31-942E-4DABB50345CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="521804" y="612913"/>
+          <a:ext cx="1113442" cy="664597"/>
+          <a:chOff x="1226820" y="1192530"/>
+          <a:chExt cx="1109300" cy="662940"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="39" name="図 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3745761D-C8C3-42EC-8015-CC5F338902A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1226820" y="1192530"/>
+            <a:ext cx="1109300" cy="661863"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="Picture 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D722BFD5-D18A-4F0E-B649-BC1F6DAB2E59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2051580" y="1523999"/>
+            <a:ext cx="276330" cy="331471"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4114,13 +4265,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
@@ -4256,26 +4409,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="156" t="s">
+      <c r="Y3" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="156" t="s">
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="156" t="s">
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="156" t="s">
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="157"/>
-      <c r="AJ3" s="158"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="203"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4304,24 +4457,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="153" t="s">
+      <c r="Y4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="153" t="s">
+      <c r="Z4" s="199"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="153" t="s">
+      <c r="AC4" s="199"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="153"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="155"/>
+      <c r="AF4" s="199"/>
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="199"/>
+      <c r="AJ4" s="200"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4335,39 +4488,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="115" t="s">
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="234"/>
+      <c r="P5" s="234"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
+      <c r="S5" s="234"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="143"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="143"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="143"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="204"/>
+      <c r="AC5" s="205"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="205"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="204"/>
+      <c r="AI5" s="205"/>
+      <c r="AJ5" s="206"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="136"/>
+      <c r="AL5" s="215"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4379,37 +4532,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="152" t="s">
+      <c r="J6" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="234"/>
+      <c r="Q6" s="234"/>
+      <c r="R6" s="234"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="234"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="144"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="144"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="146"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="196"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="207"/>
+      <c r="AI6" s="196"/>
+      <c r="AJ6" s="197"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="136"/>
+      <c r="AL6" s="215"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4454,146 +4607,146 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="141" t="s">
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="141" t="s">
+      <c r="L8" s="205"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="141" t="s">
+      <c r="O8" s="205"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="205"/>
+      <c r="U8" s="205"/>
+      <c r="V8" s="205"/>
+      <c r="W8" s="205"/>
+      <c r="X8" s="205"/>
+      <c r="Y8" s="206"/>
+      <c r="Z8" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="147" t="s">
+      <c r="AA8" s="205"/>
+      <c r="AB8" s="205"/>
+      <c r="AC8" s="205"/>
+      <c r="AD8" s="205"/>
+      <c r="AE8" s="205"/>
+      <c r="AF8" s="205"/>
+      <c r="AG8" s="206"/>
+      <c r="AH8" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="218"/>
+      <c r="AI8" s="209"/>
+      <c r="AJ8" s="111"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="137" t="s">
+      <c r="C9" s="221"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="210"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="138"/>
-      <c r="AJ9" s="219"/>
+      <c r="AI9" s="217"/>
+      <c r="AJ9" s="112"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1">
+    <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI10" s="140"/>
-      <c r="AJ10" s="219"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="213"/>
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="212"/>
+      <c r="AB10" s="212"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="213"/>
+      <c r="AH10" s="218" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI10" s="219"/>
+      <c r="AJ10" s="112"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="220"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
@@ -4615,10 +4768,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="204" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA11" s="205"/>
+      <c r="Z11" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="168"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4635,177 +4788,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="219"/>
+      <c r="AJ11" s="112"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="175"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="173"/>
       <c r="K12" s="180"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="193"/>
-      <c r="X12" s="193"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="207"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="188"/>
-      <c r="AG12" s="164"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="223"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="138"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="219"/>
+      <c r="AJ12" s="112"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="175"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="180"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="193"/>
-      <c r="X13" s="193"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="207"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="164"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="138"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="219"/>
+      <c r="AJ13" s="112"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="175"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="173"/>
       <c r="K14" s="180"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="193"/>
-      <c r="X14" s="193"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="207"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="188"/>
-      <c r="AG14" s="164"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="169"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="138"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="219"/>
+      <c r="AJ14" s="112"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="167"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="194"/>
-      <c r="X15" s="194"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="165"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="139"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="220"/>
+      <c r="AJ15" s="113"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4813,54 +4966,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="159" t="s">
+      <c r="J16" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="160" t="s">
+      <c r="K16" s="186"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="168" t="s">
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="169"/>
-      <c r="S16" s="169"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="133" t="s">
+      <c r="R16" s="191"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="250" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="241" t="s">
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="242"/>
-      <c r="AB16" s="242"/>
-      <c r="AC16" s="243"/>
-      <c r="AD16" s="235" t="s">
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="236"/>
-      <c r="AF16" s="236"/>
-      <c r="AG16" s="191"/>
-      <c r="AH16" s="231" t="s">
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="231"/>
-      <c r="AJ16" s="232"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="126"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -4868,8 +5021,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="220"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -4877,123 +5030,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="200"/>
-      <c r="V17" s="181"/>
-      <c r="W17" s="181"/>
-      <c r="X17" s="181"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="181"/>
-      <c r="AB17" s="181"/>
-      <c r="AC17" s="196"/>
-      <c r="AD17" s="237"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="238"/>
-      <c r="AG17" s="192"/>
-      <c r="AH17" s="233"/>
-      <c r="AI17" s="233"/>
-      <c r="AJ17" s="234"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="243"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="239"/>
+      <c r="O17" s="239"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="159"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="128"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130" t="s">
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="131"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="244"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="246"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="181"/>
-      <c r="W18" s="181"/>
-      <c r="X18" s="181"/>
-      <c r="Y18" s="201"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="181"/>
-      <c r="AB18" s="181"/>
-      <c r="AC18" s="196"/>
-      <c r="AD18" s="225" t="s">
+      <c r="K18" s="248"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="227" t="s">
+      <c r="AE18" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="239" t="s">
+      <c r="AF18" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="192"/>
-      <c r="AH18" s="221"/>
-      <c r="AI18" s="221"/>
-      <c r="AJ18" s="222"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="115"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="230"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="146"/>
-      <c r="U19" s="202"/>
-      <c r="V19" s="198"/>
-      <c r="W19" s="198"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="203"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="199"/>
-      <c r="AD19" s="226"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="240"/>
-      <c r="AG19" s="192"/>
-      <c r="AH19" s="223"/>
-      <c r="AI19" s="223"/>
-      <c r="AJ19" s="224"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="245"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="196"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="117"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5001,8 +5154,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="101"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5019,10 +5172,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="V20" s="110"/>
+      <c r="U20" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" s="148"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5051,25 +5204,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="211"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="211"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="211"/>
-      <c r="S21" s="211"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5084,10 +5237,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="190" t="s">
+      <c r="AH21" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="190"/>
+      <c r="AI21" s="147"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5095,20 +5248,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="247" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="248"/>
-      <c r="J22" s="258" t="s">
+      <c r="C22" s="221"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="259"/>
-      <c r="L22" s="259"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5139,24 +5292,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="101"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213"/>
-      <c r="O23" s="213"/>
-      <c r="P23" s="213"/>
-      <c r="Q23" s="213"/>
-      <c r="R23" s="213"/>
-      <c r="S23" s="213"/>
-      <c r="T23" s="213"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5179,26 +5332,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="106" t="s">
+      <c r="C24" s="221"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="227"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="215"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="215"/>
-      <c r="R24" s="215"/>
-      <c r="S24" s="215"/>
-      <c r="T24" s="215"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5221,25 +5374,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="109" t="s">
+      <c r="C25" s="221"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="111"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="216"/>
-      <c r="L25" s="217"/>
-      <c r="M25" s="217"/>
-      <c r="N25" s="217"/>
-      <c r="O25" s="217"/>
-      <c r="P25" s="217"/>
-      <c r="Q25" s="217"/>
-      <c r="R25" s="217"/>
-      <c r="S25" s="217"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5265,25 +5418,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="101"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="220"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="256"/>
-      <c r="M26" s="256"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="257"/>
-      <c r="R26" s="257"/>
-      <c r="S26" s="257"/>
-      <c r="T26" s="257"/>
-      <c r="U26" s="257"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5305,31 +5458,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="249" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="252" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="253"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="253"/>
-      <c r="N27" s="253"/>
-      <c r="O27" s="253"/>
-      <c r="P27" s="253"/>
-      <c r="Q27" s="254" t="s">
+      <c r="C27" s="221"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="254"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5350,12 +5503,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
+      <c r="AA28" s="251"/>
+      <c r="AB28" s="251"/>
+      <c r="AC28" s="251"/>
+      <c r="AD28" s="251"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5400,14 +5553,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="90" t="s">
+      <c r="W31" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="254"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5418,87 +5571,150 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="93" t="s">
+      <c r="W32" s="255" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="96"/>
+      <c r="X32" s="256"/>
+      <c r="Y32" s="256"/>
+      <c r="Z32" s="256"/>
+      <c r="AA32" s="256"/>
+      <c r="AB32" s="256"/>
+      <c r="AC32" s="256"/>
+      <c r="AD32" s="256"/>
+      <c r="AE32" s="256"/>
+      <c r="AF32" s="256"/>
+      <c r="AG32" s="256"/>
+      <c r="AH32" s="256"/>
+      <c r="AI32" s="256"/>
+      <c r="AJ32" s="257"/>
+      <c r="AK32" s="258"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97" t="s">
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="259"/>
+      <c r="AC33" s="259"/>
+      <c r="AD33" s="259"/>
+      <c r="AE33" s="259"/>
+      <c r="AF33" s="259"/>
+      <c r="AG33" s="259"/>
+      <c r="AH33" s="259"/>
+      <c r="AI33" s="259"/>
+      <c r="AJ33" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="98"/>
+      <c r="AK33" s="260"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="98"/>
+      <c r="Y34" s="259"/>
+      <c r="Z34" s="259"/>
+      <c r="AA34" s="259"/>
+      <c r="AB34" s="259"/>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="259"/>
+      <c r="AE34" s="259"/>
+      <c r="AF34" s="259"/>
+      <c r="AG34" s="259"/>
+      <c r="AH34" s="259"/>
+      <c r="AI34" s="259"/>
+      <c r="AJ34" s="259"/>
+      <c r="AK34" s="260"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="100"/>
+      <c r="Y35" s="261"/>
+      <c r="Z35" s="261"/>
+      <c r="AA35" s="261"/>
+      <c r="AB35" s="261"/>
+      <c r="AC35" s="261"/>
+      <c r="AD35" s="261"/>
+      <c r="AE35" s="261"/>
+      <c r="AF35" s="261"/>
+      <c r="AG35" s="261"/>
+      <c r="AH35" s="261"/>
+      <c r="AI35" s="261"/>
+      <c r="AJ35" s="261"/>
+      <c r="AK35" s="262"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="D8:D27"/>
+    <mergeCell ref="C8:C27"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="M5:U6"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
     <mergeCell ref="J21:S21"/>
     <mergeCell ref="K23:T23"/>
     <mergeCell ref="K24:T24"/>
@@ -5515,76 +5731,13 @@
     <mergeCell ref="AG12:AG15"/>
     <mergeCell ref="AF12:AF15"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="D8:D27"/>
-    <mergeCell ref="C8:C27"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="M5:U6"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10BFDA-4FD2-4A84-8146-B31511169337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8F103-54B4-4390-AFB8-C2C3D3B4F377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,12 +1595,492 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,486 +2116,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3816,111 +3816,106 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:colOff>82825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119529</xdr:colOff>
+      <xdr:colOff>152659</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>283597</xdr:rowOff>
+      <xdr:rowOff>151185</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="Group 37">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D0363D-1089-4B31-942E-4DABB50345CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="521804" y="612913"/>
-          <a:ext cx="1113442" cy="664597"/>
-          <a:chOff x="1226820" y="1192530"/>
-          <a:chExt cx="1109300" cy="662940"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="39" name="図 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3745761D-C8C3-42EC-8015-CC5F338902A1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1226820" y="1192530"/>
-            <a:ext cx="1109300" cy="661863"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="40" name="Picture 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D722BFD5-D18A-4F0E-B649-BC1F6DAB2E59}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2051580" y="1523999"/>
-            <a:ext cx="276330" cy="331471"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="554934" y="480392"/>
+          <a:ext cx="1113442" cy="664706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140383</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144419</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1382774" y="799012"/>
+          <a:ext cx="277362" cy="347167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4270,7 +4265,7 @@
   <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4409,26 +4404,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="201" t="s">
+      <c r="Y3" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="201" t="s">
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="201" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="201" t="s">
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="203"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4457,24 +4452,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="198" t="s">
+      <c r="Y4" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="199"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="198" t="s">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="199"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="198" t="s">
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="199"/>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="199"/>
-      <c r="AJ4" s="200"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="158"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4488,39 +4483,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="222" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="234" t="s">
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="234"/>
-      <c r="O5" s="234"/>
-      <c r="P5" s="234"/>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="234"/>
-      <c r="S5" s="234"/>
-      <c r="T5" s="234"/>
-      <c r="U5" s="234"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="205"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="204"/>
-      <c r="AC5" s="205"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="204"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="204"/>
-      <c r="AI5" s="205"/>
-      <c r="AJ5" s="206"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="215"/>
+      <c r="AL5" s="139"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4532,37 +4527,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="214" t="s">
+      <c r="J6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="234"/>
-      <c r="O6" s="234"/>
-      <c r="P6" s="234"/>
-      <c r="Q6" s="234"/>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="234"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="196"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="207"/>
-      <c r="AI6" s="196"/>
-      <c r="AJ6" s="197"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="149"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="215"/>
+      <c r="AL6" s="139"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4607,155 +4602,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="221" t="s">
+      <c r="C8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="220" t="s">
+      <c r="D8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="204" t="s">
+      <c r="E8" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="204" t="s">
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="205"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="204" t="s">
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="205"/>
-      <c r="P8" s="205"/>
-      <c r="Q8" s="205"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="205"/>
-      <c r="T8" s="205"/>
-      <c r="U8" s="205"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="205"/>
-      <c r="X8" s="205"/>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="204" t="s">
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="205"/>
-      <c r="AB8" s="205"/>
-      <c r="AC8" s="205"/>
-      <c r="AD8" s="205"/>
-      <c r="AE8" s="205"/>
-      <c r="AF8" s="205"/>
-      <c r="AG8" s="206"/>
-      <c r="AH8" s="208" t="s">
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="209"/>
-      <c r="AJ8" s="111"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="221"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="210"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="194"/>
-      <c r="AH9" s="216" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="217"/>
-      <c r="AJ9" s="112"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="222"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="212"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="212"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="212"/>
-      <c r="V10" s="212"/>
-      <c r="W10" s="212"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="213"/>
-      <c r="Z10" s="211"/>
-      <c r="AA10" s="212"/>
-      <c r="AB10" s="212"/>
-      <c r="AC10" s="212"/>
-      <c r="AD10" s="212"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="212"/>
-      <c r="AG10" s="213"/>
-      <c r="AH10" s="218" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="219"/>
-      <c r="AJ10" s="112"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="222"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="220"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="179"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4768,10 +4763,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="167" t="s">
+      <c r="Z11" s="207" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="168"/>
+      <c r="AA11" s="208"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4788,177 +4783,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="112"/>
+      <c r="AJ11" s="222"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="223"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="138"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="180"/>
+      <c r="X12" s="180"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="178"/>
+      <c r="AG12" s="167"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="112"/>
+      <c r="AJ12" s="222"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="223"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="138"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="209"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="167"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="112"/>
+      <c r="AJ13" s="222"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="223"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="138"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="209"/>
+      <c r="AA14" s="210"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="178"/>
+      <c r="AG14" s="167"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="112"/>
+      <c r="AJ14" s="222"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="139"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="211"/>
+      <c r="AA15" s="212"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="179"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="168"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="113"/>
+      <c r="AJ15" s="223"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4966,54 +4961,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="220"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="185" t="s">
+      <c r="J16" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="186"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="190" t="s">
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="192"/>
-      <c r="U16" s="250" t="s">
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="135" t="s">
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="129" t="s">
+      <c r="AA16" s="245"/>
+      <c r="AB16" s="245"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="125" t="s">
+      <c r="AE16" s="239"/>
+      <c r="AF16" s="239"/>
+      <c r="AG16" s="196"/>
+      <c r="AH16" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="126"/>
+      <c r="AI16" s="234"/>
+      <c r="AJ16" s="235"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -5021,8 +5016,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="220"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -5030,123 +5025,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="243"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="194"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="128"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="203"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="198"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="199"/>
+      <c r="AD17" s="240"/>
+      <c r="AE17" s="241"/>
+      <c r="AF17" s="241"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="236"/>
+      <c r="AI17" s="236"/>
+      <c r="AJ17" s="237"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="220"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="247" t="s">
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="248"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="194"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="118" t="s">
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="247"/>
+      <c r="N18" s="248"/>
+      <c r="O18" s="248"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="198"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="199"/>
+      <c r="AD18" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="120" t="s">
+      <c r="AE18" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="133" t="s">
+      <c r="AF18" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="150"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="115"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="224"/>
+      <c r="AI18" s="224"/>
+      <c r="AJ18" s="225"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="220"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="244"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="245"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="196"/>
-      <c r="S19" s="196"/>
-      <c r="T19" s="197"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="117"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="201"/>
+      <c r="W19" s="201"/>
+      <c r="X19" s="201"/>
+      <c r="Y19" s="206"/>
+      <c r="Z19" s="200"/>
+      <c r="AA19" s="201"/>
+      <c r="AB19" s="201"/>
+      <c r="AC19" s="202"/>
+      <c r="AD19" s="229"/>
+      <c r="AE19" s="231"/>
+      <c r="AF19" s="243"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="226"/>
+      <c r="AI19" s="226"/>
+      <c r="AJ19" s="227"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5154,8 +5149,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="220"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5172,10 +5167,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="148" t="s">
+      <c r="U20" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="V20" s="148"/>
+      <c r="V20" s="110"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5204,25 +5199,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="235"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="103" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="214"/>
+      <c r="Q21" s="214"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="214"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5237,10 +5232,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="147" t="s">
+      <c r="AH21" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="147"/>
+      <c r="AI21" s="195"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5248,20 +5243,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="89" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="101" t="s">
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="262"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5292,24 +5287,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="220"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="216"/>
+      <c r="N23" s="216"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="216"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="216"/>
+      <c r="S23" s="216"/>
+      <c r="T23" s="216"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5332,26 +5327,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="225" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="227"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
+      <c r="K24" s="217"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="218"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5374,25 +5369,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="210" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="194"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5418,25 +5413,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="220"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="259"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="260"/>
+      <c r="R26" s="260"/>
+      <c r="S26" s="260"/>
+      <c r="T26" s="260"/>
+      <c r="U26" s="260"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5458,31 +5453,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="92" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95" t="s">
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97" t="s">
+      <c r="K27" s="256"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="256"/>
+      <c r="Q27" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="257"/>
+      <c r="T27" s="257"/>
+      <c r="U27" s="257"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5503,12 +5498,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="251"/>
-      <c r="Z28" s="251"/>
-      <c r="AA28" s="251"/>
-      <c r="AB28" s="251"/>
-      <c r="AC28" s="251"/>
-      <c r="AD28" s="251"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5553,14 +5548,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="252" t="s">
+      <c r="W31" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="253"/>
-      <c r="Y31" s="253"/>
-      <c r="Z31" s="253"/>
-      <c r="AA31" s="253"/>
-      <c r="AB31" s="254"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5571,85 +5566,152 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="255" t="s">
+      <c r="W32" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="256"/>
-      <c r="Y32" s="256"/>
-      <c r="Z32" s="256"/>
-      <c r="AA32" s="256"/>
-      <c r="AB32" s="256"/>
-      <c r="AC32" s="256"/>
-      <c r="AD32" s="256"/>
-      <c r="AE32" s="256"/>
-      <c r="AF32" s="256"/>
-      <c r="AG32" s="256"/>
-      <c r="AH32" s="256"/>
-      <c r="AI32" s="256"/>
-      <c r="AJ32" s="257"/>
-      <c r="AK32" s="258"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="96"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="259"/>
-      <c r="Z33" s="259"/>
-      <c r="AA33" s="259"/>
-      <c r="AB33" s="259"/>
-      <c r="AC33" s="259"/>
-      <c r="AD33" s="259"/>
-      <c r="AE33" s="259"/>
-      <c r="AF33" s="259"/>
-      <c r="AG33" s="259"/>
-      <c r="AH33" s="259"/>
-      <c r="AI33" s="259"/>
-      <c r="AJ33" s="259" t="s">
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="260"/>
+      <c r="AK33" s="98"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="259"/>
-      <c r="Z34" s="259"/>
-      <c r="AA34" s="259"/>
-      <c r="AB34" s="259"/>
-      <c r="AC34" s="259"/>
-      <c r="AD34" s="259"/>
-      <c r="AE34" s="259"/>
-      <c r="AF34" s="259"/>
-      <c r="AG34" s="259"/>
-      <c r="AH34" s="259"/>
-      <c r="AI34" s="259"/>
-      <c r="AJ34" s="259"/>
-      <c r="AK34" s="260"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="98"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
-      <c r="AA35" s="261"/>
-      <c r="AB35" s="261"/>
-      <c r="AC35" s="261"/>
-      <c r="AD35" s="261"/>
-      <c r="AE35" s="261"/>
-      <c r="AF35" s="261"/>
-      <c r="AG35" s="261"/>
-      <c r="AH35" s="261"/>
-      <c r="AI35" s="261"/>
-      <c r="AJ35" s="261"/>
-      <c r="AK35" s="262"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="100"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5666,78 +5728,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8F103-54B4-4390-AFB8-C2C3D3B4F377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者氏名変更（訂正）届 " sheetId="1" r:id="rId1"/>
@@ -511,8 +510,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -714,6 +713,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1595,6 +1599,468 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,491 +2097,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2342,7 +2346,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="10598426" y="1980786"/>
-          <a:ext cx="171450" cy="1096203"/>
+          <a:ext cx="171450" cy="1145899"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -2718,8 +2722,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9731237" y="3294408"/>
-          <a:ext cx="152400" cy="894935"/>
+          <a:off x="9731237" y="3344103"/>
+          <a:ext cx="152400" cy="894936"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -4260,15 +4264,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
@@ -4404,26 +4408,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="159" t="s">
+      <c r="Y3" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="159" t="s">
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="159" t="s">
+      <c r="AC3" s="200"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="159" t="s">
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="201"/>
+      <c r="AH3" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
+      <c r="AI3" s="200"/>
+      <c r="AJ3" s="201"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4452,24 +4456,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="156" t="s">
+      <c r="Y4" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="156" t="s">
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="156" t="s">
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="158"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="198"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4483,39 +4487,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="226"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226"/>
+      <c r="U5" s="226"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
+      <c r="Y5" s="202"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="202"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="202"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="202"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="204"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="139"/>
+      <c r="AL5" s="213"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4527,37 +4531,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="226"/>
+      <c r="S6" s="226"/>
+      <c r="T6" s="226"/>
+      <c r="U6" s="226"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="148"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="149"/>
+      <c r="Y6" s="205"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="205"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="195"/>
+      <c r="AE6" s="205"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="195"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="195"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="139"/>
+      <c r="AL6" s="213"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4602,155 +4606,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="144" t="s">
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="144" t="s">
+      <c r="L8" s="203"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="144" t="s">
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="150" t="s">
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="204"/>
+      <c r="AH8" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="221"/>
+      <c r="AI8" s="207"/>
+      <c r="AJ8" s="111"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="140" t="s">
+      <c r="C9" s="219"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="208"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="192"/>
+      <c r="AH9" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="222"/>
+      <c r="AI9" s="215"/>
+      <c r="AJ9" s="112"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
-    <row r="10" spans="1:39" ht="14.25" thickBot="1">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="142" t="s">
+      <c r="C10" s="219"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="210"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="211"/>
+      <c r="AH10" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="222"/>
+      <c r="AI10" s="217"/>
+      <c r="AJ10" s="112"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="186"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="177"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4763,10 +4767,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="207" t="s">
+      <c r="Z11" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="208"/>
+      <c r="AA11" s="168"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4783,177 +4787,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="222"/>
+      <c r="AJ11" s="112"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="180"/>
-      <c r="X12" s="180"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="167"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="255"/>
+      <c r="F12" s="258"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="138"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="222"/>
+      <c r="AJ12" s="112"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="180"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="209"/>
-      <c r="AA13" s="210"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="178"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="167"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="138"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="222"/>
+      <c r="AJ13" s="112"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="180"/>
-      <c r="X14" s="180"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="209"/>
-      <c r="AA14" s="210"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="178"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="167"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="169"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="138"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="222"/>
+      <c r="AJ14" s="112"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="181"/>
-      <c r="X15" s="181"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="211"/>
-      <c r="AA15" s="212"/>
-      <c r="AB15" s="179"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="179"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="168"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="141"/>
+      <c r="AG15" s="139"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="223"/>
+      <c r="AJ15" s="113"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4961,54 +4965,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="162" t="s">
+      <c r="J16" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="163" t="s">
+      <c r="K16" s="184"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="171" t="s">
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="187"/>
+      <c r="Q16" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="136" t="s">
+      <c r="R16" s="189"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="244" t="s">
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+      <c r="Y16" s="185"/>
+      <c r="Z16" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="245"/>
-      <c r="AB16" s="245"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="238" t="s">
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="239"/>
-      <c r="AF16" s="239"/>
-      <c r="AG16" s="196"/>
-      <c r="AH16" s="234" t="s">
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="234"/>
-      <c r="AJ16" s="235"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="126"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -5016,8 +5020,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -5025,123 +5029,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="203"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="198"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="199"/>
-      <c r="AD17" s="240"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="236"/>
-      <c r="AI17" s="236"/>
-      <c r="AJ17" s="237"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="235"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="159"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="128"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="218"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="131" t="s">
+      <c r="F18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133" t="s">
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="248"/>
-      <c r="O18" s="248"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="203"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="199"/>
-      <c r="AD18" s="228" t="s">
+      <c r="K18" s="240"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="159"/>
+      <c r="AD18" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="230" t="s">
+      <c r="AE18" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="242" t="s">
+      <c r="AF18" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="224"/>
-      <c r="AJ18" s="225"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="115"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="200"/>
-      <c r="AA19" s="201"/>
-      <c r="AB19" s="201"/>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="229"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="243"/>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="226"/>
-      <c r="AI19" s="226"/>
-      <c r="AJ19" s="227"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="236"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="117"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5149,8 +5153,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="101"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5167,10 +5171,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="110" t="s">
+      <c r="U20" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="V20" s="110"/>
+      <c r="V20" s="148"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5199,25 +5203,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="213" t="s">
+      <c r="C21" s="219"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5232,10 +5236,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="195" t="s">
+      <c r="AH21" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="195"/>
+      <c r="AI21" s="147"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5243,20 +5247,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="250" t="s">
+      <c r="C22" s="219"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="261" t="s">
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5287,24 +5291,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="101"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="218"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="216"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="216"/>
-      <c r="S23" s="216"/>
-      <c r="T23" s="216"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5327,26 +5331,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="106" t="s">
+      <c r="C24" s="219"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="225"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="217"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5369,25 +5373,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="109" t="s">
+      <c r="C25" s="219"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="111"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="192"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5413,25 +5417,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="101"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="218"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="260"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="260"/>
-      <c r="T26" s="260"/>
-      <c r="U26" s="260"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5453,31 +5457,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="252" t="s">
+      <c r="C27" s="219"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255" t="s">
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="257" t="s">
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="257"/>
-      <c r="S27" s="257"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5498,12 +5502,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="Y28" s="243"/>
+      <c r="Z28" s="243"/>
+      <c r="AA28" s="243"/>
+      <c r="AB28" s="243"/>
+      <c r="AC28" s="243"/>
+      <c r="AD28" s="243"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5548,14 +5552,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="90" t="s">
+      <c r="W31" s="244" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
+      <c r="X31" s="245"/>
+      <c r="Y31" s="245"/>
+      <c r="Z31" s="245"/>
+      <c r="AA31" s="245"/>
+      <c r="AB31" s="246"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5566,87 +5570,150 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="93" t="s">
+      <c r="W32" s="247" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="96"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="248"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="248"/>
+      <c r="AE32" s="248"/>
+      <c r="AF32" s="248"/>
+      <c r="AG32" s="248"/>
+      <c r="AH32" s="248"/>
+      <c r="AI32" s="248"/>
+      <c r="AJ32" s="249"/>
+      <c r="AK32" s="250"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97" t="s">
+      <c r="Y33" s="251"/>
+      <c r="Z33" s="251"/>
+      <c r="AA33" s="251"/>
+      <c r="AB33" s="251"/>
+      <c r="AC33" s="251"/>
+      <c r="AD33" s="251"/>
+      <c r="AE33" s="251"/>
+      <c r="AF33" s="251"/>
+      <c r="AG33" s="251"/>
+      <c r="AH33" s="251"/>
+      <c r="AI33" s="251"/>
+      <c r="AJ33" s="251" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="98"/>
+      <c r="AK33" s="252"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="98"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="251"/>
+      <c r="AA34" s="251"/>
+      <c r="AB34" s="251"/>
+      <c r="AC34" s="251"/>
+      <c r="AD34" s="251"/>
+      <c r="AE34" s="251"/>
+      <c r="AF34" s="251"/>
+      <c r="AG34" s="251"/>
+      <c r="AH34" s="251"/>
+      <c r="AI34" s="251"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="252"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="100"/>
+      <c r="Y35" s="253"/>
+      <c r="Z35" s="253"/>
+      <c r="AA35" s="253"/>
+      <c r="AB35" s="253"/>
+      <c r="AC35" s="253"/>
+      <c r="AD35" s="253"/>
+      <c r="AE35" s="253"/>
+      <c r="AF35" s="253"/>
+      <c r="AG35" s="253"/>
+      <c r="AH35" s="253"/>
+      <c r="AI35" s="253"/>
+      <c r="AJ35" s="253"/>
+      <c r="AK35" s="254"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="D8:D27"/>
+    <mergeCell ref="C8:C27"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="M5:U6"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
     <mergeCell ref="J21:S21"/>
     <mergeCell ref="K23:T23"/>
     <mergeCell ref="K24:T24"/>
@@ -5663,76 +5730,13 @@
     <mergeCell ref="AG12:AG15"/>
     <mergeCell ref="AF12:AF15"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="D8:D27"/>
-    <mergeCell ref="C8:C27"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="M5:U6"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1599,12 +1599,492 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,486 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3423,16 +3423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
+      <xdr:rowOff>207064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>34859</xdr:rowOff>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3447,140 +3447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9864587" y="2534478"/>
-          <a:ext cx="463826" cy="233642"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>182218</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>306456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>34859</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="C1_10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9856305" y="2683565"/>
-          <a:ext cx="463826" cy="233642"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>51425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="C1_11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9864587" y="2849218"/>
-          <a:ext cx="463826" cy="233642"/>
+          <a:off x="9988826" y="2584173"/>
+          <a:ext cx="182217" cy="157370"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3622,22 +3490,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>323021</xdr:rowOff>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>49696</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>51424</xdr:rowOff>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="C1_12">
+        <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,8 +3513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10146196" y="2700130"/>
-          <a:ext cx="463826" cy="233642"/>
+          <a:off x="9997109" y="2733261"/>
+          <a:ext cx="182217" cy="165652"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3688,22 +3556,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>26577</xdr:rowOff>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="C1_13">
+        <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,8 +3579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10154478" y="2824370"/>
-          <a:ext cx="463826" cy="233642"/>
+          <a:off x="9997108" y="2882348"/>
+          <a:ext cx="190501" cy="182217"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -3753,16 +3621,148 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>347867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>256759</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="C1_12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10295282" y="2724976"/>
+          <a:ext cx="215347" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>248477</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="C1_13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10303565" y="2890629"/>
+          <a:ext cx="198782" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>49694</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>248477</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>34859</xdr:rowOff>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3777,8 +3777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10171043" y="2981739"/>
-          <a:ext cx="463826" cy="233642"/>
+          <a:off x="10303564" y="3023148"/>
+          <a:ext cx="198783" cy="182222"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -4268,8 +4268,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18:AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4408,26 +4408,26 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="199" t="s">
+      <c r="Y3" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="199" t="s">
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="201"/>
-      <c r="AE3" s="199" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="200"/>
-      <c r="AG3" s="201"/>
-      <c r="AH3" s="199" t="s">
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="200"/>
-      <c r="AJ3" s="201"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="15"/>
     </row>
@@ -4456,24 +4456,24 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="196" t="s">
+      <c r="Y4" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="196" t="s">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="196" t="s">
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="197"/>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="198"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="158"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="15"/>
     </row>
@@ -4487,39 +4487,39 @@
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="220" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="226" t="s">
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="226"/>
-      <c r="O5" s="226"/>
-      <c r="P5" s="226"/>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="226"/>
-      <c r="S5" s="226"/>
-      <c r="T5" s="226"/>
-      <c r="U5" s="226"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="202"/>
-      <c r="Z5" s="203"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="202"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="202"/>
-      <c r="AF5" s="203"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="202"/>
-      <c r="AI5" s="203"/>
-      <c r="AJ5" s="204"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="213"/>
+      <c r="AL5" s="139"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="2"/>
@@ -4531,37 +4531,37 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="212" t="s">
+      <c r="J6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="226"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="226"/>
-      <c r="S6" s="226"/>
-      <c r="T6" s="226"/>
-      <c r="U6" s="226"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="205"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="205"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="205"/>
-      <c r="AF6" s="194"/>
-      <c r="AG6" s="195"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="194"/>
-      <c r="AJ6" s="195"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="149"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="213"/>
+      <c r="AL6" s="139"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="2"/>
@@ -4606,155 +4606,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="202" t="s">
+      <c r="E8" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="202" t="s">
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="203"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="202" t="s">
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="202" t="s">
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="203"/>
-      <c r="AG8" s="204"/>
-      <c r="AH8" s="206" t="s">
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="207"/>
-      <c r="AJ8" s="111"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="221"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="192"/>
-      <c r="AH9" s="214" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="215"/>
-      <c r="AJ9" s="112"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="222"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="1:39" ht="16.5" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="210"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="216" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="217"/>
-      <c r="AJ10" s="112"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="222"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="218"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="177"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="186"/>
       <c r="N11" s="32"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
@@ -4767,10 +4767,10 @@
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="167" t="s">
+      <c r="Z11" s="207" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="168"/>
+      <c r="AA11" s="208"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35" t="s">
         <v>33</v>
@@ -4787,177 +4787,177 @@
         <v>35</v>
       </c>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="112"/>
+      <c r="AJ11" s="222"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="261"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="138"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="180"/>
+      <c r="X12" s="180"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="178"/>
+      <c r="AG12" s="167"/>
       <c r="AH12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="112"/>
+      <c r="AJ12" s="222"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="153"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="153"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="140"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="138"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="209"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="167"/>
       <c r="AH13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AJ13" s="112"/>
+      <c r="AJ13" s="222"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="138"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="209"/>
+      <c r="AA14" s="210"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="178"/>
+      <c r="AG14" s="167"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AJ14" s="112"/>
+      <c r="AJ14" s="222"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="139"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="211"/>
+      <c r="AA15" s="212"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="179"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="168"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="113"/>
+      <c r="AJ15" s="223"/>
       <c r="AK15" s="8"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="9"/>
@@ -4965,54 +4965,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="218"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="44"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="183" t="s">
+      <c r="J16" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="184"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="186" t="s">
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="187"/>
-      <c r="Q16" s="188" t="s">
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="189"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="242" t="s">
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="V16" s="184"/>
-      <c r="W16" s="184"/>
-      <c r="X16" s="184"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="135" t="s">
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="129" t="s">
+      <c r="AA16" s="245"/>
+      <c r="AB16" s="245"/>
+      <c r="AC16" s="246"/>
+      <c r="AD16" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="125" t="s">
+      <c r="AE16" s="239"/>
+      <c r="AF16" s="239"/>
+      <c r="AG16" s="196"/>
+      <c r="AH16" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="126"/>
+      <c r="AI16" s="234"/>
+      <c r="AJ16" s="235"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="9"/>
@@ -5020,8 +5020,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="218"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="45" t="s">
         <v>44</v>
       </c>
@@ -5029,123 +5029,123 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="235"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="150"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="128"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="203"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="198"/>
+      <c r="AA17" s="188"/>
+      <c r="AB17" s="188"/>
+      <c r="AC17" s="199"/>
+      <c r="AD17" s="240"/>
+      <c r="AE17" s="241"/>
+      <c r="AF17" s="241"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="236"/>
+      <c r="AI17" s="236"/>
+      <c r="AJ17" s="237"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="218"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="239" t="s">
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="240"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="118" t="s">
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="247"/>
+      <c r="N18" s="248"/>
+      <c r="O18" s="248"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="198"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="199"/>
+      <c r="AD18" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="120" t="s">
+      <c r="AE18" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="133" t="s">
+      <c r="AF18" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="150"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="115"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="224"/>
+      <c r="AI18" s="224"/>
+      <c r="AJ18" s="225"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="218"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="237"/>
-      <c r="Q19" s="193"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="194"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="117"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="201"/>
+      <c r="W19" s="201"/>
+      <c r="X19" s="201"/>
+      <c r="Y19" s="206"/>
+      <c r="Z19" s="200"/>
+      <c r="AA19" s="201"/>
+      <c r="AB19" s="201"/>
+      <c r="AC19" s="202"/>
+      <c r="AD19" s="229"/>
+      <c r="AE19" s="231"/>
+      <c r="AF19" s="243"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="226"/>
+      <c r="AI19" s="226"/>
+      <c r="AJ19" s="227"/>
       <c r="AK19" s="8"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="11"/>
@@ -5153,8 +5153,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="218"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5171,10 +5171,10 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="148" t="s">
+      <c r="U20" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="V20" s="148"/>
+      <c r="V20" s="110"/>
       <c r="W20" s="82"/>
       <c r="X20" s="40" t="s">
         <v>0</v>
@@ -5203,25 +5203,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="228"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="228"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="103" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="214"/>
+      <c r="Q21" s="214"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="214"/>
       <c r="T21" s="83"/>
       <c r="U21" s="83"/>
       <c r="V21" s="84"/>
@@ -5236,10 +5236,10 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="147" t="s">
+      <c r="AH21" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="147"/>
+      <c r="AI21" s="195"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -5247,20 +5247,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="89" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="101" t="s">
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="262"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -5291,24 +5291,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="218"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="74"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
       <c r="H23" s="73"/>
       <c r="I23" s="75"/>
       <c r="J23" s="76"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="216"/>
+      <c r="N23" s="216"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="216"/>
+      <c r="Q23" s="216"/>
+      <c r="R23" s="216"/>
+      <c r="S23" s="216"/>
+      <c r="T23" s="216"/>
       <c r="U23" s="77"/>
       <c r="V23" s="78"/>
       <c r="W23" s="22"/>
@@ -5331,26 +5331,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="223" t="s">
+      <c r="C24" s="102"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="225"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
+      <c r="K24" s="217"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="218"/>
       <c r="U24" s="70"/>
       <c r="V24" s="71"/>
       <c r="W24" s="27"/>
@@ -5373,25 +5373,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="208" t="s">
+      <c r="C25" s="102"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="192"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
       <c r="T25" s="81"/>
       <c r="U25" s="40" t="s">
         <v>48</v>
@@ -5417,25 +5417,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="218"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="86"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
       <c r="I26" s="87"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="259"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="260"/>
+      <c r="R26" s="260"/>
+      <c r="S26" s="260"/>
+      <c r="T26" s="260"/>
+      <c r="U26" s="260"/>
       <c r="V26" s="12"/>
       <c r="W26" s="14"/>
       <c r="X26" s="2"/>
@@ -5457,31 +5457,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="92" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95" t="s">
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97" t="s">
+      <c r="K27" s="256"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="256"/>
+      <c r="Q27" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="257"/>
+      <c r="T27" s="257"/>
+      <c r="U27" s="257"/>
       <c r="V27" s="88"/>
       <c r="W27" s="14"/>
       <c r="X27" s="13"/>
@@ -5502,12 +5502,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="64"/>
-      <c r="Y28" s="243"/>
-      <c r="Z28" s="243"/>
-      <c r="AA28" s="243"/>
-      <c r="AB28" s="243"/>
-      <c r="AC28" s="243"/>
-      <c r="AD28" s="243"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="55"/>
       <c r="AF28" s="55"/>
       <c r="AG28" s="51"/>
@@ -5552,14 +5552,14 @@
       <c r="AK30" s="53"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="244" t="s">
+      <c r="W31" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="X31" s="245"/>
-      <c r="Y31" s="245"/>
-      <c r="Z31" s="245"/>
-      <c r="AA31" s="245"/>
-      <c r="AB31" s="246"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
       <c r="AD31" s="64"/>
       <c r="AE31" s="65"/>
       <c r="AF31" s="65"/>
@@ -5570,85 +5570,152 @@
       <c r="AK31" s="54"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="247" t="s">
+      <c r="W32" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="X32" s="248"/>
-      <c r="Y32" s="248"/>
-      <c r="Z32" s="248"/>
-      <c r="AA32" s="248"/>
-      <c r="AB32" s="248"/>
-      <c r="AC32" s="248"/>
-      <c r="AD32" s="248"/>
-      <c r="AE32" s="248"/>
-      <c r="AF32" s="248"/>
-      <c r="AG32" s="248"/>
-      <c r="AH32" s="248"/>
-      <c r="AI32" s="248"/>
-      <c r="AJ32" s="249"/>
-      <c r="AK32" s="250"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="96"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="66"/>
       <c r="X33" s="64"/>
-      <c r="Y33" s="251"/>
-      <c r="Z33" s="251"/>
-      <c r="AA33" s="251"/>
-      <c r="AB33" s="251"/>
-      <c r="AC33" s="251"/>
-      <c r="AD33" s="251"/>
-      <c r="AE33" s="251"/>
-      <c r="AF33" s="251"/>
-      <c r="AG33" s="251"/>
-      <c r="AH33" s="251"/>
-      <c r="AI33" s="251"/>
-      <c r="AJ33" s="251" t="s">
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="AK33" s="252"/>
+      <c r="AK33" s="98"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="66"/>
       <c r="X34" s="64"/>
-      <c r="Y34" s="251"/>
-      <c r="Z34" s="251"/>
-      <c r="AA34" s="251"/>
-      <c r="AB34" s="251"/>
-      <c r="AC34" s="251"/>
-      <c r="AD34" s="251"/>
-      <c r="AE34" s="251"/>
-      <c r="AF34" s="251"/>
-      <c r="AG34" s="251"/>
-      <c r="AH34" s="251"/>
-      <c r="AI34" s="251"/>
-      <c r="AJ34" s="251"/>
-      <c r="AK34" s="252"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="98"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="67"/>
       <c r="X35" s="68"/>
-      <c r="Y35" s="253"/>
-      <c r="Z35" s="253"/>
-      <c r="AA35" s="253"/>
-      <c r="AB35" s="253"/>
-      <c r="AC35" s="253"/>
-      <c r="AD35" s="253"/>
-      <c r="AE35" s="253"/>
-      <c r="AF35" s="253"/>
-      <c r="AG35" s="253"/>
-      <c r="AH35" s="253"/>
-      <c r="AI35" s="253"/>
-      <c r="AJ35" s="253"/>
-      <c r="AK35" s="254"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="100"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5665,78 +5732,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -285,27 +285,6 @@
     <t>（変更後）</t>
   </si>
   <si>
-    <r>
-      <t>㋒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　備　考</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ソナエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②　被保険者整理番号</t>
     <rPh sb="2" eb="6">
       <t>ヒホケンシャ</t>
@@ -343,7 +322,7 @@
   </si>
   <si>
     <t>㊞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>④　 生　　年　　月　　日</t>
@@ -430,7 +409,7 @@
     <rPh sb="2" eb="3">
       <t>とう</t>
     </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>社会保険労務士記載欄</t>
@@ -506,12 +485,15 @@
   <si>
     <t>　（   　　   　  　局）　</t>
   </si>
+  <si>
+    <t>㋒　備　考</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -525,79 +507,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -608,82 +521,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -715,8 +555,75 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <name val="ＭＳ Ｐ明朝"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1395,101 +1302,454 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1499,627 +1759,244 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2158,7 +2035,7 @@
         <xdr:cNvPr id="1605" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2094,7 @@
         <xdr:cNvPr id="1606" name="Line 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2153,7 @@
         <xdr:cNvPr id="1608" name="Line 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2212,7 @@
         <xdr:cNvPr id="1612" name="Group 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2223,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="10598426" y="1980786"/>
-          <a:ext cx="171450" cy="1145899"/>
+          <a:ext cx="171450" cy="1096203"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -2356,7 +2233,7 @@
           <xdr:cNvPr id="1621" name="Oval 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2397,7 +2274,7 @@
           <xdr:cNvPr id="1622" name="Oval 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2438,7 +2315,7 @@
           <xdr:cNvPr id="1623" name="Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2495,7 +2372,7 @@
         <xdr:cNvPr id="1154" name="Text Box 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2485,7 @@
         <xdr:cNvPr id="28" name="Text Box 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2589,7 @@
         <xdr:cNvPr id="1615" name="Group 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,8 +2599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9731237" y="3344103"/>
-          <a:ext cx="152400" cy="894936"/>
+          <a:off x="9731237" y="3294408"/>
+          <a:ext cx="152400" cy="894935"/>
           <a:chOff x="1973" y="1410"/>
           <a:chExt cx="272" cy="705"/>
         </a:xfrm>
@@ -2733,7 +2610,7 @@
           <xdr:cNvPr id="1618" name="Oval 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2774,7 +2651,7 @@
           <xdr:cNvPr id="1619" name="Oval 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2815,7 +2692,7 @@
           <xdr:cNvPr id="1620" name="Rectangle 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2872,7 +2749,7 @@
         <xdr:cNvPr id="33" name="Text Box 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2862,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +2927,7 @@
         <xdr:cNvPr id="32" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +2986,7 @@
         <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3052,7 @@
         <xdr:cNvPr id="22" name="A1_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3118,7 @@
         <xdr:cNvPr id="23" name="A1_5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3184,7 @@
         <xdr:cNvPr id="24" name="A1_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3250,7 @@
         <xdr:cNvPr id="26" name="A1_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3316,7 @@
         <xdr:cNvPr id="29" name="C1_9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,7 +3382,7 @@
         <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +3448,7 @@
         <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3514,7 @@
         <xdr:cNvPr id="35" name="C1_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3580,7 @@
         <xdr:cNvPr id="36" name="C1_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3769,7 +3646,7 @@
         <xdr:cNvPr id="37" name="C1_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3835,7 +3712,7 @@
         <xdr:cNvPr id="42" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,7 +3773,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,1389 +4145,1450 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18:AJ19"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="3.25" style="1" customWidth="1"/>
-    <col min="5" max="10" width="3.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
-    <col min="14" max="19" width="3.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.25" style="1" customWidth="1"/>
-    <col min="23" max="24" width="3.125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.75" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="3.75" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4" style="1" customWidth="1"/>
-    <col min="31" max="31" width="3.875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="3.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="3.625" style="1" customWidth="1"/>
-    <col min="34" max="35" width="4" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.25" style="1" customWidth="1"/>
-    <col min="37" max="37" width="1.875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4.375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="0.125" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="15" customWidth="1"/>
+    <col min="3" max="4" width="3.25" style="15" customWidth="1"/>
+    <col min="5" max="10" width="3.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="15" customWidth="1"/>
+    <col min="14" max="19" width="3.625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="15" customWidth="1"/>
+    <col min="21" max="21" width="3.375" style="15" customWidth="1"/>
+    <col min="22" max="22" width="3.25" style="15" customWidth="1"/>
+    <col min="23" max="24" width="3.125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="3.5" style="15" customWidth="1"/>
+    <col min="26" max="26" width="3.625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="3.75" style="15" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="15" customWidth="1"/>
+    <col min="29" max="29" width="3.75" style="15" customWidth="1"/>
+    <col min="30" max="30" width="4" style="15" customWidth="1"/>
+    <col min="31" max="31" width="3.875" style="15" customWidth="1"/>
+    <col min="32" max="32" width="3.75" style="15" customWidth="1"/>
+    <col min="33" max="33" width="3.625" style="15" customWidth="1"/>
+    <col min="34" max="35" width="4" style="15" customWidth="1"/>
+    <col min="36" max="36" width="3.25" style="15" customWidth="1"/>
+    <col min="37" max="37" width="1.875" style="15" customWidth="1"/>
+    <col min="38" max="38" width="4.375" style="15" customWidth="1"/>
+    <col min="39" max="39" width="0.125" style="15" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="12.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
     </row>
     <row r="3" spans="1:39" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="159" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="159" t="s">
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="159" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="159" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="161"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="15"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="27"/>
     </row>
     <row r="4" spans="1:39" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="156" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="156" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="156" t="s">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="15"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="27"/>
     </row>
     <row r="5" spans="1:39" ht="26.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="103" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="139"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="36"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="155" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="148"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="149"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="149"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="139"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="36"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
     </row>
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="102" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="144" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="144" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="144" t="s">
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="221"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="12"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="47"/>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="222"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="47"/>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="222"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="12"/>
+    <row r="10" spans="1:39" ht="14.25" thickBot="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="47"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="207" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA11" s="208"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35" t="s">
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="222"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="12"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="47"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="180"/>
-      <c r="X12" s="180"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="167"/>
-      <c r="AH12" s="38" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="AI12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ12" s="222"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="12"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="47"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="180"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="209"/>
-      <c r="AA13" s="210"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="178"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="38" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI13" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AI13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ13" s="222"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="12"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="47"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="180"/>
-      <c r="X14" s="180"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="209"/>
-      <c r="AA14" s="210"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="178"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ14" s="222"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="47"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="181"/>
-      <c r="X15" s="181"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="211"/>
-      <c r="AA15" s="212"/>
-      <c r="AB15" s="179"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="179"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="168"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="223"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="108"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="109"/>
     </row>
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="162" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="163" t="s">
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="171" t="s">
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="244" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16" s="245"/>
-      <c r="AB16" s="245"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="238" t="s">
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="239"/>
-      <c r="AF16" s="239"/>
-      <c r="AG16" s="196"/>
-      <c r="AH16" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI16" s="234"/>
-      <c r="AJ16" s="235"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="9"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="127" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI16" s="127"/>
+      <c r="AJ16" s="128"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="109"/>
     </row>
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="203"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="198"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="199"/>
-      <c r="AD17" s="240"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="197"/>
-      <c r="AH17" s="236"/>
-      <c r="AI17" s="236"/>
-      <c r="AJ17" s="237"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="141"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="142"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="146"/>
+      <c r="AL17" s="47"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="131" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133" t="s">
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="248"/>
-      <c r="O18" s="248"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="203"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="198"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="199"/>
-      <c r="AD18" s="228" t="s">
+      <c r="AE18" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF18" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="230" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF18" s="242" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="197"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="224"/>
-      <c r="AJ18" s="225"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="12"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="159"/>
+      <c r="AJ18" s="160"/>
+      <c r="AK18" s="146"/>
+      <c r="AL18" s="47"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="201"/>
-      <c r="W19" s="201"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="200"/>
-      <c r="AA19" s="201"/>
-      <c r="AB19" s="201"/>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="229"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="243"/>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="226"/>
-      <c r="AI19" s="226"/>
-      <c r="AJ19" s="227"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="11"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="176"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="178"/>
+      <c r="AI19" s="178"/>
+      <c r="AJ19" s="179"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="180"/>
     </row>
     <row r="20" spans="1:39" ht="33" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="V20" s="110"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="40" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="182"/>
+      <c r="X20" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="40" t="s">
+      <c r="Y20" s="182"/>
+      <c r="Z20" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="41" t="s">
+      <c r="AA20" s="182"/>
+      <c r="AB20" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="40" t="s">
+      <c r="AC20" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="AD20" s="181"/>
+      <c r="AE20" s="181"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="181"/>
+      <c r="AH20" s="181"/>
+      <c r="AI20" s="181"/>
+      <c r="AJ20" s="181"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
     </row>
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="213" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="195" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="189"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="181"/>
+      <c r="AA21" s="181"/>
+      <c r="AB21" s="181"/>
+      <c r="AC21" s="181"/>
+      <c r="AD21" s="181"/>
+      <c r="AE21" s="181"/>
+      <c r="AF21" s="181"/>
+      <c r="AG21" s="195"/>
+      <c r="AH21" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="195"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="AI21" s="196"/>
+      <c r="AJ21" s="197"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
     </row>
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="250" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="261" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="202"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="193"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="181"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="181"/>
+      <c r="AD22" s="181"/>
+      <c r="AE22" s="181"/>
+      <c r="AF22" s="181"/>
+      <c r="AG22" s="181"/>
+      <c r="AH22" s="203"/>
+      <c r="AI22" s="203"/>
+      <c r="AJ22" s="204"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
     </row>
     <row r="23" spans="1:39" ht="30" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="216"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="216"/>
-      <c r="S23" s="216"/>
-      <c r="T23" s="216"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="209"/>
+      <c r="V23" s="210"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+      <c r="AB23" s="181"/>
+      <c r="AC23" s="181"/>
+      <c r="AD23" s="181"/>
+      <c r="AE23" s="181"/>
+      <c r="AF23" s="181"/>
+      <c r="AG23" s="181"/>
+      <c r="AH23" s="203"/>
+      <c r="AI23" s="203"/>
+      <c r="AJ23" s="204"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
     </row>
     <row r="24" spans="1:39" ht="30" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="106" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="217"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="215"/>
+      <c r="V24" s="216"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="181"/>
+      <c r="AA24" s="181"/>
+      <c r="AB24" s="181"/>
+      <c r="AC24" s="181"/>
+      <c r="AD24" s="181"/>
+      <c r="AE24" s="181"/>
+      <c r="AF24" s="181"/>
+      <c r="AG24" s="181"/>
+      <c r="AH24" s="181"/>
+      <c r="AI24" s="181"/>
+      <c r="AJ24" s="181"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="109" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="220"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="220"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="220"/>
-      <c r="S25" s="220"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25" s="19"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="219"/>
+      <c r="U25" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" s="181"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="181"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="181"/>
+      <c r="AA25" s="181"/>
+      <c r="AB25" s="181"/>
+      <c r="AC25" s="181"/>
+      <c r="AD25" s="181"/>
+      <c r="AE25" s="181"/>
+      <c r="AF25" s="181"/>
+      <c r="AG25" s="181"/>
+      <c r="AH25" s="181"/>
+      <c r="AI25" s="181"/>
+      <c r="AJ25" s="181"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
     </row>
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="260"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="260"/>
-      <c r="T26" s="260"/>
-      <c r="U26" s="260"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="225"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="226"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
     </row>
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="252" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="255" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="257" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="227" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="230" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="231"/>
+      <c r="P27" s="231"/>
+      <c r="Q27" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="257"/>
-      <c r="S27" s="257"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="233"/>
+      <c r="W27" s="225"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="226"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
-      <c r="X28" s="64"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="53"/>
+      <c r="X28" s="234"/>
+      <c r="Y28" s="235"/>
+      <c r="Z28" s="235"/>
+      <c r="AA28" s="235"/>
+      <c r="AB28" s="235"/>
+      <c r="AC28" s="235"/>
+      <c r="AD28" s="235"/>
+      <c r="AE28" s="236"/>
+      <c r="AF28" s="236"/>
+      <c r="AG28" s="237"/>
+      <c r="AH28" s="237"/>
+      <c r="AI28" s="237"/>
+      <c r="AJ28" s="238"/>
+      <c r="AK28" s="239"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="53"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="236"/>
+      <c r="Z29" s="236"/>
+      <c r="AA29" s="236"/>
+      <c r="AB29" s="236"/>
+      <c r="AC29" s="236"/>
+      <c r="AD29" s="236"/>
+      <c r="AE29" s="236"/>
+      <c r="AF29" s="236"/>
+      <c r="AG29" s="237"/>
+      <c r="AH29" s="237"/>
+      <c r="AI29" s="237"/>
+      <c r="AJ29" s="238"/>
+      <c r="AK29" s="239"/>
     </row>
     <row r="30" spans="1:39">
-      <c r="X30" s="64"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="53"/>
+      <c r="X30" s="234"/>
+      <c r="Y30" s="236"/>
+      <c r="Z30" s="236"/>
+      <c r="AA30" s="236"/>
+      <c r="AB30" s="236"/>
+      <c r="AC30" s="236"/>
+      <c r="AD30" s="236"/>
+      <c r="AE30" s="236"/>
+      <c r="AF30" s="236"/>
+      <c r="AG30" s="240"/>
+      <c r="AH30" s="240"/>
+      <c r="AI30" s="240"/>
+      <c r="AJ30" s="238"/>
+      <c r="AK30" s="239"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
+      <c r="W31" s="241" t="s">
+        <v>49</v>
+      </c>
+      <c r="X31" s="242"/>
+      <c r="Y31" s="242"/>
+      <c r="Z31" s="242"/>
+      <c r="AA31" s="242"/>
+      <c r="AB31" s="243"/>
+      <c r="AD31" s="234"/>
+      <c r="AE31" s="236"/>
+      <c r="AF31" s="236"/>
+      <c r="AG31" s="240"/>
+      <c r="AH31" s="240"/>
+      <c r="AI31" s="240"/>
+      <c r="AJ31" s="240"/>
+      <c r="AK31" s="240"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="96"/>
+      <c r="W32" s="244" t="s">
+        <v>48</v>
+      </c>
+      <c r="X32" s="245"/>
+      <c r="Y32" s="245"/>
+      <c r="Z32" s="245"/>
+      <c r="AA32" s="245"/>
+      <c r="AB32" s="245"/>
+      <c r="AC32" s="245"/>
+      <c r="AD32" s="245"/>
+      <c r="AE32" s="245"/>
+      <c r="AF32" s="245"/>
+      <c r="AG32" s="245"/>
+      <c r="AH32" s="245"/>
+      <c r="AI32" s="245"/>
+      <c r="AJ32" s="242"/>
+      <c r="AK32" s="243"/>
     </row>
     <row r="33" spans="23:37">
-      <c r="W33" s="66"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK33" s="98"/>
+      <c r="W33" s="246"/>
+      <c r="X33" s="234"/>
+      <c r="Y33" s="247"/>
+      <c r="Z33" s="247"/>
+      <c r="AA33" s="247"/>
+      <c r="AB33" s="247"/>
+      <c r="AC33" s="247"/>
+      <c r="AD33" s="247"/>
+      <c r="AE33" s="247"/>
+      <c r="AF33" s="247"/>
+      <c r="AG33" s="247"/>
+      <c r="AH33" s="247"/>
+      <c r="AI33" s="247"/>
+      <c r="AJ33" s="247" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK33" s="248"/>
     </row>
     <row r="34" spans="23:37">
-      <c r="W34" s="66"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="98"/>
+      <c r="W34" s="246"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="247"/>
+      <c r="Z34" s="247"/>
+      <c r="AA34" s="247"/>
+      <c r="AB34" s="247"/>
+      <c r="AC34" s="247"/>
+      <c r="AD34" s="247"/>
+      <c r="AE34" s="247"/>
+      <c r="AF34" s="247"/>
+      <c r="AG34" s="247"/>
+      <c r="AH34" s="247"/>
+      <c r="AI34" s="247"/>
+      <c r="AJ34" s="247"/>
+      <c r="AK34" s="248"/>
     </row>
     <row r="35" spans="23:37">
-      <c r="W35" s="67"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="100"/>
+      <c r="W35" s="249"/>
+      <c r="X35" s="250"/>
+      <c r="Y35" s="251"/>
+      <c r="Z35" s="251"/>
+      <c r="AA35" s="251"/>
+      <c r="AB35" s="251"/>
+      <c r="AC35" s="251"/>
+      <c r="AD35" s="251"/>
+      <c r="AE35" s="251"/>
+      <c r="AF35" s="251"/>
+      <c r="AG35" s="251"/>
+      <c r="AH35" s="251"/>
+      <c r="AI35" s="251"/>
+      <c r="AJ35" s="251"/>
+      <c r="AK35" s="252"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="D8:D27"/>
+    <mergeCell ref="C8:C27"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="M5:U6"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
     <mergeCell ref="J21:S21"/>
     <mergeCell ref="K23:T23"/>
     <mergeCell ref="K24:T24"/>
@@ -5667,76 +5605,13 @@
     <mergeCell ref="AG12:AG15"/>
     <mergeCell ref="AF12:AF15"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="D8:D27"/>
-    <mergeCell ref="C8:C27"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="M5:U6"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1304,45 +1304,6 @@
   </cellStyleXfs>
   <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,135 +1323,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1503,104 +1360,17 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,147 +1379,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1758,54 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1817,21 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1843,15 +1418,22 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1859,41 +1441,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1921,37 +1472,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1966,38 +1493,511 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="1605" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
         <xdr:cNvPr id="1606" name="Line 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2153,7 @@
         <xdr:cNvPr id="1608" name="Line 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2212,7 @@
         <xdr:cNvPr id="1612" name="Group 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2233,7 @@
           <xdr:cNvPr id="1621" name="Oval 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2274,7 +2274,7 @@
           <xdr:cNvPr id="1622" name="Oval 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2315,7 +2315,7 @@
           <xdr:cNvPr id="1623" name="Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2372,7 +2372,7 @@
         <xdr:cNvPr id="1154" name="Text Box 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2485,7 @@
         <xdr:cNvPr id="28" name="Text Box 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2589,7 @@
         <xdr:cNvPr id="1615" name="Group 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
           <xdr:cNvPr id="1618" name="Oval 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2651,7 +2651,7 @@
           <xdr:cNvPr id="1619" name="Oval 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2692,7 +2692,7 @@
           <xdr:cNvPr id="1620" name="Rectangle 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2749,7 +2749,7 @@
         <xdr:cNvPr id="33" name="Text Box 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2862,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2927,7 @@
         <xdr:cNvPr id="32" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2986,7 @@
         <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
         <xdr:cNvPr id="22" name="A1_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3118,7 @@
         <xdr:cNvPr id="23" name="A1_5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="24" name="A1_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3250,7 @@
         <xdr:cNvPr id="26" name="A1_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3316,7 @@
         <xdr:cNvPr id="29" name="C1_9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3382,7 @@
         <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3448,7 @@
         <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3514,7 @@
         <xdr:cNvPr id="35" name="C1_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3580,7 +3580,7 @@
         <xdr:cNvPr id="36" name="C1_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3646,7 @@
         <xdr:cNvPr id="37" name="C1_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3712,7 @@
         <xdr:cNvPr id="42" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3773,7 +3773,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,1381 +4149,1448 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="15" customWidth="1"/>
-    <col min="3" max="4" width="3.25" style="15" customWidth="1"/>
-    <col min="5" max="10" width="3.625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="3.875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="15" customWidth="1"/>
-    <col min="14" max="19" width="3.625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="15" customWidth="1"/>
-    <col min="21" max="21" width="3.375" style="15" customWidth="1"/>
-    <col min="22" max="22" width="3.25" style="15" customWidth="1"/>
-    <col min="23" max="24" width="3.125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="3.5" style="15" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="15" customWidth="1"/>
-    <col min="27" max="27" width="3.75" style="15" customWidth="1"/>
-    <col min="28" max="28" width="3.875" style="15" customWidth="1"/>
-    <col min="29" max="29" width="3.75" style="15" customWidth="1"/>
-    <col min="30" max="30" width="4" style="15" customWidth="1"/>
-    <col min="31" max="31" width="3.875" style="15" customWidth="1"/>
-    <col min="32" max="32" width="3.75" style="15" customWidth="1"/>
-    <col min="33" max="33" width="3.625" style="15" customWidth="1"/>
-    <col min="34" max="35" width="4" style="15" customWidth="1"/>
-    <col min="36" max="36" width="3.25" style="15" customWidth="1"/>
-    <col min="37" max="37" width="1.875" style="15" customWidth="1"/>
-    <col min="38" max="38" width="4.375" style="15" customWidth="1"/>
-    <col min="39" max="39" width="0.125" style="15" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="2.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="3.25" style="2" customWidth="1"/>
+    <col min="5" max="10" width="3.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="2" customWidth="1"/>
+    <col min="14" max="19" width="3.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="3.375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="3.25" style="2" customWidth="1"/>
+    <col min="23" max="24" width="3.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="3.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="3.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="3.75" style="2" customWidth="1"/>
+    <col min="28" max="28" width="3.875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="3.75" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4" style="2" customWidth="1"/>
+    <col min="31" max="31" width="3.875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="3.75" style="2" customWidth="1"/>
+    <col min="33" max="33" width="3.625" style="2" customWidth="1"/>
+    <col min="34" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.25" style="2" customWidth="1"/>
+    <col min="37" max="37" width="1.875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4.375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="0.125" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="12.75" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="9.9499999999999993" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="23" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="23" t="s">
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="23" t="s">
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="23" t="s">
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="27"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="153"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:39" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="28" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="28" t="s">
+      <c r="Z4" s="149"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="28" t="s">
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="150"/>
+      <c r="AE4" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="27"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="150"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="150"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="11"/>
     </row>
     <row r="5" spans="1:39" ht="26.25" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="10" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11" t="s">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="36"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="138"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="138"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="138"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="131"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="9" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="36"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="140"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="131"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="32" t="s">
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="32" t="s">
+      <c r="L8" s="137"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="32" t="s">
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="43" t="s">
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="138"/>
+      <c r="AH8" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="47"/>
+      <c r="AI8" s="143"/>
+      <c r="AJ8" s="209"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="51" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="47"/>
+      <c r="AI9" s="133"/>
+      <c r="AJ9" s="210"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="57" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="146"/>
+      <c r="AH10" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="46"/>
-      <c r="AL10" s="47"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="210"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="70" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72" t="s">
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72" t="s">
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="73" t="s">
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AH11" s="74" t="s">
+      <c r="AH11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="47"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="210"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="91" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="170"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AI12" s="92" t="s">
+      <c r="AI12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="47"/>
+      <c r="AJ12" s="210"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="91" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="157"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AI13" s="92" t="s">
+      <c r="AI13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="47"/>
+      <c r="AJ13" s="210"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="92" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="161"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="47"/>
+      <c r="AJ14" s="210"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="108"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="109"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="199"/>
+      <c r="AA15" s="200"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="211"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="31"/>
     </row>
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="113"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="115" t="s">
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="117" t="s">
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="120" t="s">
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="114"/>
-      <c r="Z16" s="121" t="s">
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="124" t="s">
+      <c r="AA16" s="233"/>
+      <c r="AB16" s="233"/>
+      <c r="AC16" s="234"/>
+      <c r="AD16" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="127" t="s">
+      <c r="AE16" s="227"/>
+      <c r="AF16" s="227"/>
+      <c r="AG16" s="184"/>
+      <c r="AH16" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="127"/>
-      <c r="AJ16" s="128"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="109"/>
+      <c r="AI16" s="222"/>
+      <c r="AJ16" s="223"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="31"/>
     </row>
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="129" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="138"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="142"/>
-      <c r="AF17" s="142"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="144"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="146"/>
-      <c r="AL17" s="47"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="178"/>
+      <c r="AC17" s="187"/>
+      <c r="AD17" s="228"/>
+      <c r="AE17" s="229"/>
+      <c r="AF17" s="229"/>
+      <c r="AG17" s="185"/>
+      <c r="AH17" s="224"/>
+      <c r="AI17" s="224"/>
+      <c r="AJ17" s="225"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150" t="s">
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="138"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="156" t="s">
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="236"/>
+      <c r="O18" s="236"/>
+      <c r="P18" s="237"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="178"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="186"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="178"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="157" t="s">
+      <c r="AE18" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="158" t="s">
+      <c r="AF18" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="159"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="47"/>
+      <c r="AG18" s="185"/>
+      <c r="AH18" s="212"/>
+      <c r="AI18" s="212"/>
+      <c r="AJ18" s="213"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="168"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="171"/>
-      <c r="W19" s="171"/>
-      <c r="X19" s="171"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="171"/>
-      <c r="AB19" s="171"/>
-      <c r="AC19" s="174"/>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="176"/>
-      <c r="AF19" s="177"/>
-      <c r="AG19" s="143"/>
-      <c r="AH19" s="178"/>
-      <c r="AI19" s="178"/>
-      <c r="AJ19" s="179"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="180"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="190"/>
+      <c r="AD19" s="217"/>
+      <c r="AE19" s="219"/>
+      <c r="AF19" s="231"/>
+      <c r="AG19" s="185"/>
+      <c r="AH19" s="214"/>
+      <c r="AI19" s="214"/>
+      <c r="AJ19" s="215"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="42"/>
     </row>
     <row r="20" spans="1:39" ht="33" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="181"/>
-      <c r="S20" s="181"/>
-      <c r="T20" s="181"/>
-      <c r="U20" s="49" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="49"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="183" t="s">
+      <c r="V20" s="104"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="183" t="s">
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="184" t="s">
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="183" t="s">
+      <c r="AC20" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AD20" s="181"/>
-      <c r="AE20" s="181"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="181"/>
-      <c r="AH20" s="181"/>
-      <c r="AI20" s="181"/>
-      <c r="AJ20" s="181"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="188" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
-      <c r="M21" s="189"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="189"/>
-      <c r="S21" s="189"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="192"/>
-      <c r="X21" s="193"/>
-      <c r="Y21" s="194"/>
-      <c r="Z21" s="181"/>
-      <c r="AA21" s="181"/>
-      <c r="AB21" s="181"/>
-      <c r="AC21" s="181"/>
-      <c r="AD21" s="181"/>
-      <c r="AE21" s="181"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="195"/>
-      <c r="AH21" s="196" t="s">
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="202"/>
+      <c r="R21" s="202"/>
+      <c r="S21" s="202"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="196"/>
-      <c r="AJ21" s="197"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
+      <c r="AI21" s="183"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="198" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="239"/>
+      <c r="J22" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="202"/>
-      <c r="W22" s="192"/>
-      <c r="X22" s="193"/>
-      <c r="Y22" s="194"/>
-      <c r="Z22" s="181"/>
-      <c r="AA22" s="181"/>
-      <c r="AB22" s="181"/>
-      <c r="AC22" s="181"/>
-      <c r="AD22" s="181"/>
-      <c r="AE22" s="181"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="181"/>
-      <c r="AH22" s="203"/>
-      <c r="AI22" s="203"/>
-      <c r="AJ22" s="204"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
+      <c r="K22" s="250"/>
+      <c r="L22" s="250"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:39" ht="30" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="209"/>
-      <c r="V23" s="210"/>
-      <c r="W23" s="192"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="194"/>
-      <c r="Z23" s="181"/>
-      <c r="AA23" s="181"/>
-      <c r="AB23" s="181"/>
-      <c r="AC23" s="181"/>
-      <c r="AD23" s="181"/>
-      <c r="AE23" s="181"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="181"/>
-      <c r="AH23" s="203"/>
-      <c r="AI23" s="203"/>
-      <c r="AJ23" s="204"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="204"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:39" ht="30" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="211" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="215"/>
-      <c r="V24" s="216"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="194"/>
-      <c r="Y24" s="194"/>
-      <c r="Z24" s="181"/>
-      <c r="AA24" s="181"/>
-      <c r="AB24" s="181"/>
-      <c r="AC24" s="181"/>
-      <c r="AD24" s="181"/>
-      <c r="AE24" s="181"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="181"/>
-      <c r="AH24" s="181"/>
-      <c r="AI24" s="181"/>
-      <c r="AJ24" s="181"/>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="47"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="206"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="206"/>
+      <c r="O24" s="206"/>
+      <c r="P24" s="206"/>
+      <c r="Q24" s="206"/>
+      <c r="R24" s="206"/>
+      <c r="S24" s="206"/>
+      <c r="T24" s="206"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="48" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="219"/>
-      <c r="U25" s="183" t="s">
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="208"/>
+      <c r="M25" s="208"/>
+      <c r="N25" s="208"/>
+      <c r="O25" s="208"/>
+      <c r="P25" s="208"/>
+      <c r="Q25" s="208"/>
+      <c r="R25" s="208"/>
+      <c r="S25" s="208"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="V25" s="181"/>
-      <c r="W25" s="220"/>
-      <c r="X25" s="181"/>
-      <c r="Y25" s="194"/>
-      <c r="Z25" s="181"/>
-      <c r="AA25" s="181"/>
-      <c r="AB25" s="181"/>
-      <c r="AC25" s="181"/>
-      <c r="AD25" s="181"/>
-      <c r="AE25" s="181"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="181"/>
-      <c r="AH25" s="181"/>
-      <c r="AI25" s="181"/>
-      <c r="AJ25" s="181"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="47"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="225"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="226"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="246"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
+      <c r="T26" s="248"/>
+      <c r="U26" s="248"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
     </row>
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="227" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="230" t="s">
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="232" t="s">
+      <c r="K27" s="244"/>
+      <c r="L27" s="244"/>
+      <c r="M27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="244"/>
+      <c r="P27" s="244"/>
+      <c r="Q27" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="232"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="232"/>
-      <c r="U27" s="232"/>
-      <c r="V27" s="233"/>
-      <c r="W27" s="225"/>
-      <c r="X27" s="226"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="47"/>
-      <c r="AL27" s="47"/>
+      <c r="R27" s="245"/>
+      <c r="S27" s="245"/>
+      <c r="T27" s="245"/>
+      <c r="U27" s="245"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
-      <c r="X28" s="234"/>
-      <c r="Y28" s="235"/>
-      <c r="Z28" s="235"/>
-      <c r="AA28" s="235"/>
-      <c r="AB28" s="235"/>
-      <c r="AC28" s="235"/>
-      <c r="AD28" s="235"/>
-      <c r="AE28" s="236"/>
-      <c r="AF28" s="236"/>
-      <c r="AG28" s="237"/>
-      <c r="AH28" s="237"/>
-      <c r="AI28" s="237"/>
-      <c r="AJ28" s="238"/>
-      <c r="AK28" s="239"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="80"/>
     </row>
     <row r="29" spans="1:39">
-      <c r="R29" s="15" t="s">
+      <c r="R29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="234"/>
-      <c r="Y29" s="236"/>
-      <c r="Z29" s="236"/>
-      <c r="AA29" s="236"/>
-      <c r="AB29" s="236"/>
-      <c r="AC29" s="236"/>
-      <c r="AD29" s="236"/>
-      <c r="AE29" s="236"/>
-      <c r="AF29" s="236"/>
-      <c r="AG29" s="237"/>
-      <c r="AH29" s="237"/>
-      <c r="AI29" s="237"/>
-      <c r="AJ29" s="238"/>
-      <c r="AK29" s="239"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="77"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="80"/>
     </row>
     <row r="30" spans="1:39">
-      <c r="X30" s="234"/>
-      <c r="Y30" s="236"/>
-      <c r="Z30" s="236"/>
-      <c r="AA30" s="236"/>
-      <c r="AB30" s="236"/>
-      <c r="AC30" s="236"/>
-      <c r="AD30" s="236"/>
-      <c r="AE30" s="236"/>
-      <c r="AF30" s="236"/>
-      <c r="AG30" s="240"/>
-      <c r="AH30" s="240"/>
-      <c r="AI30" s="240"/>
-      <c r="AJ30" s="238"/>
-      <c r="AK30" s="239"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="80"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="241" t="s">
+      <c r="W31" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="X31" s="242"/>
-      <c r="Y31" s="242"/>
-      <c r="Z31" s="242"/>
-      <c r="AA31" s="242"/>
-      <c r="AB31" s="243"/>
-      <c r="AD31" s="234"/>
-      <c r="AE31" s="236"/>
-      <c r="AF31" s="236"/>
-      <c r="AG31" s="240"/>
-      <c r="AH31" s="240"/>
-      <c r="AI31" s="240"/>
-      <c r="AJ31" s="240"/>
-      <c r="AK31" s="240"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="88"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="244" t="s">
+      <c r="W32" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="245"/>
-      <c r="Y32" s="245"/>
-      <c r="Z32" s="245"/>
-      <c r="AA32" s="245"/>
-      <c r="AB32" s="245"/>
-      <c r="AC32" s="245"/>
-      <c r="AD32" s="245"/>
-      <c r="AE32" s="245"/>
-      <c r="AF32" s="245"/>
-      <c r="AG32" s="245"/>
-      <c r="AH32" s="245"/>
-      <c r="AI32" s="245"/>
-      <c r="AJ32" s="242"/>
-      <c r="AK32" s="243"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="88"/>
     </row>
     <row r="33" spans="23:37">
-      <c r="W33" s="246"/>
-      <c r="X33" s="234"/>
-      <c r="Y33" s="247"/>
-      <c r="Z33" s="247"/>
-      <c r="AA33" s="247"/>
-      <c r="AB33" s="247"/>
-      <c r="AC33" s="247"/>
-      <c r="AD33" s="247"/>
-      <c r="AE33" s="247"/>
-      <c r="AF33" s="247"/>
-      <c r="AG33" s="247"/>
-      <c r="AH33" s="247"/>
-      <c r="AI33" s="247"/>
-      <c r="AJ33" s="247" t="s">
+      <c r="W33" s="82"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AK33" s="248"/>
+      <c r="AK33" s="92"/>
     </row>
     <row r="34" spans="23:37">
-      <c r="W34" s="246"/>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="247"/>
-      <c r="Z34" s="247"/>
-      <c r="AA34" s="247"/>
-      <c r="AB34" s="247"/>
-      <c r="AC34" s="247"/>
-      <c r="AD34" s="247"/>
-      <c r="AE34" s="247"/>
-      <c r="AF34" s="247"/>
-      <c r="AG34" s="247"/>
-      <c r="AH34" s="247"/>
-      <c r="AI34" s="247"/>
-      <c r="AJ34" s="247"/>
-      <c r="AK34" s="248"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="91"/>
+      <c r="AK34" s="92"/>
     </row>
     <row r="35" spans="23:37">
-      <c r="W35" s="249"/>
-      <c r="X35" s="250"/>
-      <c r="Y35" s="251"/>
-      <c r="Z35" s="251"/>
-      <c r="AA35" s="251"/>
-      <c r="AB35" s="251"/>
-      <c r="AC35" s="251"/>
-      <c r="AD35" s="251"/>
-      <c r="AE35" s="251"/>
-      <c r="AF35" s="251"/>
-      <c r="AG35" s="251"/>
-      <c r="AH35" s="251"/>
-      <c r="AI35" s="251"/>
-      <c r="AJ35" s="251"/>
-      <c r="AK35" s="252"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="94"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5540,78 +5607,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1302,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1498,6 +1498,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,18 +1854,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1996,8 +1986,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2971,15 +2965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>42655</xdr:colOff>
+      <xdr:colOff>34372</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>265042</xdr:rowOff>
+      <xdr:rowOff>207061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>233155</xdr:colOff>
+      <xdr:colOff>224872</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>93594</xdr:rowOff>
+      <xdr:rowOff>35613</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2994,7 +2988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7670938" y="2642151"/>
+          <a:off x="7662655" y="2534474"/>
           <a:ext cx="463826" cy="184704"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3039,13 +3033,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>137907</xdr:rowOff>
+      <xdr:rowOff>113058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14838</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3060,7 +3054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7653130" y="2871168"/>
+          <a:off x="7653130" y="2796623"/>
           <a:ext cx="463826" cy="175105"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3105,13 +3099,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>33962</xdr:rowOff>
+      <xdr:rowOff>830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>64536</xdr:rowOff>
+      <xdr:rowOff>31404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3126,7 +3120,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7669696" y="2767223"/>
+          <a:off x="7669696" y="2684395"/>
           <a:ext cx="463826" cy="179661"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3169,15 +3163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>20292</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>117616</xdr:rowOff>
+      <xdr:rowOff>101050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>223631</xdr:colOff>
+      <xdr:colOff>215348</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>146118</xdr:rowOff>
+      <xdr:rowOff>129552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3192,7 +3186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7656858" y="2999964"/>
+          <a:off x="7648575" y="2933702"/>
           <a:ext cx="468382" cy="177589"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3235,15 +3229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>24847</xdr:colOff>
+      <xdr:colOff>16564</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>125896</xdr:rowOff>
+      <xdr:rowOff>101047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>215347</xdr:colOff>
+      <xdr:colOff>207064</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>30160</xdr:rowOff>
+      <xdr:rowOff>5311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3258,8 +3252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7653130" y="3157331"/>
-          <a:ext cx="463826" cy="169307"/>
+          <a:off x="7644847" y="3082786"/>
+          <a:ext cx="463826" cy="169308"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -4283,26 +4277,26 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="151" t="s">
+      <c r="Y3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="151" t="s">
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="151" t="s">
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="151" t="s">
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="153"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="155"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="11"/>
     </row>
@@ -4331,24 +4325,24 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="148" t="s">
+      <c r="Y4" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="148" t="s">
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="150"/>
-      <c r="AE4" s="148" t="s">
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="150"/>
-      <c r="AH4" s="148"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="150"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="152"/>
+      <c r="AH4" s="150"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="152"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
     </row>
@@ -4362,39 +4356,39 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="110" t="s">
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="138"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="138"/>
-      <c r="AH5" s="136"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="138"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="138"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="138"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="140"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="131"/>
+      <c r="AL5" s="133"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -4406,37 +4400,37 @@
       <c r="G6" s="1"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="147" t="s">
+      <c r="J6" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="140"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="140"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="140"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="139"/>
-      <c r="AI6" s="140"/>
-      <c r="AJ6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="142"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="142"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="142"/>
+      <c r="AJ6" s="143"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="131"/>
+      <c r="AL6" s="133"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="1"/>
@@ -4481,155 +4475,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="136" t="s">
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="137"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="136" t="s">
+      <c r="L8" s="139"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="136" t="s">
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="137"/>
-      <c r="AG8" s="138"/>
-      <c r="AH8" s="142" t="s">
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="139"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="143"/>
-      <c r="AJ8" s="209"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="207"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="132" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="133"/>
-      <c r="AJ9" s="210"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="208"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="134" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="147"/>
+      <c r="AF10" s="147"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="135"/>
-      <c r="AJ10" s="210"/>
+      <c r="AI10" s="137"/>
+      <c r="AJ10" s="208"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="252"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="178"/>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -4642,10 +4636,10 @@
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="22"/>
-      <c r="Z11" s="195" t="s">
+      <c r="Z11" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="196"/>
+      <c r="AA11" s="198"/>
       <c r="AB11" s="23"/>
       <c r="AC11" s="23" t="s">
         <v>32</v>
@@ -4662,177 +4656,177 @@
         <v>34</v>
       </c>
       <c r="AI11" s="26"/>
-      <c r="AJ11" s="210"/>
+      <c r="AJ11" s="208"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="170"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="159"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="199"/>
+      <c r="AA12" s="200"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="161"/>
       <c r="AH12" s="27" t="s">
         <v>35</v>
       </c>
       <c r="AI12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="210"/>
+      <c r="AJ12" s="208"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="159"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="170"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="159"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="199"/>
+      <c r="AA13" s="200"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="161"/>
       <c r="AH13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="AI13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AJ13" s="210"/>
+      <c r="AJ13" s="208"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="172"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="159"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="170"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="159"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="199"/>
+      <c r="AA14" s="200"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="161"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AJ14" s="210"/>
+      <c r="AJ14" s="208"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="199"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="171"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="171"/>
-      <c r="AG15" s="160"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="162"/>
       <c r="AH15" s="29"/>
       <c r="AI15" s="30"/>
-      <c r="AJ15" s="211"/>
+      <c r="AJ15" s="209"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="31"/>
@@ -4840,54 +4834,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="154" t="s">
+      <c r="J16" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="155" t="s">
+      <c r="K16" s="131"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="163" t="s">
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="128" t="s">
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
-      <c r="X16" s="129"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="232" t="s">
+      <c r="V16" s="131"/>
+      <c r="W16" s="131"/>
+      <c r="X16" s="131"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="233"/>
-      <c r="AB16" s="233"/>
-      <c r="AC16" s="234"/>
-      <c r="AD16" s="226" t="s">
+      <c r="AA16" s="231"/>
+      <c r="AB16" s="231"/>
+      <c r="AC16" s="232"/>
+      <c r="AD16" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="227"/>
-      <c r="AF16" s="227"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="222" t="s">
+      <c r="AE16" s="225"/>
+      <c r="AF16" s="225"/>
+      <c r="AG16" s="186"/>
+      <c r="AH16" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="222"/>
-      <c r="AJ16" s="223"/>
+      <c r="AI16" s="220"/>
+      <c r="AJ16" s="221"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="16"/>
       <c r="AM16" s="31"/>
@@ -4895,8 +4889,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="95"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
@@ -4904,123 +4898,123 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="178"/>
-      <c r="W17" s="178"/>
-      <c r="X17" s="178"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="178"/>
-      <c r="AB17" s="178"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="228"/>
-      <c r="AE17" s="229"/>
-      <c r="AF17" s="229"/>
-      <c r="AG17" s="185"/>
-      <c r="AH17" s="224"/>
-      <c r="AI17" s="224"/>
-      <c r="AJ17" s="225"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="180"/>
+      <c r="W17" s="180"/>
+      <c r="X17" s="180"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="188"/>
+      <c r="AA17" s="180"/>
+      <c r="AB17" s="180"/>
+      <c r="AC17" s="189"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="227"/>
+      <c r="AF17" s="227"/>
+      <c r="AG17" s="187"/>
+      <c r="AH17" s="222"/>
+      <c r="AI17" s="222"/>
+      <c r="AJ17" s="223"/>
       <c r="AK17" s="37"/>
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="125" t="s">
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
-      <c r="P18" s="237"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="216" t="s">
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="180"/>
+      <c r="W18" s="180"/>
+      <c r="X18" s="180"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="180"/>
+      <c r="AC18" s="189"/>
+      <c r="AD18" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="218" t="s">
+      <c r="AE18" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="230" t="s">
+      <c r="AF18" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="185"/>
-      <c r="AH18" s="212"/>
-      <c r="AI18" s="212"/>
-      <c r="AJ18" s="213"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="210"/>
+      <c r="AI18" s="210"/>
+      <c r="AJ18" s="211"/>
       <c r="AK18" s="37"/>
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="189"/>
-      <c r="W19" s="189"/>
-      <c r="X19" s="189"/>
-      <c r="Y19" s="194"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="189"/>
-      <c r="AB19" s="189"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="219"/>
-      <c r="AF19" s="231"/>
-      <c r="AG19" s="185"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="214"/>
-      <c r="AJ19" s="215"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="196"/>
+      <c r="Z19" s="190"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="215"/>
+      <c r="AE19" s="217"/>
+      <c r="AF19" s="229"/>
+      <c r="AG19" s="187"/>
+      <c r="AH19" s="212"/>
+      <c r="AI19" s="212"/>
+      <c r="AJ19" s="213"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="42"/>
@@ -5028,8 +5022,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="95"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
@@ -5046,10 +5040,10 @@
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
       <c r="T20" s="43"/>
-      <c r="U20" s="104" t="s">
+      <c r="U20" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="104"/>
+      <c r="V20" s="106"/>
       <c r="W20" s="44"/>
       <c r="X20" s="45" t="s">
         <v>0</v>
@@ -5078,25 +5072,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="201" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="202"/>
-      <c r="P21" s="202"/>
-      <c r="Q21" s="202"/>
-      <c r="R21" s="202"/>
-      <c r="S21" s="202"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="204"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="204"/>
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
       <c r="V21" s="48"/>
@@ -5111,10 +5105,10 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="52"/>
-      <c r="AH21" s="183" t="s">
+      <c r="AH21" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="183"/>
+      <c r="AI21" s="185"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
@@ -5122,20 +5116,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="238" t="s">
+      <c r="C22" s="98"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="236" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="239"/>
-      <c r="J22" s="249" t="s">
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="250"/>
-      <c r="L22" s="250"/>
+      <c r="K22" s="248"/>
+      <c r="L22" s="248"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
@@ -5166,24 +5160,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="95"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="57"/>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
       <c r="I23" s="59"/>
       <c r="J23" s="60"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="204"/>
-      <c r="S23" s="204"/>
-      <c r="T23" s="204"/>
+      <c r="K23" s="249"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
+      <c r="N23" s="250"/>
+      <c r="O23" s="250"/>
+      <c r="P23" s="250"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="250"/>
+      <c r="S23" s="250"/>
+      <c r="T23" s="250"/>
       <c r="U23" s="61"/>
       <c r="V23" s="62"/>
       <c r="W23" s="49"/>
@@ -5206,26 +5200,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="100" t="s">
+      <c r="C24" s="98"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
       <c r="J24" s="63"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="206"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="206"/>
-      <c r="O24" s="206"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="250"/>
+      <c r="N24" s="250"/>
+      <c r="O24" s="250"/>
+      <c r="P24" s="250"/>
+      <c r="Q24" s="250"/>
+      <c r="R24" s="250"/>
+      <c r="S24" s="250"/>
+      <c r="T24" s="250"/>
       <c r="U24" s="64"/>
       <c r="V24" s="65"/>
       <c r="W24" s="66"/>
@@ -5248,25 +5242,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="103" t="s">
+      <c r="C25" s="98"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="67"/>
-      <c r="K25" s="207"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="208"/>
-      <c r="N25" s="208"/>
-      <c r="O25" s="208"/>
-      <c r="P25" s="208"/>
-      <c r="Q25" s="208"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="208"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="206"/>
+      <c r="O25" s="206"/>
+      <c r="P25" s="206"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
+      <c r="S25" s="206"/>
       <c r="T25" s="68"/>
       <c r="U25" s="45" t="s">
         <v>47</v>
@@ -5292,25 +5286,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="95"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="70"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
       <c r="I26" s="72"/>
-      <c r="J26" s="246"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="247"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="248"/>
-      <c r="R26" s="248"/>
-      <c r="S26" s="248"/>
-      <c r="T26" s="248"/>
-      <c r="U26" s="248"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="245"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="245"/>
+      <c r="N26" s="245"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="246"/>
+      <c r="U26" s="246"/>
       <c r="V26" s="16"/>
       <c r="W26" s="73"/>
       <c r="X26" s="1"/>
@@ -5332,31 +5326,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="240" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="238" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="243" t="s">
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="244"/>
-      <c r="L27" s="244"/>
-      <c r="M27" s="244"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="244"/>
-      <c r="Q27" s="245" t="s">
+      <c r="K27" s="242"/>
+      <c r="L27" s="242"/>
+      <c r="M27" s="242"/>
+      <c r="N27" s="242"/>
+      <c r="O27" s="242"/>
+      <c r="P27" s="242"/>
+      <c r="Q27" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="245"/>
-      <c r="S27" s="245"/>
-      <c r="T27" s="245"/>
-      <c r="U27" s="245"/>
+      <c r="R27" s="243"/>
+      <c r="S27" s="243"/>
+      <c r="T27" s="243"/>
+      <c r="U27" s="243"/>
       <c r="V27" s="75"/>
       <c r="W27" s="73"/>
       <c r="X27" s="74"/>
@@ -5377,12 +5371,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="76"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
       <c r="AE28" s="77"/>
       <c r="AF28" s="77"/>
       <c r="AG28" s="78"/>
@@ -5427,14 +5421,14 @@
       <c r="AK30" s="80"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="86" t="s">
+      <c r="W31" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="88"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="90"/>
       <c r="AD31" s="76"/>
       <c r="AE31" s="77"/>
       <c r="AF31" s="77"/>
@@ -5445,76 +5439,76 @@
       <c r="AK31" s="81"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="89" t="s">
+      <c r="W32" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="88"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="89"/>
+      <c r="AK32" s="90"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="82"/>
       <c r="X33" s="76"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91" t="s">
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AK33" s="92"/>
+      <c r="AK33" s="94"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="82"/>
       <c r="X34" s="76"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="91"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="91"/>
-      <c r="AH34" s="91"/>
-      <c r="AI34" s="91"/>
-      <c r="AJ34" s="91"/>
-      <c r="AK34" s="92"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="93"/>
+      <c r="AJ34" s="93"/>
+      <c r="AK34" s="94"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="83"/>
       <c r="X35" s="84"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="93"/>
-      <c r="AG35" s="93"/>
-      <c r="AH35" s="93"/>
-      <c r="AI35" s="93"/>
-      <c r="AJ35" s="93"/>
-      <c r="AK35" s="94"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="95"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="96"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1302,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1500,6 +1500,465 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1530,467 +1989,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,7 +2032,7 @@
         <xdr:cNvPr id="1605" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2091,7 @@
         <xdr:cNvPr id="1606" name="Line 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2150,7 @@
         <xdr:cNvPr id="1608" name="Line 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2209,7 @@
         <xdr:cNvPr id="1612" name="Group 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2230,7 @@
           <xdr:cNvPr id="1621" name="Oval 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2268,7 +2271,7 @@
           <xdr:cNvPr id="1622" name="Oval 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2309,7 +2312,7 @@
           <xdr:cNvPr id="1623" name="Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="1154" name="Text Box 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2482,7 @@
         <xdr:cNvPr id="28" name="Text Box 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2586,7 @@
         <xdr:cNvPr id="1615" name="Group 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2607,7 @@
           <xdr:cNvPr id="1618" name="Oval 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2645,7 +2648,7 @@
           <xdr:cNvPr id="1619" name="Oval 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2686,7 +2689,7 @@
           <xdr:cNvPr id="1620" name="Rectangle 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2743,7 +2746,7 @@
         <xdr:cNvPr id="33" name="Text Box 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2859,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2924,7 @@
         <xdr:cNvPr id="32" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2983,7 @@
         <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3049,7 @@
         <xdr:cNvPr id="22" name="A1_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3115,7 @@
         <xdr:cNvPr id="23" name="A1_5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3181,7 @@
         <xdr:cNvPr id="24" name="A1_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3247,7 @@
         <xdr:cNvPr id="26" name="A1_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3313,7 @@
         <xdr:cNvPr id="29" name="C1_9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,7 +3379,7 @@
         <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3445,7 @@
         <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3511,7 @@
         <xdr:cNvPr id="35" name="C1_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3577,7 @@
         <xdr:cNvPr id="36" name="C1_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3640,7 +3643,7 @@
         <xdr:cNvPr id="37" name="C1_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3709,7 @@
         <xdr:cNvPr id="42" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3770,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4142,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -4277,26 +4280,26 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="153" t="s">
+      <c r="Y3" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="153" t="s">
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="153" t="s">
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="153" t="s">
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="155"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="196"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="11"/>
     </row>
@@ -4325,24 +4328,24 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="150" t="s">
+      <c r="Y4" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="150" t="s">
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="193"/>
+      <c r="AB4" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="152"/>
-      <c r="AE4" s="150" t="s">
+      <c r="AC4" s="192"/>
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="150"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="152"/>
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="193"/>
+      <c r="AH4" s="191"/>
+      <c r="AI4" s="192"/>
+      <c r="AJ4" s="193"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
     </row>
@@ -4356,39 +4359,39 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="112" t="s">
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="223"/>
+      <c r="P5" s="223"/>
+      <c r="Q5" s="223"/>
+      <c r="R5" s="223"/>
+      <c r="S5" s="223"/>
+      <c r="T5" s="223"/>
+      <c r="U5" s="223"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="138"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="138"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="140"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="198"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="198"/>
+      <c r="AJ5" s="199"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="133"/>
+      <c r="AL5" s="208"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -4400,37 +4403,37 @@
       <c r="G6" s="1"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="149" t="s">
+      <c r="J6" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="223"/>
+      <c r="U6" s="223"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="143"/>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="143"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="143"/>
+      <c r="Y6" s="200"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="200"/>
+      <c r="AC6" s="189"/>
+      <c r="AD6" s="190"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="189"/>
+      <c r="AG6" s="190"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="189"/>
+      <c r="AJ6" s="190"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="133"/>
+      <c r="AL6" s="208"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="1"/>
@@ -4475,155 +4478,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="138" t="s">
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="138" t="s">
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="139"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="138" t="s">
+      <c r="O8" s="198"/>
+      <c r="P8" s="198"/>
+      <c r="Q8" s="198"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="198"/>
+      <c r="T8" s="198"/>
+      <c r="U8" s="198"/>
+      <c r="V8" s="198"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="198"/>
+      <c r="Y8" s="199"/>
+      <c r="Z8" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="144" t="s">
+      <c r="AA8" s="198"/>
+      <c r="AB8" s="198"/>
+      <c r="AC8" s="198"/>
+      <c r="AD8" s="198"/>
+      <c r="AE8" s="198"/>
+      <c r="AF8" s="198"/>
+      <c r="AG8" s="199"/>
+      <c r="AH8" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="207"/>
+      <c r="AI8" s="202"/>
+      <c r="AJ8" s="106"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="134" t="s">
+      <c r="C9" s="214"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="143"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="208"/>
+      <c r="AI9" s="210"/>
+      <c r="AJ9" s="107"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="136" t="s">
+      <c r="C10" s="214"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="206"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="205"/>
+      <c r="AD10" s="205"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="206"/>
+      <c r="AH10" s="211" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="137"/>
-      <c r="AJ10" s="208"/>
+      <c r="AI10" s="212"/>
+      <c r="AJ10" s="107"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="213"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="178"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="172"/>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
@@ -4636,10 +4639,10 @@
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="22"/>
-      <c r="Z11" s="197" t="s">
+      <c r="Z11" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="198"/>
+      <c r="AA11" s="163"/>
       <c r="AB11" s="23"/>
       <c r="AC11" s="23" t="s">
         <v>32</v>
@@ -4656,177 +4659,177 @@
         <v>34</v>
       </c>
       <c r="AI11" s="26"/>
-      <c r="AJ11" s="208"/>
+      <c r="AJ11" s="107"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="199"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="161"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="133"/>
       <c r="AH12" s="27" t="s">
         <v>35</v>
       </c>
       <c r="AI12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="208"/>
+      <c r="AJ12" s="107"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="159"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="199"/>
-      <c r="AA13" s="200"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="172"/>
-      <c r="AG13" s="161"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="216"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="140"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="133"/>
       <c r="AH13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="AI13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AJ13" s="208"/>
+      <c r="AJ13" s="107"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="199"/>
-      <c r="AA14" s="200"/>
-      <c r="AB14" s="172"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="161"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="165"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="133"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AJ14" s="208"/>
+      <c r="AJ14" s="107"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="171"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="202"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="162"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="141"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="141"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="134"/>
       <c r="AH15" s="29"/>
       <c r="AI15" s="30"/>
-      <c r="AJ15" s="209"/>
+      <c r="AJ15" s="108"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="31"/>
@@ -4834,54 +4837,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="97"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="213"/>
       <c r="E16" s="32"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="156" t="s">
+      <c r="J16" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="131"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="157" t="s">
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="165" t="s">
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="167"/>
-      <c r="U16" s="130" t="s">
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="230" t="s">
+      <c r="V16" s="179"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="180"/>
+      <c r="Z16" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="231"/>
-      <c r="AB16" s="231"/>
-      <c r="AC16" s="232"/>
-      <c r="AD16" s="224" t="s">
+      <c r="AA16" s="131"/>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="225"/>
-      <c r="AF16" s="225"/>
-      <c r="AG16" s="186"/>
-      <c r="AH16" s="220" t="s">
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="220"/>
-      <c r="AJ16" s="221"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="121"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="16"/>
       <c r="AM16" s="31"/>
@@ -4889,8 +4892,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="213"/>
       <c r="E17" s="34" t="s">
         <v>43</v>
       </c>
@@ -4898,123 +4901,123 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="180"/>
-      <c r="W17" s="180"/>
-      <c r="X17" s="180"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="180"/>
-      <c r="AB17" s="180"/>
-      <c r="AC17" s="189"/>
-      <c r="AD17" s="226"/>
-      <c r="AE17" s="227"/>
-      <c r="AF17" s="227"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="222"/>
-      <c r="AI17" s="222"/>
-      <c r="AJ17" s="223"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="228"/>
+      <c r="O17" s="228"/>
+      <c r="P17" s="229"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="159"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="153"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="123"/>
       <c r="AK17" s="37"/>
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="213"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127" t="s">
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="180"/>
-      <c r="W18" s="180"/>
-      <c r="X18" s="180"/>
-      <c r="Y18" s="194"/>
-      <c r="Z18" s="188"/>
-      <c r="AA18" s="180"/>
-      <c r="AB18" s="180"/>
-      <c r="AC18" s="189"/>
-      <c r="AD18" s="214" t="s">
+      <c r="K18" s="237"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="216" t="s">
+      <c r="AE18" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="228" t="s">
+      <c r="AF18" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="210"/>
-      <c r="AI18" s="210"/>
-      <c r="AJ18" s="211"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="109"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="110"/>
       <c r="AK18" s="37"/>
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="97"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="213"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="196"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="191"/>
-      <c r="AB19" s="191"/>
-      <c r="AC19" s="192"/>
-      <c r="AD19" s="215"/>
-      <c r="AE19" s="217"/>
-      <c r="AF19" s="229"/>
-      <c r="AG19" s="187"/>
-      <c r="AH19" s="212"/>
-      <c r="AI19" s="212"/>
-      <c r="AJ19" s="213"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="189"/>
+      <c r="T19" s="190"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="112"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="42"/>
@@ -5022,8 +5025,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="97"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="213"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
@@ -5040,10 +5043,10 @@
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
       <c r="T20" s="43"/>
-      <c r="U20" s="106" t="s">
+      <c r="U20" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="106"/>
+      <c r="V20" s="143"/>
       <c r="W20" s="44"/>
       <c r="X20" s="45" t="s">
         <v>0</v>
@@ -5072,25 +5075,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="203" t="s">
+      <c r="C21" s="214"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="204"/>
-      <c r="S21" s="204"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
       <c r="T21" s="47"/>
       <c r="U21" s="47"/>
       <c r="V21" s="48"/>
@@ -5105,10 +5108,10 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
       <c r="AG21" s="52"/>
-      <c r="AH21" s="185" t="s">
+      <c r="AH21" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="185"/>
+      <c r="AI21" s="142"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
@@ -5116,20 +5119,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="236" t="s">
+      <c r="C22" s="214"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="237"/>
-      <c r="J22" s="247" t="s">
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="248"/>
-      <c r="L22" s="248"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
@@ -5160,24 +5163,24 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="213"/>
       <c r="E23" s="57"/>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
       <c r="I23" s="59"/>
       <c r="J23" s="60"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
-      <c r="N23" s="250"/>
-      <c r="O23" s="250"/>
-      <c r="P23" s="250"/>
-      <c r="Q23" s="250"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="251"/>
+      <c r="Q23" s="251"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="87"/>
       <c r="U23" s="61"/>
       <c r="V23" s="62"/>
       <c r="W23" s="49"/>
@@ -5200,26 +5203,26 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="102" t="s">
+      <c r="C24" s="214"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="220"/>
       <c r="J24" s="63"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="250"/>
-      <c r="N24" s="250"/>
-      <c r="O24" s="250"/>
-      <c r="P24" s="250"/>
-      <c r="Q24" s="250"/>
-      <c r="R24" s="250"/>
-      <c r="S24" s="250"/>
-      <c r="T24" s="250"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="251"/>
+      <c r="N24" s="251"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="251"/>
+      <c r="Q24" s="251"/>
+      <c r="R24" s="251"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="87"/>
       <c r="U24" s="64"/>
       <c r="V24" s="65"/>
       <c r="W24" s="66"/>
@@ -5242,25 +5245,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="105" t="s">
+      <c r="C25" s="214"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="187"/>
       <c r="J25" s="67"/>
-      <c r="K25" s="205"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="206"/>
-      <c r="O25" s="206"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
       <c r="T25" s="68"/>
       <c r="U25" s="45" t="s">
         <v>47</v>
@@ -5286,25 +5289,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="97"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="213"/>
       <c r="E26" s="70"/>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
       <c r="I26" s="72"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="246"/>
-      <c r="U26" s="246"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
       <c r="V26" s="16"/>
       <c r="W26" s="73"/>
       <c r="X26" s="1"/>
@@ -5326,31 +5329,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="238" t="s">
+      <c r="C27" s="214"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="241" t="s">
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="242"/>
-      <c r="L27" s="242"/>
-      <c r="M27" s="242"/>
-      <c r="N27" s="242"/>
-      <c r="O27" s="242"/>
-      <c r="P27" s="242"/>
-      <c r="Q27" s="243" t="s">
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="243"/>
-      <c r="S27" s="243"/>
-      <c r="T27" s="243"/>
-      <c r="U27" s="243"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
       <c r="V27" s="75"/>
       <c r="W27" s="73"/>
       <c r="X27" s="74"/>
@@ -5371,12 +5374,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="76"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
+      <c r="Y28" s="240"/>
+      <c r="Z28" s="240"/>
+      <c r="AA28" s="240"/>
+      <c r="AB28" s="240"/>
+      <c r="AC28" s="240"/>
+      <c r="AD28" s="240"/>
       <c r="AE28" s="77"/>
       <c r="AF28" s="77"/>
       <c r="AG28" s="78"/>
@@ -5421,14 +5424,14 @@
       <c r="AK30" s="80"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="88" t="s">
+      <c r="W31" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="90"/>
+      <c r="X31" s="242"/>
+      <c r="Y31" s="242"/>
+      <c r="Z31" s="242"/>
+      <c r="AA31" s="242"/>
+      <c r="AB31" s="243"/>
       <c r="AD31" s="76"/>
       <c r="AE31" s="77"/>
       <c r="AF31" s="77"/>
@@ -5439,152 +5442,85 @@
       <c r="AK31" s="81"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="91" t="s">
+      <c r="W32" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="89"/>
-      <c r="AK32" s="90"/>
+      <c r="X32" s="245"/>
+      <c r="Y32" s="245"/>
+      <c r="Z32" s="245"/>
+      <c r="AA32" s="245"/>
+      <c r="AB32" s="245"/>
+      <c r="AC32" s="245"/>
+      <c r="AD32" s="245"/>
+      <c r="AE32" s="245"/>
+      <c r="AF32" s="245"/>
+      <c r="AG32" s="245"/>
+      <c r="AH32" s="245"/>
+      <c r="AI32" s="245"/>
+      <c r="AJ32" s="242"/>
+      <c r="AK32" s="243"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="82"/>
       <c r="X33" s="76"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="93"/>
-      <c r="AJ33" s="93" t="s">
+      <c r="Y33" s="246"/>
+      <c r="Z33" s="246"/>
+      <c r="AA33" s="246"/>
+      <c r="AB33" s="246"/>
+      <c r="AC33" s="246"/>
+      <c r="AD33" s="246"/>
+      <c r="AE33" s="246"/>
+      <c r="AF33" s="246"/>
+      <c r="AG33" s="246"/>
+      <c r="AH33" s="246"/>
+      <c r="AI33" s="246"/>
+      <c r="AJ33" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="AK33" s="94"/>
+      <c r="AK33" s="247"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="82"/>
       <c r="X34" s="76"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="93"/>
-      <c r="AI34" s="93"/>
-      <c r="AJ34" s="93"/>
-      <c r="AK34" s="94"/>
+      <c r="Y34" s="246"/>
+      <c r="Z34" s="246"/>
+      <c r="AA34" s="246"/>
+      <c r="AB34" s="246"/>
+      <c r="AC34" s="246"/>
+      <c r="AD34" s="246"/>
+      <c r="AE34" s="246"/>
+      <c r="AF34" s="246"/>
+      <c r="AG34" s="246"/>
+      <c r="AH34" s="246"/>
+      <c r="AI34" s="246"/>
+      <c r="AJ34" s="246"/>
+      <c r="AK34" s="247"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="83"/>
       <c r="X35" s="84"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="96"/>
+      <c r="Y35" s="248"/>
+      <c r="Z35" s="248"/>
+      <c r="AA35" s="248"/>
+      <c r="AB35" s="248"/>
+      <c r="AC35" s="248"/>
+      <c r="AD35" s="248"/>
+      <c r="AE35" s="248"/>
+      <c r="AF35" s="248"/>
+      <c r="AG35" s="248"/>
+      <c r="AH35" s="248"/>
+      <c r="AI35" s="248"/>
+      <c r="AJ35" s="248"/>
+      <c r="AK35" s="249"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5601,11 +5537,78 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K23:S23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -658,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1193,32 +1193,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1302,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1342,7 +1316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1498,8 +1471,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,6 +1516,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1557,6 +1534,270 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1566,278 +1807,41 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1848,117 +1852,84 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,11 +1960,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4280,26 +4263,26 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="194" t="s">
+      <c r="Y3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="194" t="s">
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="194" t="s">
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="194" t="s">
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="195"/>
-      <c r="AJ3" s="196"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="181"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="11"/>
     </row>
@@ -4328,24 +4311,24 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="191" t="s">
+      <c r="Y4" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="192"/>
-      <c r="AA4" s="193"/>
-      <c r="AB4" s="191" t="s">
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="192"/>
-      <c r="AD4" s="193"/>
-      <c r="AE4" s="191" t="s">
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="192"/>
-      <c r="AG4" s="193"/>
-      <c r="AH4" s="191"/>
-      <c r="AI4" s="192"/>
-      <c r="AJ4" s="193"/>
+      <c r="AF4" s="183"/>
+      <c r="AG4" s="184"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="183"/>
+      <c r="AJ4" s="184"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
     </row>
@@ -4359,39 +4342,39 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="215" t="s">
+      <c r="J5" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="223" t="s">
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-      <c r="U5" s="223"/>
+      <c r="N5" s="219"/>
+      <c r="O5" s="219"/>
+      <c r="P5" s="219"/>
+      <c r="Q5" s="219"/>
+      <c r="R5" s="219"/>
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="199"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="199"/>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="199"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="199"/>
+      <c r="Y5" s="196"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="196"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="196"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="196"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="198"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="208"/>
+      <c r="AL5" s="203"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -4403,37 +4386,37 @@
       <c r="G6" s="1"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="207" t="s">
+      <c r="J6" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="223"/>
-      <c r="U6" s="223"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="219"/>
+      <c r="O6" s="219"/>
+      <c r="P6" s="219"/>
+      <c r="Q6" s="219"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="200"/>
-      <c r="Z6" s="189"/>
-      <c r="AA6" s="190"/>
-      <c r="AB6" s="200"/>
-      <c r="AC6" s="189"/>
-      <c r="AD6" s="190"/>
-      <c r="AE6" s="200"/>
-      <c r="AF6" s="189"/>
-      <c r="AG6" s="190"/>
-      <c r="AH6" s="200"/>
-      <c r="AI6" s="189"/>
-      <c r="AJ6" s="190"/>
+      <c r="Y6" s="208"/>
+      <c r="Z6" s="171"/>
+      <c r="AA6" s="172"/>
+      <c r="AB6" s="208"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="208"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="172"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="208"/>
+      <c r="AL6" s="203"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="1"/>
@@ -4478,840 +4461,840 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="197" t="s">
+      <c r="E8" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="197" t="s">
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="197" t="s">
+      <c r="L8" s="197"/>
+      <c r="M8" s="198"/>
+      <c r="N8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="199"/>
-      <c r="Z8" s="197" t="s">
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="198"/>
+      <c r="Z8" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="198"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198"/>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="198"/>
-      <c r="AG8" s="199"/>
-      <c r="AH8" s="201" t="s">
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="198"/>
+      <c r="AH8" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="202"/>
-      <c r="AJ8" s="106"/>
+      <c r="AI8" s="210"/>
+      <c r="AJ8" s="193"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="209" t="s">
+      <c r="C9" s="212"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="199"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="169"/>
+      <c r="Z9" s="199"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="210"/>
-      <c r="AJ9" s="107"/>
+      <c r="AI9" s="205"/>
+      <c r="AJ9" s="194"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="205"/>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="206"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="205"/>
-      <c r="AD10" s="205"/>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="206"/>
-      <c r="AH10" s="211" t="s">
+      <c r="C10" s="212"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="201"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="201"/>
+      <c r="U10" s="201"/>
+      <c r="V10" s="201"/>
+      <c r="W10" s="201"/>
+      <c r="X10" s="201"/>
+      <c r="Y10" s="202"/>
+      <c r="Z10" s="200"/>
+      <c r="AA10" s="201"/>
+      <c r="AB10" s="201"/>
+      <c r="AC10" s="201"/>
+      <c r="AD10" s="201"/>
+      <c r="AE10" s="201"/>
+      <c r="AF10" s="201"/>
+      <c r="AG10" s="202"/>
+      <c r="AH10" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="212"/>
-      <c r="AJ10" s="107"/>
+      <c r="AI10" s="207"/>
+      <c r="AJ10" s="194"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="16"/>
     </row>
-    <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:39" ht="27.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="214"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="248"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="162" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23" t="s">
+      <c r="AA11" s="143"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23" t="s">
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="24" t="s">
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AH11" s="25" t="s">
+      <c r="AH11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="107"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="194"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="214"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="133"/>
-      <c r="AH12" s="27" t="s">
+      <c r="C12" s="212"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AI12" s="28" t="s">
+      <c r="AI12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="107"/>
+      <c r="AJ12" s="194"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="216"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="150"/>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="140"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="133"/>
-      <c r="AH13" s="27" t="s">
+      <c r="C13" s="212"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AI13" s="28" t="s">
+      <c r="AI13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AJ13" s="107"/>
+      <c r="AJ13" s="194"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="164"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="28" t="s">
+      <c r="C14" s="212"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AJ14" s="107"/>
+      <c r="AJ14" s="194"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="214"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="134"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="141"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="108"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="131"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="146"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="195"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="16"/>
-      <c r="AM15" s="31"/>
+      <c r="AM15" s="30"/>
     </row>
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="178" t="s">
+      <c r="C16" s="212"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="179"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="181" t="s">
+      <c r="K16" s="161"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="183" t="s">
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="184"/>
-      <c r="S16" s="184"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="239" t="s">
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="179"/>
-      <c r="W16" s="179"/>
-      <c r="X16" s="179"/>
-      <c r="Y16" s="180"/>
-      <c r="Z16" s="130" t="s">
+      <c r="V16" s="161"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="124" t="s">
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="120" t="s">
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="121"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="157"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="16"/>
-      <c r="AM16" s="31"/>
+      <c r="AM16" s="30"/>
     </row>
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="212"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="228"/>
-      <c r="O17" s="228"/>
-      <c r="P17" s="229"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="152"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="122"/>
-      <c r="AJ17" s="123"/>
-      <c r="AK17" s="37"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="228"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="158"/>
+      <c r="AJ17" s="159"/>
+      <c r="AK17" s="36"/>
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="89" t="s">
+      <c r="C18" s="212"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="236" t="s">
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="237"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="152"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="113" t="s">
+      <c r="K18" s="233"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="169"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="115" t="s">
+      <c r="AE18" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="128" t="s">
+      <c r="AF18" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="37"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="148"/>
+      <c r="AI18" s="148"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="36"/>
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="189"/>
-      <c r="S19" s="189"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="111"/>
-      <c r="AJ19" s="112"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="229"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="153"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="150"/>
+      <c r="AJ19" s="151"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="16"/>
-      <c r="AM19" s="42"/>
+      <c r="AM19" s="41"/>
     </row>
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="143" t="s">
+      <c r="C20" s="212"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="143"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45" t="s">
+      <c r="V20" s="127"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="45" t="s">
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="46" t="s">
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="45" t="s">
+      <c r="AC20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="102" t="s">
+      <c r="C21" s="212"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="142" t="s">
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="142"/>
-      <c r="AJ21" s="53"/>
+      <c r="AI21" s="126"/>
+      <c r="AJ21" s="52"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="88" t="s">
+      <c r="C22" s="212"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="100" t="s">
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="56"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="55"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="250"/>
-      <c r="L23" s="251"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="251"/>
-      <c r="O23" s="251"/>
-      <c r="P23" s="251"/>
-      <c r="Q23" s="251"/>
-      <c r="R23" s="251"/>
-      <c r="S23" s="251"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="56"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="55"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="218" t="s">
+      <c r="C24" s="212"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="216" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="250"/>
-      <c r="L24" s="251"/>
-      <c r="M24" s="251"/>
-      <c r="N24" s="251"/>
-      <c r="O24" s="251"/>
-      <c r="P24" s="251"/>
-      <c r="Q24" s="251"/>
-      <c r="R24" s="251"/>
-      <c r="S24" s="251"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="203" t="s">
+      <c r="C25" s="212"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="45" t="s">
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V25" s="43"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
       <c r="V26" s="16"/>
-      <c r="W26" s="73"/>
+      <c r="W26" s="72"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="74"/>
+      <c r="Y26" s="73"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
@@ -5329,35 +5312,35 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="91" t="s">
+      <c r="C27" s="212"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94" t="s">
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96" t="s">
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
       <c r="AB27" s="16"/>
@@ -5373,149 +5356,149 @@
       <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
-      <c r="X28" s="76"/>
-      <c r="Y28" s="240"/>
-      <c r="Z28" s="240"/>
-      <c r="AA28" s="240"/>
-      <c r="AB28" s="240"/>
-      <c r="AC28" s="240"/>
-      <c r="AD28" s="240"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="80"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="237"/>
+      <c r="Z28" s="237"/>
+      <c r="AA28" s="237"/>
+      <c r="AB28" s="237"/>
+      <c r="AC28" s="237"/>
+      <c r="AD28" s="237"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="79"/>
     </row>
     <row r="29" spans="1:39">
       <c r="R29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="78"/>
-      <c r="AH29" s="78"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="80"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="79"/>
     </row>
     <row r="30" spans="1:39">
-      <c r="X30" s="76"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="81"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="80"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="79"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="241" t="s">
+      <c r="W31" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="X31" s="242"/>
-      <c r="Y31" s="242"/>
-      <c r="Z31" s="242"/>
-      <c r="AA31" s="242"/>
-      <c r="AB31" s="243"/>
-      <c r="AD31" s="76"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
+      <c r="X31" s="239"/>
+      <c r="Y31" s="239"/>
+      <c r="Z31" s="239"/>
+      <c r="AA31" s="239"/>
+      <c r="AB31" s="240"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="244" t="s">
+      <c r="W32" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="245"/>
-      <c r="Y32" s="245"/>
-      <c r="Z32" s="245"/>
-      <c r="AA32" s="245"/>
-      <c r="AB32" s="245"/>
-      <c r="AC32" s="245"/>
-      <c r="AD32" s="245"/>
-      <c r="AE32" s="245"/>
-      <c r="AF32" s="245"/>
-      <c r="AG32" s="245"/>
-      <c r="AH32" s="245"/>
-      <c r="AI32" s="245"/>
-      <c r="AJ32" s="242"/>
-      <c r="AK32" s="243"/>
+      <c r="X32" s="242"/>
+      <c r="Y32" s="242"/>
+      <c r="Z32" s="242"/>
+      <c r="AA32" s="242"/>
+      <c r="AB32" s="242"/>
+      <c r="AC32" s="242"/>
+      <c r="AD32" s="242"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="242"/>
+      <c r="AG32" s="242"/>
+      <c r="AH32" s="242"/>
+      <c r="AI32" s="242"/>
+      <c r="AJ32" s="239"/>
+      <c r="AK32" s="240"/>
     </row>
     <row r="33" spans="23:37">
-      <c r="W33" s="82"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="246"/>
-      <c r="Z33" s="246"/>
-      <c r="AA33" s="246"/>
-      <c r="AB33" s="246"/>
-      <c r="AC33" s="246"/>
-      <c r="AD33" s="246"/>
-      <c r="AE33" s="246"/>
-      <c r="AF33" s="246"/>
-      <c r="AG33" s="246"/>
-      <c r="AH33" s="246"/>
-      <c r="AI33" s="246"/>
-      <c r="AJ33" s="246" t="s">
+      <c r="W33" s="81"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="243"/>
+      <c r="Z33" s="243"/>
+      <c r="AA33" s="243"/>
+      <c r="AB33" s="243"/>
+      <c r="AC33" s="243"/>
+      <c r="AD33" s="243"/>
+      <c r="AE33" s="243"/>
+      <c r="AF33" s="243"/>
+      <c r="AG33" s="243"/>
+      <c r="AH33" s="243"/>
+      <c r="AI33" s="243"/>
+      <c r="AJ33" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="AK33" s="247"/>
+      <c r="AK33" s="244"/>
     </row>
     <row r="34" spans="23:37">
-      <c r="W34" s="82"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="246"/>
-      <c r="Z34" s="246"/>
-      <c r="AA34" s="246"/>
-      <c r="AB34" s="246"/>
-      <c r="AC34" s="246"/>
-      <c r="AD34" s="246"/>
-      <c r="AE34" s="246"/>
-      <c r="AF34" s="246"/>
-      <c r="AG34" s="246"/>
-      <c r="AH34" s="246"/>
-      <c r="AI34" s="246"/>
-      <c r="AJ34" s="246"/>
-      <c r="AK34" s="247"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="243"/>
+      <c r="Z34" s="243"/>
+      <c r="AA34" s="243"/>
+      <c r="AB34" s="243"/>
+      <c r="AC34" s="243"/>
+      <c r="AD34" s="243"/>
+      <c r="AE34" s="243"/>
+      <c r="AF34" s="243"/>
+      <c r="AG34" s="243"/>
+      <c r="AH34" s="243"/>
+      <c r="AI34" s="243"/>
+      <c r="AJ34" s="243"/>
+      <c r="AK34" s="244"/>
     </row>
     <row r="35" spans="23:37">
-      <c r="W35" s="83"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="248"/>
-      <c r="Z35" s="248"/>
-      <c r="AA35" s="248"/>
-      <c r="AB35" s="248"/>
-      <c r="AC35" s="248"/>
-      <c r="AD35" s="248"/>
-      <c r="AE35" s="248"/>
-      <c r="AF35" s="248"/>
-      <c r="AG35" s="248"/>
-      <c r="AH35" s="248"/>
-      <c r="AI35" s="248"/>
-      <c r="AJ35" s="248"/>
-      <c r="AK35" s="249"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="245"/>
+      <c r="Z35" s="245"/>
+      <c r="AA35" s="245"/>
+      <c r="AB35" s="245"/>
+      <c r="AC35" s="245"/>
+      <c r="AD35" s="245"/>
+      <c r="AE35" s="245"/>
+      <c r="AF35" s="245"/>
+      <c r="AG35" s="245"/>
+      <c r="AH35" s="245"/>
+      <c r="AI35" s="245"/>
+      <c r="AJ35" s="245"/>
+      <c r="AK35" s="246"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="92">
     <mergeCell ref="Y28:AD28"/>
     <mergeCell ref="W31:AB31"/>
     <mergeCell ref="W32:AI32"/>
@@ -5527,8 +5510,6 @@
     <mergeCell ref="N12:N15"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E25:I25"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
     <mergeCell ref="M5:U6"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="M17:P17"/>
@@ -5537,26 +5518,28 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="AL5:AL6"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AB5:AD6"/>
     <mergeCell ref="AE5:AG6"/>
     <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="Y5:AA6"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="AH3:AJ4"/>
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="Q12:Q15"/>
@@ -5565,15 +5548,10 @@
     <mergeCell ref="R12:R15"/>
     <mergeCell ref="Q16:T19"/>
     <mergeCell ref="S12:S15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="J12:J15"/>
     <mergeCell ref="P12:P15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
     <mergeCell ref="AH21:AI21"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="AG16:AG19"/>
@@ -5586,20 +5564,18 @@
     <mergeCell ref="Z17:AC19"/>
     <mergeCell ref="U17:Y19"/>
     <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="AJ8:AJ15"/>
     <mergeCell ref="AH18:AJ19"/>
     <mergeCell ref="AD18:AD19"/>
     <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="J19:L19"/>
     <mergeCell ref="AH16:AJ17"/>
     <mergeCell ref="AD16:AF17"/>
     <mergeCell ref="AF18:AF19"/>
     <mergeCell ref="Z16:AC16"/>
     <mergeCell ref="AG12:AG15"/>
     <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="E11:F15"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="J27:P27"/>
@@ -5609,6 +5585,12 @@
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="K24:S24"/>
     <mergeCell ref="K23:S23"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="O12:O15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -625,6 +625,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1474,12 +1481,438 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,448 +1967,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,7 +2022,7 @@
         <xdr:cNvPr id="1605" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2081,7 @@
         <xdr:cNvPr id="1606" name="Line 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2140,7 @@
         <xdr:cNvPr id="1608" name="Line 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2199,7 @@
         <xdr:cNvPr id="1612" name="Group 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2220,7 @@
           <xdr:cNvPr id="1621" name="Oval 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2254,7 +2261,7 @@
           <xdr:cNvPr id="1622" name="Oval 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2295,7 +2302,7 @@
           <xdr:cNvPr id="1623" name="Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2352,7 +2359,7 @@
         <xdr:cNvPr id="1154" name="Text Box 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2472,7 @@
         <xdr:cNvPr id="28" name="Text Box 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2576,7 @@
         <xdr:cNvPr id="1615" name="Group 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F060000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2597,7 @@
           <xdr:cNvPr id="1618" name="Oval 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2631,7 +2638,7 @@
           <xdr:cNvPr id="1619" name="Oval 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2672,7 +2679,7 @@
           <xdr:cNvPr id="1620" name="Rectangle 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054060000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2729,7 +2736,7 @@
         <xdr:cNvPr id="33" name="Text Box 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2849,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2914,7 @@
         <xdr:cNvPr id="32" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2973,7 @@
         <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3039,7 @@
         <xdr:cNvPr id="22" name="A1_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3105,7 @@
         <xdr:cNvPr id="23" name="A1_5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3171,7 @@
         <xdr:cNvPr id="24" name="A1_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3237,7 @@
         <xdr:cNvPr id="26" name="A1_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,7 +3303,7 @@
         <xdr:cNvPr id="29" name="C1_9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,7 +3369,7 @@
         <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3435,7 @@
         <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3494,7 +3501,7 @@
         <xdr:cNvPr id="35" name="C1_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3567,7 @@
         <xdr:cNvPr id="36" name="C1_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3633,7 @@
         <xdr:cNvPr id="37" name="C1_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3699,7 @@
         <xdr:cNvPr id="42" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3760,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,26 +4270,26 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="179" t="s">
+      <c r="Y3" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="179" t="s">
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="179" t="s">
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="179" t="s">
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="181"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="11"/>
     </row>
@@ -4311,24 +4318,24 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="182" t="s">
+      <c r="Y4" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="184"/>
-      <c r="AB4" s="182" t="s">
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="183"/>
-      <c r="AD4" s="184"/>
-      <c r="AE4" s="182" t="s">
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="183"/>
-      <c r="AG4" s="184"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="183"/>
-      <c r="AJ4" s="184"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="135"/>
+      <c r="AJ4" s="136"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
     </row>
@@ -4342,39 +4349,39 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="213" t="s">
+      <c r="J5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="219" t="s">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="196"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="196"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="196"/>
-      <c r="AF5" s="197"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="196"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="198"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="129"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="203"/>
+      <c r="AL5" s="140"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -4386,37 +4393,37 @@
       <c r="G6" s="1"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="236" t="s">
+      <c r="J6" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="219"/>
-      <c r="P6" s="219"/>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="208"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="172"/>
-      <c r="AB6" s="208"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="208"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="208"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="172"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="131"/>
+      <c r="AJ6" s="132"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="203"/>
+      <c r="AL6" s="140"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="1"/>
@@ -4461,155 +4468,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="211" t="s">
+      <c r="D8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="196" t="s">
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="197"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="196" t="s">
+      <c r="L8" s="128"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="196" t="s">
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="197"/>
-      <c r="AF8" s="197"/>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="209" t="s">
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128"/>
+      <c r="AG8" s="129"/>
+      <c r="AH8" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="210"/>
-      <c r="AJ8" s="193"/>
+      <c r="AI8" s="146"/>
+      <c r="AJ8" s="159"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="169"/>
-      <c r="Z9" s="199"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="127"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="127"/>
-      <c r="AG9" s="169"/>
-      <c r="AH9" s="204" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="205"/>
-      <c r="AJ9" s="194"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="160"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="201"/>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
-      <c r="U10" s="201"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="201"/>
-      <c r="AC10" s="201"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="201"/>
-      <c r="AF10" s="201"/>
-      <c r="AG10" s="202"/>
-      <c r="AH10" s="206" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="207"/>
-      <c r="AJ10" s="194"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="160"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:39" ht="27.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="211"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="247"/>
       <c r="F11" s="248"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="187"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="152"/>
       <c r="N11" s="19"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -4622,10 +4629,10 @@
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="21"/>
-      <c r="Z11" s="142" t="s">
+      <c r="Z11" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="143"/>
+      <c r="AA11" s="202"/>
       <c r="AB11" s="22"/>
       <c r="AC11" s="22" t="s">
         <v>32</v>
@@ -4642,177 +4649,177 @@
         <v>34</v>
       </c>
       <c r="AI11" s="25"/>
-      <c r="AJ11" s="194"/>
+      <c r="AJ11" s="160"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="211"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="249"/>
       <c r="F12" s="250"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="120"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="186"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="188"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="188"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="188"/>
+      <c r="AG12" s="167"/>
       <c r="AH12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AI12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="194"/>
+      <c r="AJ12" s="160"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="211"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="249"/>
       <c r="F13" s="250"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="120"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="186"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="188"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="188"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="167"/>
       <c r="AH13" s="26" t="s">
         <v>37</v>
       </c>
       <c r="AI13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AJ13" s="194"/>
+      <c r="AJ13" s="160"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="211"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="249"/>
       <c r="F14" s="250"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="120"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="186"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="188"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="188"/>
+      <c r="AE14" s="190"/>
+      <c r="AF14" s="188"/>
+      <c r="AG14" s="167"/>
       <c r="AH14" s="26"/>
       <c r="AI14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AJ14" s="194"/>
+      <c r="AJ14" s="160"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="211"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="251"/>
       <c r="F15" s="252"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="215"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="146"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="121"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="205"/>
+      <c r="AA15" s="206"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="168"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="29"/>
-      <c r="AJ15" s="195"/>
+      <c r="AJ15" s="161"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="30"/>
@@ -4820,54 +4827,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="211"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="160" t="s">
+      <c r="J16" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="161"/>
-      <c r="L16" s="162"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
       <c r="M16" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="164"/>
-      <c r="Q16" s="165" t="s">
+      <c r="Q16" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="167"/>
-      <c r="U16" s="235" t="s">
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="117" t="s">
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="111" t="s">
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="226"/>
+      <c r="AC16" s="227"/>
+      <c r="AD16" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="156" t="s">
+      <c r="AE16" s="220"/>
+      <c r="AF16" s="220"/>
+      <c r="AG16" s="184"/>
+      <c r="AH16" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="157"/>
+      <c r="AI16" s="215"/>
+      <c r="AJ16" s="216"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="16"/>
       <c r="AM16" s="30"/>
@@ -4875,8 +4882,8 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="211"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="33" t="s">
         <v>43</v>
       </c>
@@ -4884,123 +4891,123 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="228"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="169"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="134"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="159"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="198"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="193"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="222"/>
+      <c r="AG17" s="185"/>
+      <c r="AH17" s="217"/>
+      <c r="AI17" s="217"/>
+      <c r="AJ17" s="218"/>
       <c r="AK17" s="36"/>
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232" t="s">
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="233"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="169"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="133"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="134"/>
-      <c r="AD18" s="152" t="s">
+      <c r="K18" s="122"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="198"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="193"/>
+      <c r="AD18" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="154" t="s">
+      <c r="AE18" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="115" t="s">
+      <c r="AF18" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="149"/>
+      <c r="AG18" s="185"/>
+      <c r="AH18" s="207"/>
+      <c r="AI18" s="207"/>
+      <c r="AJ18" s="208"/>
       <c r="AK18" s="36"/>
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="229"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="174"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="171"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="150"/>
-      <c r="AJ19" s="151"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="199"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="195"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="200"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="195"/>
+      <c r="AC19" s="196"/>
+      <c r="AD19" s="212"/>
+      <c r="AE19" s="214"/>
+      <c r="AF19" s="224"/>
+      <c r="AG19" s="185"/>
+      <c r="AH19" s="209"/>
+      <c r="AI19" s="209"/>
+      <c r="AJ19" s="210"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="41"/>
@@ -5008,8 +5015,8 @@
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -5026,10 +5033,10 @@
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
-      <c r="U20" s="127" t="s">
+      <c r="U20" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="127"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="43"/>
       <c r="X20" s="44" t="s">
         <v>0</v>
@@ -5058,25 +5065,25 @@
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="222"/>
-      <c r="J21" s="101" t="s">
+      <c r="C21" s="96"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="244"/>
+      <c r="M21" s="244"/>
+      <c r="N21" s="244"/>
+      <c r="O21" s="244"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
       <c r="T21" s="46"/>
       <c r="U21" s="46"/>
       <c r="V21" s="47"/>
@@ -5091,10 +5098,10 @@
       <c r="AE21" s="42"/>
       <c r="AF21" s="42"/>
       <c r="AG21" s="51"/>
-      <c r="AH21" s="126" t="s">
+      <c r="AH21" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="126"/>
+      <c r="AI21" s="183"/>
       <c r="AJ21" s="52"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
@@ -5102,20 +5109,20 @@
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="85" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="97" t="s">
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="240"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
@@ -5146,23 +5153,23 @@
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="56"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
       <c r="I23" s="58"/>
       <c r="J23" s="59"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
+      <c r="Q23" s="242"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
       <c r="T23" s="84"/>
       <c r="U23" s="60"/>
       <c r="V23" s="61"/>
@@ -5186,25 +5193,25 @@
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="216" t="s">
+      <c r="C24" s="96"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="218"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="62"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="242"/>
+      <c r="N24" s="242"/>
+      <c r="O24" s="242"/>
+      <c r="P24" s="242"/>
+      <c r="Q24" s="242"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="242"/>
       <c r="T24" s="84"/>
       <c r="U24" s="63"/>
       <c r="V24" s="64"/>
@@ -5228,25 +5235,25 @@
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="199" t="s">
+      <c r="C25" s="96"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="169"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="66"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
+      <c r="K25" s="245"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="246"/>
+      <c r="N25" s="246"/>
+      <c r="O25" s="246"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
       <c r="T25" s="67"/>
       <c r="U25" s="44" t="s">
         <v>47</v>
@@ -5272,25 +5279,25 @@
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="69"/>
       <c r="F26" s="70"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
       <c r="I26" s="71"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="237"/>
+      <c r="Q26" s="238"/>
+      <c r="R26" s="238"/>
+      <c r="S26" s="238"/>
+      <c r="T26" s="238"/>
+      <c r="U26" s="238"/>
       <c r="V26" s="16"/>
       <c r="W26" s="72"/>
       <c r="X26" s="1"/>
@@ -5312,31 +5319,31 @@
     <row r="27" spans="1:39" ht="28.15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="88" t="s">
+      <c r="C27" s="96"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91" t="s">
+      <c r="F27" s="231"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93" t="s">
+      <c r="K27" s="234"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="234"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="234"/>
+      <c r="Q27" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="235"/>
       <c r="V27" s="74"/>
       <c r="W27" s="72"/>
       <c r="X27" s="73"/>
@@ -5357,12 +5364,12 @@
     </row>
     <row r="28" spans="1:39" ht="11.25" customHeight="1">
       <c r="X28" s="75"/>
-      <c r="Y28" s="237"/>
-      <c r="Z28" s="237"/>
-      <c r="AA28" s="237"/>
-      <c r="AB28" s="237"/>
-      <c r="AC28" s="237"/>
-      <c r="AD28" s="237"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="77"/>
@@ -5407,14 +5414,14 @@
       <c r="AK30" s="79"/>
     </row>
     <row r="31" spans="1:39">
-      <c r="W31" s="238" t="s">
+      <c r="W31" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="X31" s="239"/>
-      <c r="Y31" s="239"/>
-      <c r="Z31" s="239"/>
-      <c r="AA31" s="239"/>
-      <c r="AB31" s="240"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="88"/>
       <c r="AD31" s="75"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="76"/>
@@ -5425,85 +5432,151 @@
       <c r="AK31" s="80"/>
     </row>
     <row r="32" spans="1:39">
-      <c r="W32" s="241" t="s">
+      <c r="W32" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="242"/>
-      <c r="Y32" s="242"/>
-      <c r="Z32" s="242"/>
-      <c r="AA32" s="242"/>
-      <c r="AB32" s="242"/>
-      <c r="AC32" s="242"/>
-      <c r="AD32" s="242"/>
-      <c r="AE32" s="242"/>
-      <c r="AF32" s="242"/>
-      <c r="AG32" s="242"/>
-      <c r="AH32" s="242"/>
-      <c r="AI32" s="242"/>
-      <c r="AJ32" s="239"/>
-      <c r="AK32" s="240"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="88"/>
     </row>
     <row r="33" spans="23:37">
       <c r="W33" s="81"/>
       <c r="X33" s="75"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="243"/>
-      <c r="AA33" s="243"/>
-      <c r="AB33" s="243"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="243"/>
-      <c r="AE33" s="243"/>
-      <c r="AF33" s="243"/>
-      <c r="AG33" s="243"/>
-      <c r="AH33" s="243"/>
-      <c r="AI33" s="243"/>
-      <c r="AJ33" s="243" t="s">
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AK33" s="244"/>
+      <c r="AK33" s="92"/>
     </row>
     <row r="34" spans="23:37">
       <c r="W34" s="81"/>
       <c r="X34" s="75"/>
-      <c r="Y34" s="243"/>
-      <c r="Z34" s="243"/>
-      <c r="AA34" s="243"/>
-      <c r="AB34" s="243"/>
-      <c r="AC34" s="243"/>
-      <c r="AD34" s="243"/>
-      <c r="AE34" s="243"/>
-      <c r="AF34" s="243"/>
-      <c r="AG34" s="243"/>
-      <c r="AH34" s="243"/>
-      <c r="AI34" s="243"/>
-      <c r="AJ34" s="243"/>
-      <c r="AK34" s="244"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="91"/>
+      <c r="AK34" s="92"/>
     </row>
     <row r="35" spans="23:37">
       <c r="W35" s="82"/>
       <c r="X35" s="83"/>
-      <c r="Y35" s="245"/>
-      <c r="Z35" s="245"/>
-      <c r="AA35" s="245"/>
-      <c r="AB35" s="245"/>
-      <c r="AC35" s="245"/>
-      <c r="AD35" s="245"/>
-      <c r="AE35" s="245"/>
-      <c r="AF35" s="245"/>
-      <c r="AG35" s="245"/>
-      <c r="AH35" s="245"/>
-      <c r="AI35" s="245"/>
-      <c r="AJ35" s="245"/>
-      <c r="AK35" s="246"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="94"/>
     </row>
     <row r="37" spans="23:37" ht="84.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="W32:AI32"/>
-    <mergeCell ref="AJ32:AK35"/>
-    <mergeCell ref="Y33:AI35"/>
+    <mergeCell ref="E11:F15"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="AD16:AF17"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AG12:AG15"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AC12:AC15"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="AG16:AG19"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="V12:V15"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="X12:X15"/>
+    <mergeCell ref="AB12:AB15"/>
+    <mergeCell ref="AE12:AE15"/>
+    <mergeCell ref="Z17:AC19"/>
+    <mergeCell ref="U17:Y19"/>
+    <mergeCell ref="Z11:AA15"/>
+    <mergeCell ref="AH18:AJ19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AH16:AJ17"/>
+    <mergeCell ref="K11:M15"/>
+    <mergeCell ref="AJ8:AJ15"/>
+    <mergeCell ref="K8:M10"/>
+    <mergeCell ref="N8:Y10"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="Y12:Y15"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="Q16:T19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="E8:J10"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE5:AG6"/>
+    <mergeCell ref="AH5:AJ6"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="Z8:AG10"/>
+    <mergeCell ref="AH3:AJ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
     <mergeCell ref="D8:D27"/>
     <mergeCell ref="C8:C27"/>
     <mergeCell ref="J5:L5"/>
@@ -5520,77 +5593,11 @@
     <mergeCell ref="U16:Y16"/>
     <mergeCell ref="Y5:AA6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="E8:J10"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE5:AG6"/>
-    <mergeCell ref="AH5:AJ6"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="Z8:AG10"/>
-    <mergeCell ref="AH3:AJ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="K11:M15"/>
-    <mergeCell ref="AJ8:AJ15"/>
-    <mergeCell ref="K8:M10"/>
-    <mergeCell ref="N8:Y10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="Y12:Y15"/>
-    <mergeCell ref="T12:T15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="Q16:T19"/>
-    <mergeCell ref="S12:S15"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="AG16:AG19"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="V12:V15"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="X12:X15"/>
-    <mergeCell ref="AB12:AB15"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="Z17:AC19"/>
-    <mergeCell ref="U17:Y19"/>
-    <mergeCell ref="Z11:AA15"/>
-    <mergeCell ref="AH18:AJ19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AH16:AJ17"/>
-    <mergeCell ref="AD16:AF17"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AG12:AG15"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AC12:AC15"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="E11:F15"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="W32:AI32"/>
+    <mergeCell ref="AJ32:AK35"/>
+    <mergeCell ref="Y33:AI35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QSI002.xlsx
@@ -1283,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1353,9 +1353,6 @@
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,6 +1478,462 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,480 +1964,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,7 +2029,7 @@
         <xdr:cNvPr id="1605" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2088,7 @@
         <xdr:cNvPr id="1606" name="Line 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2147,7 @@
         <xdr:cNvPr id="1608" name="Line 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2206,7 @@
         <xdr:cNvPr id="1612" name="Group 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2227,7 @@
           <xdr:cNvPr id="1621" name="Oval 126">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000055060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2261,7 +2268,7 @@
           <xdr:cNvPr id="1622" name="Oval 127">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000056060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2302,7 +2309,7 @@
           <xdr:cNvPr id="1623" name="Rectangle 128">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2359,7 +2366,7 @@
         <xdr:cNvPr id="1154" name="Text Box 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2479,7 @@
         <xdr:cNvPr id="28" name="Text Box 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +2583,7 @@
         <xdr:cNvPr id="1615" name="Group 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F060000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F060000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2604,7 @@
           <xdr:cNvPr id="1618" name="Oval 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2638,7 +2645,7 @@
           <xdr:cNvPr id="1619" name="Oval 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000053060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2679,7 +2686,7 @@
           <xdr:cNvPr id="1620" name="Rectangle 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054060000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054060000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2736,7 +2743,7 @@
         <xdr:cNvPr id="33" name="Text Box 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2856,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2921,7 @@
         <xdr:cNvPr id="32" name="Line 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2980,7 @@
         <xdr:cNvPr id="21" name="A1_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3046,7 @@
         <xdr:cNvPr id="22" name="A1_6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3112,7 @@
         <xdr:cNvPr id="23" name="A1_5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3178,7 @@
         <xdr:cNvPr id="24" name="A1_7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3244,7 @@
         <xdr:cNvPr id="26" name="A1_8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3310,7 @@
         <xdr:cNvPr id="29" name="C1_9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3376,7 @@
         <xdr:cNvPr id="31" name="C1_10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3442,7 @@
         <xdr:cNvPr id="34" name="C1_11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3508,7 @@
         <xdr:cNvPr id="35" name="C1_12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3574,7 @@
         <xdr:cNvPr id="36" name="C1_13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3640,7 @@
         <xdr:cNvPr id="37" name="C1_14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3699,7 +3706,7 @@
         <xdr:cNvPr id="42" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBDBE897-C3CA-49F3-B3BD-41959751EF73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3767,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4270,26 +4277,26 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="137" t="s">
+      <c r="Y3" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="137" t="s">
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="137" t="s">
+      <c r="AC3" s="200"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="137" t="s">
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="201"/>
+      <c r="AH3" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="139"/>
+      <c r="AI3" s="200"/>
+      <c r="AJ3" s="201"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="11"/>
     </row>
@@ -4318,24 +4325,24 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="134" t="s">
+      <c r="Y4" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="134" t="s">
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="134" t="s">
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="136"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="198"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="11"/>
     </row>
@@ -4349,39 +4356,39 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="106" t="s">
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="218"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="218"/>
+      <c r="U5" s="218"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="128"/>
-      <c r="AJ5" s="129"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="172"/>
       <c r="AK5" s="13"/>
-      <c r="AL5" s="140"/>
+      <c r="AL5" s="202"/>
     </row>
     <row r="6" spans="1:39" ht="27.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -4393,37 +4400,37 @@
       <c r="G6" s="1"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="235"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="218"/>
+      <c r="P6" s="218"/>
+      <c r="Q6" s="218"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="132"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="189"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="189"/>
+      <c r="AH6" s="207"/>
+      <c r="AI6" s="188"/>
+      <c r="AJ6" s="189"/>
       <c r="AK6" s="13"/>
-      <c r="AL6" s="140"/>
+      <c r="AL6" s="202"/>
     </row>
     <row r="7" spans="1:39" ht="35.25" customHeight="1">
       <c r="A7" s="1"/>
@@ -4468,155 +4475,155 @@
     <row r="8" spans="1:39" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="127" t="s">
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="127" t="s">
+      <c r="L8" s="171"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="127" t="s">
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="128"/>
-      <c r="AG8" s="129"/>
-      <c r="AH8" s="145" t="s">
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="146"/>
-      <c r="AJ8" s="159"/>
+      <c r="AI8" s="209"/>
+      <c r="AJ8" s="167"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="141" t="s">
+      <c r="C9" s="211"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="160"/>
+      <c r="AI9" s="204"/>
+      <c r="AJ9" s="168"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="149"/>
-      <c r="AH10" s="143" t="s">
+      <c r="C10" s="211"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="176"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="AI10" s="144"/>
-      <c r="AJ10" s="160"/>
+      <c r="AI10" s="206"/>
+      <c r="AJ10" s="168"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="16"/>
     </row>
-    <row r="11" spans="1:39" ht="27.75" customHeight="1">
+    <row r="11" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="255"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="161"/>
       <c r="N11" s="19"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -4629,10 +4636,10 @@
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="21"/>
-      <c r="Z11" s="201" t="s">
+      <c r="Z11" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="202"/>
+      <c r="AA11" s="142"/>
       <c r="AB11" s="22"/>
       <c r="AC11" s="22" t="s">
         <v>32</v>
@@ -4649,177 +4656,177 @@
         <v>34</v>
       </c>
       <c r="AI11" s="25"/>
-      <c r="AJ11" s="160"/>
+      <c r="AJ11" s="168"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:39" ht="12" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="250"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="188"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="188"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="188"/>
-      <c r="AG12" s="167"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="123"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="123"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="119"/>
       <c r="AH12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="AI12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="160"/>
+      <c r="AJ12" s="168"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:39" ht="12" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="203"/>
-      <c r="AA13" s="204"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="190"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="167"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="119"/>
       <c r="AH13" s="26" t="s">
         <v>37</v>
       </c>
       <c r="AI13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AJ13" s="160"/>
+      <c r="AJ13" s="168"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:39" ht="12" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="203"/>
-      <c r="AA14" s="204"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="190"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="190"/>
-      <c r="AF14" s="188"/>
-      <c r="AG14" s="167"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="119"/>
       <c r="AH14" s="26"/>
       <c r="AI14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AJ14" s="160"/>
+      <c r="AJ14" s="168"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="205"/>
-      <c r="AA15" s="206"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="168"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="146"/>
+      <c r="AB15" s="122"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="120"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="29"/>
-      <c r="AJ15" s="161"/>
+      <c r="AJ15" s="169"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="16"/>
       <c r="AM15" s="30"/>
@@ -4827,54 +4834,54 @@
     <row r="16" spans="1:39" ht="11.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="162" t="s">
+      <c r="C16" s="211"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="163" t="s">
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="171" t="s">
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="124" t="s">
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="234" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="225" t="s">
+      <c r="V16" s="179"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="180"/>
+      <c r="Z16" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="226"/>
-      <c r="AB16" s="226"/>
-      <c r="AC16" s="227"/>
-      <c r="AD16" s="219" t="s">
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="220"/>
-      <c r="AF16" s="220"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="215" t="s">
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="215"/>
-      <c r="AJ16" s="216"/>
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="156"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="16"/>
       <c r="AM16" s="30"/>
@@ -4882,426 +4889,426 @@
     <row r="17" spans="1:39" ht="27.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="211"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="197"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="192"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="154"/>
-      <c r="AC17" s="193"/>
-      <c r="AD17" s="221"/>
-      <c r="AE17" s="222"/>
-      <c r="AF17" s="222"/>
-      <c r="AG17" s="185"/>
-      <c r="AH17" s="217"/>
-      <c r="AI17" s="217"/>
-      <c r="AJ17" s="218"/>
-      <c r="AK17" s="36"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="222"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="131"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="157"/>
+      <c r="AI17" s="157"/>
+      <c r="AJ17" s="158"/>
+      <c r="AK17" s="35"/>
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:39" ht="11.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="119" t="s">
+      <c r="C18" s="211"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="121" t="s">
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="230"/>
+      <c r="J18" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="122"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="193"/>
-      <c r="AD18" s="211" t="s">
+      <c r="K18" s="232"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="131"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="213" t="s">
+      <c r="AE18" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="223" t="s">
+      <c r="AF18" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="185"/>
-      <c r="AH18" s="207"/>
-      <c r="AI18" s="207"/>
-      <c r="AJ18" s="208"/>
-      <c r="AK18" s="36"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="147"/>
+      <c r="AI18" s="147"/>
+      <c r="AJ18" s="148"/>
+      <c r="AK18" s="35"/>
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:39" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="199"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="200"/>
-      <c r="Z19" s="194"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="195"/>
-      <c r="AC19" s="196"/>
-      <c r="AD19" s="212"/>
-      <c r="AE19" s="214"/>
-      <c r="AF19" s="224"/>
-      <c r="AG19" s="185"/>
-      <c r="AH19" s="209"/>
-      <c r="AI19" s="209"/>
-      <c r="AJ19" s="210"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="229"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="189"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="115"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="150"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="16"/>
-      <c r="AM19" s="41"/>
+      <c r="AM19" s="40"/>
     </row>
     <row r="20" spans="1:39" ht="33" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="104" t="s">
+      <c r="C20" s="211"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="104"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="44" t="s">
+      <c r="V20" s="126"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="44" t="s">
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="45" t="s">
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="44" t="s">
+      <c r="AC20" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="243" t="s">
+      <c r="C21" s="211"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="244"/>
-      <c r="L21" s="244"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="244"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="183" t="s">
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="AI21" s="183"/>
-      <c r="AJ21" s="52"/>
+      <c r="AI21" s="125"/>
+      <c r="AJ21" s="51"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:39" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="228" t="s">
+      <c r="C22" s="211"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="239" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="240"/>
-      <c r="L22" s="240"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="55"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="54"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:39" ht="30" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="242"/>
-      <c r="Q23" s="242"/>
-      <c r="R23" s="242"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="55"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="54"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:39" ht="30" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="100" t="s">
+      <c r="C24" s="211"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="241"/>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
-      <c r="N24" s="242"/>
-      <c r="O24" s="242"/>
-      <c r="P24" s="242"/>
-      <c r="Q24" s="242"/>
-      <c r="R24" s="242"/>
-      <c r="S24" s="242"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:39" ht="28.9" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="103" t="s">
+      <c r="C25" s="211"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="245"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="246"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="44" t="s">
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="V25" s="42"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:39" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="9